--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="102">
   <si>
     <t>Doi</t>
   </si>
@@ -411,6 +411,227 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,   Christopher%Gieraerts%NULL%2,   Christopher%Gieraerts%NULL%0,   Yves%De Bruecker%NULL%2,   Yves%De Bruecker%NULL%0,   Lode%Janssen%NULL%2,   Lode%Janssen%NULL%0,   Hanne%Valgaeren%NULL%2,   Hanne%Valgaeren%NULL%0,   Dagmar%Obbels%NULL%2,   Dagmar%Obbels%NULL%0,   Marc%Gillis%NULL%2,   Marc%Gillis%NULL%0,   Marc%Van Ranst%NULL%2,   Marc%Van Ranst%NULL%0,   Johan%Frans%NULL%1,   Annick%Demeyere%NULL%2,   Annick%Demeyere%NULL%0,   Rolf%Symons%rolf.symons@imelda.be%2,   Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+id="Par2"&gt;A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+id="Par3"&gt;Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+id="Par5"&gt;
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,       Yanyan%Tang%NULL%1,       Yongkang%Mo%NULL%1,       Shengkai%Li%NULL%1,       Daiying%Lin%NULL%1,       Zhijian%Yang%NULL%1,       Zhiqi%Yang%NULL%1,       Hongfu%Sun%NULL%1,       Jinming%Qiu%NULL%1,       Yuting%Liao%NULL%1,       Jianning%Xiao%NULL%1,       Xiangguang%Chen%NULL%1,       Xianheng%Wu%NULL%1,       Renhua%Wu%NULL%1,       Zhuozhi%Dai%zhuozhi@ualberta.ca%1,      Xiaofeng%Chen%NULL%1,      Yanyan%Tang%NULL%1,      Yongkang%Mo%NULL%1,      Shengkai%Li%NULL%1,      Daiying%Lin%NULL%1,      Zhijian%Yang%NULL%1,      Zhiqi%Yang%NULL%1,      Hongfu%Sun%NULL%1,      Jinming%Qiu%NULL%1,      Yuting%Liao%NULL%1,      Jianning%Xiao%NULL%1,      Xiangguang%Chen%NULL%1,      Xianheng%Wu%NULL%1,      Renhua%Wu%NULL%1,      Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
+Materials and methods
+id="Par2"&gt;This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
+ Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
+Results
+id="Par3"&gt;All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
+ The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
+Conclusion
+id="Par4"&gt;Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
+Electronic supplementary material
+The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,       Akihiko%Sakata%NULL%1,       Mitsuhiro%Kirita%NULL%1,       Takashi%Hiroi%NULL%1,       Ken-ichiro%Kobayashi%NULL%1,       Kenji%Kubo%NULL%1,       Hyunjin%Kim%NULL%1,       Azusa%Nishimoto%NULL%1,       Chikara%Maeda%NULL%1,       Akira%Kawamura%NULL%1,       Nobuhiro%Komiya%NULL%1,       Shigeaki%Umeoka%NULL%1,      Yuki%Himoto%yukihimoto@gmail.com%1,      Akihiko%Sakata%NULL%1,      Mitsuhiro%Kirita%NULL%1,      Takashi%Hiroi%NULL%1,      Ken-ichiro%Kobayashi%NULL%1,      Kenji%Kubo%NULL%1,      Hyunjin%Kim%NULL%1,      Azusa%Nishimoto%NULL%1,      Chikara%Maeda%NULL%1,      Akira%Kawamura%NULL%1,      Nobuhiro%Komiya%NULL%1,      Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+id="Par3"&gt;Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+id="Par5"&gt;
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,        Yanyan%Tang%NULL%1,        Yongkang%Mo%NULL%1,        Shengkai%Li%NULL%1,        Daiying%Lin%NULL%1,        Zhijian%Yang%NULL%1,        Zhiqi%Yang%NULL%1,        Hongfu%Sun%NULL%1,        Jinming%Qiu%NULL%1,        Yuting%Liao%NULL%1,        Jianning%Xiao%NULL%1,        Xiangguang%Chen%NULL%1,        Xianheng%Wu%NULL%1,        Renhua%Wu%NULL%1,        Zhuozhi%Dai%zhuozhi@ualberta.ca%1,       Xiaofeng%Chen%NULL%1,       Yanyan%Tang%NULL%1,       Yongkang%Mo%NULL%1,       Shengkai%Li%NULL%1,       Daiying%Lin%NULL%1,       Zhijian%Yang%NULL%1,       Zhiqi%Yang%NULL%1,       Hongfu%Sun%NULL%1,       Jinming%Qiu%NULL%1,       Yuting%Liao%NULL%1,       Jianning%Xiao%NULL%1,       Xiangguang%Chen%NULL%1,       Xianheng%Wu%NULL%1,       Renhua%Wu%NULL%1,       Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
+Materials and methods
+This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
+ Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
+Results
+id="Par3"&gt;All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
+ The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
+Conclusion
+id="Par4"&gt;Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
+Electronic supplementary material
+The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,        Akihiko%Sakata%NULL%1,        Mitsuhiro%Kirita%NULL%1,        Takashi%Hiroi%NULL%1,        Ken-ichiro%Kobayashi%NULL%1,        Kenji%Kubo%NULL%1,        Hyunjin%Kim%NULL%1,        Azusa%Nishimoto%NULL%1,        Chikara%Maeda%NULL%1,        Akira%Kawamura%NULL%1,        Nobuhiro%Komiya%NULL%1,        Shigeaki%Umeoka%NULL%1,       Yuki%Himoto%yukihimoto@gmail.com%1,       Akihiko%Sakata%NULL%1,       Mitsuhiro%Kirita%NULL%1,       Takashi%Hiroi%NULL%1,       Ken-ichiro%Kobayashi%NULL%1,       Kenji%Kubo%NULL%1,       Hyunjin%Kim%NULL%1,       Azusa%Nishimoto%NULL%1,       Chikara%Maeda%NULL%1,       Akira%Kawamura%NULL%1,       Nobuhiro%Komiya%NULL%1,       Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+id="Par5"&gt;
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,         Yanyan%Tang%NULL%1,         Yongkang%Mo%NULL%1,         Shengkai%Li%NULL%1,         Daiying%Lin%NULL%1,         Zhijian%Yang%NULL%1,         Zhiqi%Yang%NULL%1,         Hongfu%Sun%NULL%1,         Jinming%Qiu%NULL%1,         Yuting%Liao%NULL%1,         Jianning%Xiao%NULL%1,         Xiangguang%Chen%NULL%1,         Xianheng%Wu%NULL%1,         Renhua%Wu%NULL%1,         Zhuozhi%Dai%zhuozhi@ualberta.ca%1,        Xiaofeng%Chen%NULL%1,        Yanyan%Tang%NULL%1,        Yongkang%Mo%NULL%1,        Shengkai%Li%NULL%1,        Daiying%Lin%NULL%1,        Zhijian%Yang%NULL%1,        Zhiqi%Yang%NULL%1,        Hongfu%Sun%NULL%1,        Jinming%Qiu%NULL%1,        Yuting%Liao%NULL%1,        Jianning%Xiao%NULL%1,        Xiangguang%Chen%NULL%1,        Xianheng%Wu%NULL%1,        Renhua%Wu%NULL%1,        Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
+Materials and methods
+This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
+ Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
+Results
+All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
+ The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
+Conclusion
+id="Par4"&gt;Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
+Electronic supplementary material
+The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,         Akihiko%Sakata%NULL%1,         Mitsuhiro%Kirita%NULL%1,         Takashi%Hiroi%NULL%1,         Ken-ichiro%Kobayashi%NULL%1,         Kenji%Kubo%NULL%1,         Hyunjin%Kim%NULL%1,         Azusa%Nishimoto%NULL%1,         Chikara%Maeda%NULL%1,         Akira%Kawamura%NULL%1,         Nobuhiro%Komiya%NULL%1,         Shigeaki%Umeoka%NULL%1,        Yuki%Himoto%yukihimoto@gmail.com%1,        Akihiko%Sakata%NULL%1,        Mitsuhiro%Kirita%NULL%1,        Takashi%Hiroi%NULL%1,        Ken-ichiro%Kobayashi%NULL%1,        Kenji%Kubo%NULL%1,        Hyunjin%Kim%NULL%1,        Azusa%Nishimoto%NULL%1,        Chikara%Maeda%NULL%1,        Akira%Kawamura%NULL%1,        Nobuhiro%Komiya%NULL%1,        Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+id="Par5"&gt;
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,          Yanyan%Tang%NULL%1,          Yongkang%Mo%NULL%1,          Shengkai%Li%NULL%1,          Daiying%Lin%NULL%1,          Zhijian%Yang%NULL%1,          Zhiqi%Yang%NULL%1,          Hongfu%Sun%NULL%1,          Jinming%Qiu%NULL%1,          Yuting%Liao%NULL%1,          Jianning%Xiao%NULL%1,          Xiangguang%Chen%NULL%1,          Xianheng%Wu%NULL%1,          Renhua%Wu%NULL%1,          Zhuozhi%Dai%zhuozhi@ualberta.ca%1,         Xiaofeng%Chen%NULL%1,         Yanyan%Tang%NULL%1,         Yongkang%Mo%NULL%1,         Shengkai%Li%NULL%1,         Daiying%Lin%NULL%1,         Zhijian%Yang%NULL%1,         Zhiqi%Yang%NULL%1,         Hongfu%Sun%NULL%1,         Jinming%Qiu%NULL%1,         Yuting%Liao%NULL%1,         Jianning%Xiao%NULL%1,         Xiangguang%Chen%NULL%1,         Xianheng%Wu%NULL%1,         Renhua%Wu%NULL%1,         Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
+Materials and methods
+This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
+ Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
+Results
+All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
+ The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
+Conclusion
+Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
+Electronic supplementary material
+The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,          Akihiko%Sakata%NULL%1,          Mitsuhiro%Kirita%NULL%1,          Takashi%Hiroi%NULL%1,          Ken-ichiro%Kobayashi%NULL%1,          Kenji%Kubo%NULL%1,          Hyunjin%Kim%NULL%1,          Azusa%Nishimoto%NULL%1,          Chikara%Maeda%NULL%1,          Akira%Kawamura%NULL%1,          Nobuhiro%Komiya%NULL%1,          Shigeaki%Umeoka%NULL%1,         Yuki%Himoto%yukihimoto@gmail.com%1,         Akihiko%Sakata%NULL%1,         Mitsuhiro%Kirita%NULL%1,         Takashi%Hiroi%NULL%1,         Ken-ichiro%Kobayashi%NULL%1,         Kenji%Kubo%NULL%1,         Hyunjin%Kim%NULL%1,         Azusa%Nishimoto%NULL%1,         Chikara%Maeda%NULL%1,         Akira%Kawamura%NULL%1,         Nobuhiro%Komiya%NULL%1,         Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,           Yanyan%Tang%NULL%1,           Yongkang%Mo%NULL%1,           Shengkai%Li%NULL%1,           Daiying%Lin%NULL%1,           Zhijian%Yang%NULL%1,           Zhiqi%Yang%NULL%1,           Hongfu%Sun%NULL%1,           Jinming%Qiu%NULL%1,           Yuting%Liao%NULL%1,           Jianning%Xiao%NULL%1,           Xiangguang%Chen%NULL%1,           Xianheng%Wu%NULL%1,           Renhua%Wu%NULL%1,           Zhuozhi%Dai%zhuozhi@ualberta.ca%1,          Xiaofeng%Chen%NULL%1,          Yanyan%Tang%NULL%1,          Yongkang%Mo%NULL%1,          Shengkai%Li%NULL%1,          Daiying%Lin%NULL%1,          Zhijian%Yang%NULL%1,          Zhiqi%Yang%NULL%1,          Hongfu%Sun%NULL%1,          Jinming%Qiu%NULL%1,          Yuting%Liao%NULL%1,          Jianning%Xiao%NULL%1,          Xiangguang%Chen%NULL%1,          Xianheng%Wu%NULL%1,          Renhua%Wu%NULL%1,          Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -803,10 +1024,10 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -881,10 +1102,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="84">
   <si>
     <t>Doi</t>
   </si>
@@ -411,227 +411,6 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,   Christopher%Gieraerts%NULL%2,   Christopher%Gieraerts%NULL%0,   Yves%De Bruecker%NULL%2,   Yves%De Bruecker%NULL%0,   Lode%Janssen%NULL%2,   Lode%Janssen%NULL%0,   Hanne%Valgaeren%NULL%2,   Hanne%Valgaeren%NULL%0,   Dagmar%Obbels%NULL%2,   Dagmar%Obbels%NULL%0,   Marc%Gillis%NULL%2,   Marc%Gillis%NULL%0,   Marc%Van Ranst%NULL%2,   Marc%Van Ranst%NULL%0,   Johan%Frans%NULL%1,   Annick%Demeyere%NULL%2,   Annick%Demeyere%NULL%0,   Rolf%Symons%rolf.symons@imelda.be%2,   Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-id="Par2"&gt;A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-id="Par3"&gt;Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-id="Par5"&gt;
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,       Yanyan%Tang%NULL%1,       Yongkang%Mo%NULL%1,       Shengkai%Li%NULL%1,       Daiying%Lin%NULL%1,       Zhijian%Yang%NULL%1,       Zhiqi%Yang%NULL%1,       Hongfu%Sun%NULL%1,       Jinming%Qiu%NULL%1,       Yuting%Liao%NULL%1,       Jianning%Xiao%NULL%1,       Xiangguang%Chen%NULL%1,       Xianheng%Wu%NULL%1,       Renhua%Wu%NULL%1,       Zhuozhi%Dai%zhuozhi@ualberta.ca%1,      Xiaofeng%Chen%NULL%1,      Yanyan%Tang%NULL%1,      Yongkang%Mo%NULL%1,      Shengkai%Li%NULL%1,      Daiying%Lin%NULL%1,      Zhijian%Yang%NULL%1,      Zhiqi%Yang%NULL%1,      Hongfu%Sun%NULL%1,      Jinming%Qiu%NULL%1,      Yuting%Liao%NULL%1,      Jianning%Xiao%NULL%1,      Xiangguang%Chen%NULL%1,      Xianheng%Wu%NULL%1,      Renhua%Wu%NULL%1,      Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
-Materials and methods
-id="Par2"&gt;This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
- Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
-Results
-id="Par3"&gt;All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
- The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
-Conclusion
-id="Par4"&gt;Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
-Electronic supplementary material
-The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,       Akihiko%Sakata%NULL%1,       Mitsuhiro%Kirita%NULL%1,       Takashi%Hiroi%NULL%1,       Ken-ichiro%Kobayashi%NULL%1,       Kenji%Kubo%NULL%1,       Hyunjin%Kim%NULL%1,       Azusa%Nishimoto%NULL%1,       Chikara%Maeda%NULL%1,       Akira%Kawamura%NULL%1,       Nobuhiro%Komiya%NULL%1,       Shigeaki%Umeoka%NULL%1,      Yuki%Himoto%yukihimoto@gmail.com%1,      Akihiko%Sakata%NULL%1,      Mitsuhiro%Kirita%NULL%1,      Takashi%Hiroi%NULL%1,      Ken-ichiro%Kobayashi%NULL%1,      Kenji%Kubo%NULL%1,      Hyunjin%Kim%NULL%1,      Azusa%Nishimoto%NULL%1,      Chikara%Maeda%NULL%1,      Akira%Kawamura%NULL%1,      Nobuhiro%Komiya%NULL%1,      Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-id="Par3"&gt;Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-id="Par5"&gt;
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,        Yanyan%Tang%NULL%1,        Yongkang%Mo%NULL%1,        Shengkai%Li%NULL%1,        Daiying%Lin%NULL%1,        Zhijian%Yang%NULL%1,        Zhiqi%Yang%NULL%1,        Hongfu%Sun%NULL%1,        Jinming%Qiu%NULL%1,        Yuting%Liao%NULL%1,        Jianning%Xiao%NULL%1,        Xiangguang%Chen%NULL%1,        Xianheng%Wu%NULL%1,        Renhua%Wu%NULL%1,        Zhuozhi%Dai%zhuozhi@ualberta.ca%1,       Xiaofeng%Chen%NULL%1,       Yanyan%Tang%NULL%1,       Yongkang%Mo%NULL%1,       Shengkai%Li%NULL%1,       Daiying%Lin%NULL%1,       Zhijian%Yang%NULL%1,       Zhiqi%Yang%NULL%1,       Hongfu%Sun%NULL%1,       Jinming%Qiu%NULL%1,       Yuting%Liao%NULL%1,       Jianning%Xiao%NULL%1,       Xiangguang%Chen%NULL%1,       Xianheng%Wu%NULL%1,       Renhua%Wu%NULL%1,       Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
-Materials and methods
-This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
- Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
-Results
-id="Par3"&gt;All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
- The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
-Conclusion
-id="Par4"&gt;Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
-Electronic supplementary material
-The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,        Akihiko%Sakata%NULL%1,        Mitsuhiro%Kirita%NULL%1,        Takashi%Hiroi%NULL%1,        Ken-ichiro%Kobayashi%NULL%1,        Kenji%Kubo%NULL%1,        Hyunjin%Kim%NULL%1,        Azusa%Nishimoto%NULL%1,        Chikara%Maeda%NULL%1,        Akira%Kawamura%NULL%1,        Nobuhiro%Komiya%NULL%1,        Shigeaki%Umeoka%NULL%1,       Yuki%Himoto%yukihimoto@gmail.com%1,       Akihiko%Sakata%NULL%1,       Mitsuhiro%Kirita%NULL%1,       Takashi%Hiroi%NULL%1,       Ken-ichiro%Kobayashi%NULL%1,       Kenji%Kubo%NULL%1,       Hyunjin%Kim%NULL%1,       Azusa%Nishimoto%NULL%1,       Chikara%Maeda%NULL%1,       Akira%Kawamura%NULL%1,       Nobuhiro%Komiya%NULL%1,       Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-id="Par5"&gt;
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,         Yanyan%Tang%NULL%1,         Yongkang%Mo%NULL%1,         Shengkai%Li%NULL%1,         Daiying%Lin%NULL%1,         Zhijian%Yang%NULL%1,         Zhiqi%Yang%NULL%1,         Hongfu%Sun%NULL%1,         Jinming%Qiu%NULL%1,         Yuting%Liao%NULL%1,         Jianning%Xiao%NULL%1,         Xiangguang%Chen%NULL%1,         Xianheng%Wu%NULL%1,         Renhua%Wu%NULL%1,         Zhuozhi%Dai%zhuozhi@ualberta.ca%1,        Xiaofeng%Chen%NULL%1,        Yanyan%Tang%NULL%1,        Yongkang%Mo%NULL%1,        Shengkai%Li%NULL%1,        Daiying%Lin%NULL%1,        Zhijian%Yang%NULL%1,        Zhiqi%Yang%NULL%1,        Hongfu%Sun%NULL%1,        Jinming%Qiu%NULL%1,        Yuting%Liao%NULL%1,        Jianning%Xiao%NULL%1,        Xiangguang%Chen%NULL%1,        Xianheng%Wu%NULL%1,        Renhua%Wu%NULL%1,        Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
-Materials and methods
-This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
- Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
-Results
-All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
- The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
-Conclusion
-id="Par4"&gt;Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
-Electronic supplementary material
-The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,         Akihiko%Sakata%NULL%1,         Mitsuhiro%Kirita%NULL%1,         Takashi%Hiroi%NULL%1,         Ken-ichiro%Kobayashi%NULL%1,         Kenji%Kubo%NULL%1,         Hyunjin%Kim%NULL%1,         Azusa%Nishimoto%NULL%1,         Chikara%Maeda%NULL%1,         Akira%Kawamura%NULL%1,         Nobuhiro%Komiya%NULL%1,         Shigeaki%Umeoka%NULL%1,        Yuki%Himoto%yukihimoto@gmail.com%1,        Akihiko%Sakata%NULL%1,        Mitsuhiro%Kirita%NULL%1,        Takashi%Hiroi%NULL%1,        Ken-ichiro%Kobayashi%NULL%1,        Kenji%Kubo%NULL%1,        Hyunjin%Kim%NULL%1,        Azusa%Nishimoto%NULL%1,        Chikara%Maeda%NULL%1,        Akira%Kawamura%NULL%1,        Nobuhiro%Komiya%NULL%1,        Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-id="Par5"&gt;
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,          Yanyan%Tang%NULL%1,          Yongkang%Mo%NULL%1,          Shengkai%Li%NULL%1,          Daiying%Lin%NULL%1,          Zhijian%Yang%NULL%1,          Zhiqi%Yang%NULL%1,          Hongfu%Sun%NULL%1,          Jinming%Qiu%NULL%1,          Yuting%Liao%NULL%1,          Jianning%Xiao%NULL%1,          Xiangguang%Chen%NULL%1,          Xianheng%Wu%NULL%1,          Renhua%Wu%NULL%1,          Zhuozhi%Dai%zhuozhi@ualberta.ca%1,         Xiaofeng%Chen%NULL%1,         Yanyan%Tang%NULL%1,         Yongkang%Mo%NULL%1,         Shengkai%Li%NULL%1,         Daiying%Lin%NULL%1,         Zhijian%Yang%NULL%1,         Zhiqi%Yang%NULL%1,         Hongfu%Sun%NULL%1,         Jinming%Qiu%NULL%1,         Yuting%Liao%NULL%1,         Jianning%Xiao%NULL%1,         Xiangguang%Chen%NULL%1,         Xianheng%Wu%NULL%1,         Renhua%Wu%NULL%1,         Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
-Materials and methods
-This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
- Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
-Results
-All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
- The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
-Conclusion
-Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
-Electronic supplementary material
-The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,          Akihiko%Sakata%NULL%1,          Mitsuhiro%Kirita%NULL%1,          Takashi%Hiroi%NULL%1,          Ken-ichiro%Kobayashi%NULL%1,          Kenji%Kubo%NULL%1,          Hyunjin%Kim%NULL%1,          Azusa%Nishimoto%NULL%1,          Chikara%Maeda%NULL%1,          Akira%Kawamura%NULL%1,          Nobuhiro%Komiya%NULL%1,          Shigeaki%Umeoka%NULL%1,         Yuki%Himoto%yukihimoto@gmail.com%1,         Akihiko%Sakata%NULL%1,         Mitsuhiro%Kirita%NULL%1,         Takashi%Hiroi%NULL%1,         Ken-ichiro%Kobayashi%NULL%1,         Kenji%Kubo%NULL%1,         Hyunjin%Kim%NULL%1,         Azusa%Nishimoto%NULL%1,         Chikara%Maeda%NULL%1,         Akira%Kawamura%NULL%1,         Nobuhiro%Komiya%NULL%1,         Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,           Yanyan%Tang%NULL%1,           Yongkang%Mo%NULL%1,           Shengkai%Li%NULL%1,           Daiying%Lin%NULL%1,           Zhijian%Yang%NULL%1,           Zhiqi%Yang%NULL%1,           Hongfu%Sun%NULL%1,           Jinming%Qiu%NULL%1,           Yuting%Liao%NULL%1,           Jianning%Xiao%NULL%1,           Xiangguang%Chen%NULL%1,           Xianheng%Wu%NULL%1,           Renhua%Wu%NULL%1,           Zhuozhi%Dai%zhuozhi@ualberta.ca%1,          Xiaofeng%Chen%NULL%1,          Yanyan%Tang%NULL%1,          Yongkang%Mo%NULL%1,          Shengkai%Li%NULL%1,          Daiying%Lin%NULL%1,          Zhijian%Yang%NULL%1,          Zhiqi%Yang%NULL%1,          Hongfu%Sun%NULL%1,          Jinming%Qiu%NULL%1,          Yuting%Liao%NULL%1,          Jianning%Xiao%NULL%1,          Xiangguang%Chen%NULL%1,          Xianheng%Wu%NULL%1,          Renhua%Wu%NULL%1,          Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +803,10 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -1102,10 +881,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="100">
   <si>
     <t>Doi</t>
   </si>
@@ -411,6 +411,54 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,   Christopher%Gieraerts%NULL%2,   Christopher%Gieraerts%NULL%0,   Yves%De Bruecker%NULL%2,   Yves%De Bruecker%NULL%0,   Lode%Janssen%NULL%2,   Lode%Janssen%NULL%0,   Hanne%Valgaeren%NULL%2,   Hanne%Valgaeren%NULL%0,   Dagmar%Obbels%NULL%2,   Dagmar%Obbels%NULL%0,   Marc%Gillis%NULL%2,   Marc%Gillis%NULL%0,   Marc%Van Ranst%NULL%2,   Marc%Van Ranst%NULL%0,   Johan%Frans%NULL%1,   Annick%Demeyere%NULL%2,   Annick%Demeyere%NULL%0,   Rolf%Symons%rolf.symons@imelda.be%2,   Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,       Ben%Hsieh%NULL%1,       Zeng%Xiong%NULL%1,       Kasey%Halsey%NULL%1,       Ji Whae%Choi%NULL%1,       Thi My Linh%Tran%NULL%1,       Ian%Pan%NULL%1,       Lin-Bo%Shi%NULL%1,       Dong-Cui%Wang%NULL%1,       Ji%Mei%NULL%1,       Xiao-Long%Jiang%NULL%1,       Qiu-Hua%Zeng%NULL%1,       Thomas K.%Egglin%NULL%1,       Ping-Feng%Hu%NULL%1,       Saurabh%Agarwal%NULL%1,       Fangfang%Xie%NULL%1,       Sha%Li%NULL%1,       Terrance%Healey%NULL%1,       Michael K.%Atalay%NULL%1,       Wei-Hua%Liao%liaoweihua2017@163.com%1,      Harrison X.%Bai%NULL%1,      Ben%Hsieh%NULL%1,      Zeng%Xiong%NULL%1,      Kasey%Halsey%NULL%1,      Ji Whae%Choi%NULL%1,      Thi My Linh%Tran%NULL%1,      Ian%Pan%NULL%1,      Lin-Bo%Shi%NULL%1,      Dong-Cui%Wang%NULL%1,      Ji%Mei%NULL%1,      Xiao-Long%Jiang%NULL%1,      Qiu-Hua%Zeng%NULL%1,      Thomas K.%Egglin%NULL%1,      Ping-Feng%Hu%NULL%1,      Saurabh%Agarwal%NULL%1,      Fangfang%Xie%NULL%1,      Sha%Li%NULL%1,      Terrance%Healey%NULL%1,      Michael K.%Atalay%NULL%1,      Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,       Marta%Zerunian%NULL%1,       Michela%Polici%NULL%1,       Francesco%Pucciarelli%NULL%1,       Tiziano%Polidori%NULL%1,       Carlotta%Rucci%NULL%1,       Gisella%Guido%NULL%1,       Benedetta%Bracci%NULL%1,       Chiara%de Dominicis%NULL%1,       Andrea%Laghi%andrea.laghi@uniroma1.it%1,      Damiano%Caruso%NULL%1,      Marta%Zerunian%NULL%1,      Michela%Polici%NULL%1,      Francesco%Pucciarelli%NULL%1,      Tiziano%Polidori%NULL%1,      Carlotta%Rucci%NULL%1,      Gisella%Guido%NULL%1,      Benedetta%Bracci%NULL%1,      Chiara%de Dominicis%NULL%1,      Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,       Yanyan%Tang%NULL%1,       Yongkang%Mo%NULL%1,       Shengkai%Li%NULL%1,       Daiying%Lin%NULL%1,       Zhijian%Yang%NULL%1,       Zhiqi%Yang%NULL%1,       Hongfu%Sun%NULL%1,       Jinming%Qiu%NULL%1,       Yuting%Liao%NULL%1,       Jianning%Xiao%NULL%1,       Xiangguang%Chen%NULL%1,       Xianheng%Wu%NULL%1,       Renhua%Wu%NULL%1,       Zhuozhi%Dai%zhuozhi@ualberta.ca%1,      Xiaofeng%Chen%NULL%1,      Yanyan%Tang%NULL%1,      Yongkang%Mo%NULL%1,      Shengkai%Li%NULL%1,      Daiying%Lin%NULL%1,      Zhijian%Yang%NULL%1,      Zhiqi%Yang%NULL%1,      Hongfu%Sun%NULL%1,      Jinming%Qiu%NULL%1,      Yuting%Liao%NULL%1,      Jianning%Xiao%NULL%1,      Xiangguang%Chen%NULL%1,      Xianheng%Wu%NULL%1,      Renhua%Wu%NULL%1,      Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,       Xiaolong%Qi%NULL%1,       Soon Ho%Yoon%yshoka@gmail.com%1,       Sang Joon%Park%NULL%1,       Kyung Hee%Lee%NULL%1,       Jin Yong%Kim%NULL%1,       Young Kyung%Lee%NULL%1,       Hongseok%Ko%NULL%1,       Ki Hwan%Kim%NULL%1,       Chang Min%Park%NULL%1,       Yun-Hyeon%Kim%NULL%1,       Junqiang%Lei%NULL%1,       Jung Hee%Hong%NULL%1,       Hyungjin%Kim%NULL%1,       Eui Jin%Hwang%NULL%1,       Seung Jin%Yoo%NULL%1,       Ju Gang%Nam%NULL%1,       Chang Hyun%Lee%NULL%1,       Jin Mo%Goo%NULL%1,      Hyewon%Choi%NULL%1,      Xiaolong%Qi%NULL%1,      Soon Ho%Yoon%yshoka@gmail.com%1,      Sang Joon%Park%NULL%1,      Kyung Hee%Lee%NULL%1,      Jin Yong%Kim%NULL%1,      Young Kyung%Lee%NULL%1,      Hongseok%Ko%NULL%1,      Ki Hwan%Kim%NULL%1,      Chang Min%Park%NULL%1,      Yun-Hyeon%Kim%NULL%1,      Junqiang%Lei%NULL%1,      Jung Hee%Hong%NULL%1,      Hyungjin%Kim%NULL%1,      Eui Jin%Hwang%NULL%1,      Seung Jin%Yoo%NULL%1,      Ju Gang%Nam%NULL%1,      Chang Hyun%Lee%NULL%1,      Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,       Akihiko%Sakata%NULL%1,       Mitsuhiro%Kirita%NULL%1,       Takashi%Hiroi%NULL%1,       Ken-ichiro%Kobayashi%NULL%1,       Kenji%Kubo%NULL%1,       Hyunjin%Kim%NULL%1,       Azusa%Nishimoto%NULL%1,       Chikara%Maeda%NULL%1,       Akira%Kawamura%NULL%1,       Nobuhiro%Komiya%NULL%1,       Shigeaki%Umeoka%NULL%1,      Yuki%Himoto%yukihimoto@gmail.com%1,      Akihiko%Sakata%NULL%1,      Mitsuhiro%Kirita%NULL%1,      Takashi%Hiroi%NULL%1,      Ken-ichiro%Kobayashi%NULL%1,      Kenji%Kubo%NULL%1,      Hyunjin%Kim%NULL%1,      Azusa%Nishimoto%NULL%1,      Chikara%Maeda%NULL%1,      Akira%Kawamura%NULL%1,      Nobuhiro%Komiya%NULL%1,      Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,       Huaxiang%Xu%NULL%1,       Qinglin%Shen%NULL%1,       Xianghai%Zhang%NULL%1,       Bing%Fan%26171381@qq.com%1,       Chuanhong%Wang%NULL%1,       Bingliang%Zeng%NULL%1,       Zicong%Li%NULL%1,       Xiaofen%Li%NULL%1,       Honglu%Li%NULL%1,      Chunqin%Long%NULL%1,      Huaxiang%Xu%NULL%1,      Qinglin%Shen%NULL%1,      Xianghai%Zhang%NULL%1,      Bing%Fan%26171381@qq.com%1,      Chuanhong%Wang%NULL%1,      Bingliang%Zeng%NULL%1,      Zicong%Li%NULL%1,      Xiaofen%Li%NULL%1,      Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,      Christopher%Gieraerts%NULL%1,      Yves%De Bruecker%NULL%1,      Lode%Janssen%NULL%1,      Hanne%Valgaeren%NULL%1,      Dagmar%Obbels%NULL%1,      Marc%Gillis%NULL%1,      Marc%Van Ranst%NULL%0,      Johan%Frans%NULL%1,      Annick%Demeyere%NULL%1,      Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>PMC7166306</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,    Kai%Xie%NULL%0,    Kai%Xie%NULL%0,    Hui%Lu%NULL%0,    Lei%Xu%bayinhexl@126.com%0,    Shusheng%Zhou%zhouss108@163.com%0,    Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>PMC7194021</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,    Christopher%Gieraerts%NULL%2,    Christopher%Gieraerts%NULL%0,    Yves%De Bruecker%NULL%2,    Yves%De Bruecker%NULL%0,    Lode%Janssen%NULL%2,    Lode%Janssen%NULL%0,    Hanne%Valgaeren%NULL%2,    Hanne%Valgaeren%NULL%0,    Dagmar%Obbels%NULL%2,    Dagmar%Obbels%NULL%0,    Marc%Gillis%NULL%2,    Marc%Gillis%NULL%0,    Marc%Van Ranst%NULL%0,    Marc%Van Ranst%NULL%0,    Johan%Frans%NULL%1,    Annick%Demeyere%NULL%2,    Annick%Demeyere%NULL%0,    Rolf%Symons%rolf.symons@imelda.be%2,    Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -713,6 +761,9 @@
       <c r="H1" t="s">
         <v>40</v>
       </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -728,7 +779,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -738,6 +789,9 @@
       </c>
       <c r="H2" t="s">
         <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -765,6 +819,9 @@
       <c r="H3" t="s">
         <v>41</v>
       </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -780,7 +837,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -790,6 +847,9 @@
       </c>
       <c r="H4" t="s">
         <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -806,7 +866,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -816,6 +876,9 @@
       </c>
       <c r="H5" t="s">
         <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -843,6 +906,9 @@
       <c r="H6" t="s">
         <v>41</v>
       </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -858,7 +924,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -868,6 +934,9 @@
       </c>
       <c r="H7" t="s">
         <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -884,7 +953,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -894,6 +963,9 @@
       </c>
       <c r="H8" t="s">
         <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -910,7 +982,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -920,6 +992,9 @@
       </c>
       <c r="H9" t="s">
         <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -936,16 +1011,19 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -962,16 +1040,19 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -988,16 +1069,19 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
       </c>
       <c r="H12" t="s">
         <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1008,22 +1092,25 @@
         <v>43922</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="139">
   <si>
     <t>Doi</t>
   </si>
@@ -459,6 +459,123 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,    Christopher%Gieraerts%NULL%2,    Christopher%Gieraerts%NULL%0,    Yves%De Bruecker%NULL%2,    Yves%De Bruecker%NULL%0,    Lode%Janssen%NULL%2,    Lode%Janssen%NULL%0,    Hanne%Valgaeren%NULL%2,    Hanne%Valgaeren%NULL%0,    Dagmar%Obbels%NULL%2,    Dagmar%Obbels%NULL%0,    Marc%Gillis%NULL%2,    Marc%Gillis%NULL%0,    Marc%Van Ranst%NULL%0,    Marc%Van Ranst%NULL%0,    Johan%Frans%NULL%1,    Annick%Demeyere%NULL%2,    Annick%Demeyere%NULL%0,    Rolf%Symons%rolf.symons@imelda.be%2,    Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,        Ben%Hsieh%NULL%1,        Zeng%Xiong%NULL%1,        Kasey%Halsey%NULL%1,        Ji Whae%Choi%NULL%1,        Thi My Linh%Tran%NULL%1,        Ian%Pan%NULL%1,        Lin-Bo%Shi%NULL%1,        Dong-Cui%Wang%NULL%1,        Ji%Mei%NULL%1,        Xiao-Long%Jiang%NULL%1,        Qiu-Hua%Zeng%NULL%1,        Thomas K.%Egglin%NULL%1,        Ping-Feng%Hu%NULL%1,        Saurabh%Agarwal%NULL%1,        Fangfang%Xie%NULL%1,        Sha%Li%NULL%1,        Terrance%Healey%NULL%1,        Michael K.%Atalay%NULL%1,        Wei-Hua%Liao%liaoweihua2017@163.com%1,       Harrison X.%Bai%NULL%1,       Ben%Hsieh%NULL%1,       Zeng%Xiong%NULL%1,       Kasey%Halsey%NULL%1,       Ji Whae%Choi%NULL%1,       Thi My Linh%Tran%NULL%1,       Ian%Pan%NULL%1,       Lin-Bo%Shi%NULL%1,       Dong-Cui%Wang%NULL%1,       Ji%Mei%NULL%1,       Xiao-Long%Jiang%NULL%1,       Qiu-Hua%Zeng%NULL%1,       Thomas K.%Egglin%NULL%1,       Ping-Feng%Hu%NULL%1,       Saurabh%Agarwal%NULL%1,       Fangfang%Xie%NULL%1,       Sha%Li%NULL%1,       Terrance%Healey%NULL%1,       Michael K.%Atalay%NULL%1,       Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,        Marta%Zerunian%NULL%1,        Michela%Polici%NULL%1,        Francesco%Pucciarelli%NULL%1,        Tiziano%Polidori%NULL%1,        Carlotta%Rucci%NULL%1,        Gisella%Guido%NULL%1,        Benedetta%Bracci%NULL%1,        Chiara%de Dominicis%NULL%1,        Andrea%Laghi%andrea.laghi@uniroma1.it%1,       Damiano%Caruso%NULL%1,       Marta%Zerunian%NULL%1,       Michela%Polici%NULL%1,       Francesco%Pucciarelli%NULL%1,       Tiziano%Polidori%NULL%1,       Carlotta%Rucci%NULL%1,       Gisella%Guido%NULL%1,       Benedetta%Bracci%NULL%1,       Chiara%de Dominicis%NULL%1,       Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,        Yanyan%Tang%NULL%1,        Yongkang%Mo%NULL%1,        Shengkai%Li%NULL%1,        Daiying%Lin%NULL%1,        Zhijian%Yang%NULL%1,        Zhiqi%Yang%NULL%1,        Hongfu%Sun%NULL%1,        Jinming%Qiu%NULL%1,        Yuting%Liao%NULL%1,        Jianning%Xiao%NULL%1,        Xiangguang%Chen%NULL%1,        Xianheng%Wu%NULL%1,        Renhua%Wu%NULL%1,        Zhuozhi%Dai%zhuozhi@ualberta.ca%1,       Xiaofeng%Chen%NULL%1,       Yanyan%Tang%NULL%1,       Yongkang%Mo%NULL%1,       Shengkai%Li%NULL%1,       Daiying%Lin%NULL%1,       Zhijian%Yang%NULL%1,       Zhiqi%Yang%NULL%1,       Hongfu%Sun%NULL%1,       Jinming%Qiu%NULL%1,       Yuting%Liao%NULL%1,       Jianning%Xiao%NULL%1,       Xiangguang%Chen%NULL%1,       Xianheng%Wu%NULL%1,       Renhua%Wu%NULL%1,       Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,        Xiaolong%Qi%NULL%1,        Soon Ho%Yoon%yshoka@gmail.com%1,        Sang Joon%Park%NULL%1,        Kyung Hee%Lee%NULL%1,        Jin Yong%Kim%NULL%1,        Young Kyung%Lee%NULL%1,        Hongseok%Ko%NULL%1,        Ki Hwan%Kim%NULL%1,        Chang Min%Park%NULL%1,        Yun-Hyeon%Kim%NULL%1,        Junqiang%Lei%NULL%1,        Jung Hee%Hong%NULL%1,        Hyungjin%Kim%NULL%1,        Eui Jin%Hwang%NULL%1,        Seung Jin%Yoo%NULL%1,        Ju Gang%Nam%NULL%1,        Chang Hyun%Lee%NULL%1,        Jin Mo%Goo%NULL%1,       Hyewon%Choi%NULL%1,       Xiaolong%Qi%NULL%1,       Soon Ho%Yoon%yshoka@gmail.com%1,       Sang Joon%Park%NULL%1,       Kyung Hee%Lee%NULL%1,       Jin Yong%Kim%NULL%1,       Young Kyung%Lee%NULL%1,       Hongseok%Ko%NULL%1,       Ki Hwan%Kim%NULL%1,       Chang Min%Park%NULL%1,       Yun-Hyeon%Kim%NULL%1,       Junqiang%Lei%NULL%1,       Jung Hee%Hong%NULL%1,       Hyungjin%Kim%NULL%1,       Eui Jin%Hwang%NULL%1,       Seung Jin%Yoo%NULL%1,       Ju Gang%Nam%NULL%1,       Chang Hyun%Lee%NULL%1,       Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,        Akihiko%Sakata%NULL%1,        Mitsuhiro%Kirita%NULL%1,        Takashi%Hiroi%NULL%1,        Ken-ichiro%Kobayashi%NULL%1,        Kenji%Kubo%NULL%1,        Hyunjin%Kim%NULL%1,        Azusa%Nishimoto%NULL%1,        Chikara%Maeda%NULL%1,        Akira%Kawamura%NULL%1,        Nobuhiro%Komiya%NULL%1,        Shigeaki%Umeoka%NULL%1,       Yuki%Himoto%yukihimoto@gmail.com%1,       Akihiko%Sakata%NULL%1,       Mitsuhiro%Kirita%NULL%1,       Takashi%Hiroi%NULL%1,       Ken-ichiro%Kobayashi%NULL%1,       Kenji%Kubo%NULL%1,       Hyunjin%Kim%NULL%1,       Azusa%Nishimoto%NULL%1,       Chikara%Maeda%NULL%1,       Akira%Kawamura%NULL%1,       Nobuhiro%Komiya%NULL%1,       Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,        Huaxiang%Xu%NULL%1,        Qinglin%Shen%NULL%1,        Xianghai%Zhang%NULL%1,        Bing%Fan%26171381@qq.com%1,        Chuanhong%Wang%NULL%1,        Bingliang%Zeng%NULL%1,        Zicong%Li%NULL%1,        Xiaofen%Li%NULL%1,        Honglu%Li%NULL%1,       Chunqin%Long%NULL%1,       Huaxiang%Xu%NULL%1,       Qinglin%Shen%NULL%1,       Xianghai%Zhang%NULL%1,       Bing%Fan%26171381@qq.com%1,       Chuanhong%Wang%NULL%1,       Bingliang%Zeng%NULL%1,       Zicong%Li%NULL%1,       Xiaofen%Li%NULL%1,       Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,       Christopher%Gieraerts%NULL%1,       Yves%De Bruecker%NULL%1,       Lode%Janssen%NULL%1,       Hanne%Valgaeren%NULL%1,       Dagmar%Obbels%NULL%1,       Marc%Gillis%NULL%1,       Marc%Van Ranst%NULL%0,       Johan%Frans%NULL%1,       Annick%Demeyere%NULL%1,       Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,     Kai%Xie%NULL%0,     Kai%Xie%NULL%0,     Hui%Lu%NULL%0,     Lei%Xu%bayinhexl@126.com%0,     Shusheng%Zhou%zhouss108@163.com%0,     Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,     Christopher%Gieraerts%NULL%2,     Christopher%Gieraerts%NULL%0,     Yves%De Bruecker%NULL%2,     Yves%De Bruecker%NULL%0,     Lode%Janssen%NULL%2,     Lode%Janssen%NULL%0,     Hanne%Valgaeren%NULL%2,     Hanne%Valgaeren%NULL%0,     Dagmar%Obbels%NULL%2,     Dagmar%Obbels%NULL%0,     Marc%Gillis%NULL%2,     Marc%Gillis%NULL%0,     Marc%Van Ranst%NULL%0,     Marc%Van Ranst%NULL%0,     Johan%Frans%NULL%1,     Annick%Demeyere%NULL%2,     Annick%Demeyere%NULL%0,     Rolf%Symons%rolf.symons@imelda.be%2,     Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,  Christopher%Gieraerts%NULL%2,  Christopher%Gieraerts%NULL%0,  Yves%De Bruecker%NULL%2,  Yves%De Bruecker%NULL%0,  Lode%Janssen%NULL%2,  Lode%Janssen%NULL%0,  Hanne%Valgaeren%NULL%2,  Hanne%Valgaeren%NULL%0,  Dagmar%Obbels%NULL%2,  Dagmar%Obbels%NULL%0,  Marc%Gillis%NULL%2,  Marc%Gillis%NULL%0,  Marc%Van Ranst%NULL%2,  Marc%Van Ranst%NULL%0,  Johan%Frans%NULL%1,  Annick%Demeyere%NULL%2,  Annick%Demeyere%NULL%0,  Rolf%Symons%rolf.symons@imelda.be%2,  Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,         Ben%Hsieh%NULL%1,         Zeng%Xiong%NULL%1,         Kasey%Halsey%NULL%1,         Ji Whae%Choi%NULL%1,         Thi My Linh%Tran%NULL%1,         Ian%Pan%NULL%1,         Lin-Bo%Shi%NULL%1,         Dong-Cui%Wang%NULL%1,         Ji%Mei%NULL%1,         Xiao-Long%Jiang%NULL%1,         Qiu-Hua%Zeng%NULL%1,         Thomas K.%Egglin%NULL%1,         Ping-Feng%Hu%NULL%1,         Saurabh%Agarwal%NULL%1,         Fangfang%Xie%NULL%1,         Sha%Li%NULL%1,         Terrance%Healey%NULL%1,         Michael K.%Atalay%NULL%1,         Wei-Hua%Liao%liaoweihua2017@163.com%1,        Harrison X.%Bai%NULL%1,        Ben%Hsieh%NULL%1,        Zeng%Xiong%NULL%1,        Kasey%Halsey%NULL%1,        Ji Whae%Choi%NULL%1,        Thi My Linh%Tran%NULL%1,        Ian%Pan%NULL%1,        Lin-Bo%Shi%NULL%1,        Dong-Cui%Wang%NULL%1,        Ji%Mei%NULL%1,        Xiao-Long%Jiang%NULL%1,        Qiu-Hua%Zeng%NULL%1,        Thomas K.%Egglin%NULL%1,        Ping-Feng%Hu%NULL%1,        Saurabh%Agarwal%NULL%1,        Fangfang%Xie%NULL%1,        Sha%Li%NULL%1,        Terrance%Healey%NULL%1,        Michael K.%Atalay%NULL%1,        Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,         Marta%Zerunian%NULL%1,         Michela%Polici%NULL%1,         Francesco%Pucciarelli%NULL%1,         Tiziano%Polidori%NULL%1,         Carlotta%Rucci%NULL%1,         Gisella%Guido%NULL%1,         Benedetta%Bracci%NULL%1,         Chiara%de Dominicis%NULL%1,         Andrea%Laghi%andrea.laghi@uniroma1.it%1,        Damiano%Caruso%NULL%1,        Marta%Zerunian%NULL%1,        Michela%Polici%NULL%1,        Francesco%Pucciarelli%NULL%1,        Tiziano%Polidori%NULL%1,        Carlotta%Rucci%NULL%1,        Gisella%Guido%NULL%1,        Benedetta%Bracci%NULL%1,        Chiara%de Dominicis%NULL%1,        Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,         Yanyan%Tang%NULL%1,         Yongkang%Mo%NULL%1,         Shengkai%Li%NULL%1,         Daiying%Lin%NULL%1,         Zhijian%Yang%NULL%1,         Zhiqi%Yang%NULL%1,         Hongfu%Sun%NULL%1,         Jinming%Qiu%NULL%1,         Yuting%Liao%NULL%1,         Jianning%Xiao%NULL%1,         Xiangguang%Chen%NULL%1,         Xianheng%Wu%NULL%1,         Renhua%Wu%NULL%1,         Zhuozhi%Dai%zhuozhi@ualberta.ca%1,        Xiaofeng%Chen%NULL%1,        Yanyan%Tang%NULL%1,        Yongkang%Mo%NULL%1,        Shengkai%Li%NULL%1,        Daiying%Lin%NULL%1,        Zhijian%Yang%NULL%1,        Zhiqi%Yang%NULL%1,        Hongfu%Sun%NULL%1,        Jinming%Qiu%NULL%1,        Yuting%Liao%NULL%1,        Jianning%Xiao%NULL%1,        Xiangguang%Chen%NULL%1,        Xianheng%Wu%NULL%1,        Renhua%Wu%NULL%1,        Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,         Xiaolong%Qi%NULL%1,         Soon Ho%Yoon%yshoka@gmail.com%1,         Sang Joon%Park%NULL%1,         Kyung Hee%Lee%NULL%1,         Jin Yong%Kim%NULL%1,         Young Kyung%Lee%NULL%1,         Hongseok%Ko%NULL%1,         Ki Hwan%Kim%NULL%1,         Chang Min%Park%NULL%1,         Yun-Hyeon%Kim%NULL%1,         Junqiang%Lei%NULL%1,         Jung Hee%Hong%NULL%1,         Hyungjin%Kim%NULL%1,         Eui Jin%Hwang%NULL%1,         Seung Jin%Yoo%NULL%1,         Ju Gang%Nam%NULL%1,         Chang Hyun%Lee%NULL%1,         Jin Mo%Goo%NULL%1,        Hyewon%Choi%NULL%1,        Xiaolong%Qi%NULL%1,        Soon Ho%Yoon%yshoka@gmail.com%1,        Sang Joon%Park%NULL%1,        Kyung Hee%Lee%NULL%1,        Jin Yong%Kim%NULL%1,        Young Kyung%Lee%NULL%1,        Hongseok%Ko%NULL%1,        Ki Hwan%Kim%NULL%1,        Chang Min%Park%NULL%1,        Yun-Hyeon%Kim%NULL%1,        Junqiang%Lei%NULL%1,        Jung Hee%Hong%NULL%1,        Hyungjin%Kim%NULL%1,        Eui Jin%Hwang%NULL%1,        Seung Jin%Yoo%NULL%1,        Ju Gang%Nam%NULL%1,        Chang Hyun%Lee%NULL%1,        Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,         Akihiko%Sakata%NULL%1,         Mitsuhiro%Kirita%NULL%1,         Takashi%Hiroi%NULL%1,         Ken-ichiro%Kobayashi%NULL%1,         Kenji%Kubo%NULL%1,         Hyunjin%Kim%NULL%1,         Azusa%Nishimoto%NULL%1,         Chikara%Maeda%NULL%1,         Akira%Kawamura%NULL%1,         Nobuhiro%Komiya%NULL%1,         Shigeaki%Umeoka%NULL%1,        Yuki%Himoto%yukihimoto@gmail.com%1,        Akihiko%Sakata%NULL%1,        Mitsuhiro%Kirita%NULL%1,        Takashi%Hiroi%NULL%1,        Ken-ichiro%Kobayashi%NULL%1,        Kenji%Kubo%NULL%1,        Hyunjin%Kim%NULL%1,        Azusa%Nishimoto%NULL%1,        Chikara%Maeda%NULL%1,        Akira%Kawamura%NULL%1,        Nobuhiro%Komiya%NULL%1,        Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,         Huaxiang%Xu%NULL%1,         Qinglin%Shen%NULL%1,         Xianghai%Zhang%NULL%1,         Bing%Fan%26171381@qq.com%1,         Chuanhong%Wang%NULL%1,         Bingliang%Zeng%NULL%1,         Zicong%Li%NULL%1,         Xiaofen%Li%NULL%1,         Honglu%Li%NULL%1,        Chunqin%Long%NULL%1,        Huaxiang%Xu%NULL%1,        Qinglin%Shen%NULL%1,        Xianghai%Zhang%NULL%1,        Bing%Fan%26171381@qq.com%1,        Chuanhong%Wang%NULL%1,        Bingliang%Zeng%NULL%1,        Zicong%Li%NULL%1,        Xiaofen%Li%NULL%1,        Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,        Christopher%Gieraerts%NULL%1,        Yves%De Bruecker%NULL%1,        Lode%Janssen%NULL%1,        Hanne%Valgaeren%NULL%1,        Dagmar%Obbels%NULL%1,        Marc%Gillis%NULL%1,        Marc%Van Ranst%NULL%0,        Johan%Frans%NULL%1,        Annick%Demeyere%NULL%1,        Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,      Kai%Xie%NULL%0,      Kai%Xie%NULL%0,      Hui%Lu%NULL%0,      Lei%Xu%bayinhexl@126.com%0,      Shusheng%Zhou%zhouss108@163.com%0,      Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,      Christopher%Gieraerts%NULL%2,      Christopher%Gieraerts%NULL%0,      Yves%De Bruecker%NULL%2,      Yves%De Bruecker%NULL%0,      Lode%Janssen%NULL%2,      Lode%Janssen%NULL%0,      Hanne%Valgaeren%NULL%2,      Hanne%Valgaeren%NULL%0,      Dagmar%Obbels%NULL%2,      Dagmar%Obbels%NULL%0,      Marc%Gillis%NULL%2,      Marc%Gillis%NULL%0,      Marc%Van Ranst%NULL%0,      Marc%Van Ranst%NULL%0,      Johan%Frans%NULL%1,      Annick%Demeyere%NULL%2,      Annick%Demeyere%NULL%0,      Rolf%Symons%rolf.symons@imelda.be%2,      Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,          Ben%Hsieh%NULL%1,          Zeng%Xiong%NULL%1,          Kasey%Halsey%NULL%1,          Ji Whae%Choi%NULL%1,          Thi My Linh%Tran%NULL%1,          Ian%Pan%NULL%1,          Lin-Bo%Shi%NULL%1,          Dong-Cui%Wang%NULL%1,          Ji%Mei%NULL%1,          Xiao-Long%Jiang%NULL%1,          Qiu-Hua%Zeng%NULL%1,          Thomas K.%Egglin%NULL%1,          Ping-Feng%Hu%NULL%1,          Saurabh%Agarwal%NULL%1,          Fangfang%Xie%NULL%1,          Sha%Li%NULL%1,          Terrance%Healey%NULL%1,          Michael K.%Atalay%NULL%1,          Wei-Hua%Liao%liaoweihua2017@163.com%1,         Harrison X.%Bai%NULL%1,         Ben%Hsieh%NULL%1,         Zeng%Xiong%NULL%1,         Kasey%Halsey%NULL%1,         Ji Whae%Choi%NULL%1,         Thi My Linh%Tran%NULL%1,         Ian%Pan%NULL%1,         Lin-Bo%Shi%NULL%1,         Dong-Cui%Wang%NULL%1,         Ji%Mei%NULL%1,         Xiao-Long%Jiang%NULL%1,         Qiu-Hua%Zeng%NULL%1,         Thomas K.%Egglin%NULL%1,         Ping-Feng%Hu%NULL%1,         Saurabh%Agarwal%NULL%1,         Fangfang%Xie%NULL%1,         Sha%Li%NULL%1,         Terrance%Healey%NULL%1,         Michael K.%Atalay%NULL%1,         Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,          Marta%Zerunian%NULL%1,          Michela%Polici%NULL%1,          Francesco%Pucciarelli%NULL%1,          Tiziano%Polidori%NULL%1,          Carlotta%Rucci%NULL%1,          Gisella%Guido%NULL%1,          Benedetta%Bracci%NULL%1,          Chiara%de Dominicis%NULL%1,          Andrea%Laghi%andrea.laghi@uniroma1.it%1,         Damiano%Caruso%NULL%1,         Marta%Zerunian%NULL%1,         Michela%Polici%NULL%1,         Francesco%Pucciarelli%NULL%1,         Tiziano%Polidori%NULL%1,         Carlotta%Rucci%NULL%1,         Gisella%Guido%NULL%1,         Benedetta%Bracci%NULL%1,         Chiara%de Dominicis%NULL%1,         Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,          Yanyan%Tang%NULL%1,          Yongkang%Mo%NULL%1,          Shengkai%Li%NULL%1,          Daiying%Lin%NULL%1,          Zhijian%Yang%NULL%1,          Zhiqi%Yang%NULL%1,          Hongfu%Sun%NULL%1,          Jinming%Qiu%NULL%1,          Yuting%Liao%NULL%1,          Jianning%Xiao%NULL%1,          Xiangguang%Chen%NULL%1,          Xianheng%Wu%NULL%1,          Renhua%Wu%NULL%1,          Zhuozhi%Dai%zhuozhi@ualberta.ca%1,         Xiaofeng%Chen%NULL%1,         Yanyan%Tang%NULL%1,         Yongkang%Mo%NULL%1,         Shengkai%Li%NULL%1,         Daiying%Lin%NULL%1,         Zhijian%Yang%NULL%1,         Zhiqi%Yang%NULL%1,         Hongfu%Sun%NULL%1,         Jinming%Qiu%NULL%1,         Yuting%Liao%NULL%1,         Jianning%Xiao%NULL%1,         Xiangguang%Chen%NULL%1,         Xianheng%Wu%NULL%1,         Renhua%Wu%NULL%1,         Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,          Xiaolong%Qi%NULL%1,          Soon Ho%Yoon%yshoka@gmail.com%1,          Sang Joon%Park%NULL%1,          Kyung Hee%Lee%NULL%1,          Jin Yong%Kim%NULL%1,          Young Kyung%Lee%NULL%1,          Hongseok%Ko%NULL%1,          Ki Hwan%Kim%NULL%1,          Chang Min%Park%NULL%1,          Yun-Hyeon%Kim%NULL%1,          Junqiang%Lei%NULL%1,          Jung Hee%Hong%NULL%1,          Hyungjin%Kim%NULL%1,          Eui Jin%Hwang%NULL%1,          Seung Jin%Yoo%NULL%1,          Ju Gang%Nam%NULL%1,          Chang Hyun%Lee%NULL%1,          Jin Mo%Goo%NULL%1,         Hyewon%Choi%NULL%1,         Xiaolong%Qi%NULL%1,         Soon Ho%Yoon%yshoka@gmail.com%1,         Sang Joon%Park%NULL%1,         Kyung Hee%Lee%NULL%1,         Jin Yong%Kim%NULL%1,         Young Kyung%Lee%NULL%1,         Hongseok%Ko%NULL%1,         Ki Hwan%Kim%NULL%1,         Chang Min%Park%NULL%1,         Yun-Hyeon%Kim%NULL%1,         Junqiang%Lei%NULL%1,         Jung Hee%Hong%NULL%1,         Hyungjin%Kim%NULL%1,         Eui Jin%Hwang%NULL%1,         Seung Jin%Yoo%NULL%1,         Ju Gang%Nam%NULL%1,         Chang Hyun%Lee%NULL%1,         Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,          Akihiko%Sakata%NULL%1,          Mitsuhiro%Kirita%NULL%1,          Takashi%Hiroi%NULL%1,          Ken-ichiro%Kobayashi%NULL%1,          Kenji%Kubo%NULL%1,          Hyunjin%Kim%NULL%1,          Azusa%Nishimoto%NULL%1,          Chikara%Maeda%NULL%1,          Akira%Kawamura%NULL%1,          Nobuhiro%Komiya%NULL%1,          Shigeaki%Umeoka%NULL%1,         Yuki%Himoto%yukihimoto@gmail.com%1,         Akihiko%Sakata%NULL%1,         Mitsuhiro%Kirita%NULL%1,         Takashi%Hiroi%NULL%1,         Ken-ichiro%Kobayashi%NULL%1,         Kenji%Kubo%NULL%1,         Hyunjin%Kim%NULL%1,         Azusa%Nishimoto%NULL%1,         Chikara%Maeda%NULL%1,         Akira%Kawamura%NULL%1,         Nobuhiro%Komiya%NULL%1,         Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,          Huaxiang%Xu%NULL%1,          Qinglin%Shen%NULL%1,          Xianghai%Zhang%NULL%1,          Bing%Fan%26171381@qq.com%1,          Chuanhong%Wang%NULL%1,          Bingliang%Zeng%NULL%1,          Zicong%Li%NULL%1,          Xiaofen%Li%NULL%1,          Honglu%Li%NULL%1,         Chunqin%Long%NULL%1,         Huaxiang%Xu%NULL%1,         Qinglin%Shen%NULL%1,         Xianghai%Zhang%NULL%1,         Bing%Fan%26171381@qq.com%1,         Chuanhong%Wang%NULL%1,         Bingliang%Zeng%NULL%1,         Zicong%Li%NULL%1,         Xiaofen%Li%NULL%1,         Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,         Christopher%Gieraerts%NULL%1,         Yves%De Bruecker%NULL%1,         Lode%Janssen%NULL%1,         Hanne%Valgaeren%NULL%1,         Dagmar%Obbels%NULL%1,         Marc%Gillis%NULL%1,         Marc%Van Ranst%NULL%0,         Johan%Frans%NULL%1,         Annick%Demeyere%NULL%1,         Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,       Kai%Xie%NULL%0,       Kai%Xie%NULL%0,       Hui%Lu%NULL%0,       Lei%Xu%bayinhexl@126.com%0,       Shusheng%Zhou%zhouss108@163.com%0,       Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,       Christopher%Gieraerts%NULL%2,       Christopher%Gieraerts%NULL%0,       Yves%De Bruecker%NULL%2,       Yves%De Bruecker%NULL%0,       Lode%Janssen%NULL%2,       Lode%Janssen%NULL%0,       Hanne%Valgaeren%NULL%2,       Hanne%Valgaeren%NULL%0,       Dagmar%Obbels%NULL%2,       Dagmar%Obbels%NULL%0,       Marc%Gillis%NULL%2,       Marc%Gillis%NULL%0,       Marc%Van Ranst%NULL%0,       Marc%Van Ranst%NULL%0,       Johan%Frans%NULL%1,       Annick%Demeyere%NULL%2,       Annick%Demeyere%NULL%0,       Rolf%Symons%rolf.symons@imelda.be%2,       Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,    Christopher%Gieraerts%NULL%2,    Christopher%Gieraerts%NULL%0,    Yves%De Bruecker%NULL%2,    Yves%De Bruecker%NULL%0,    Lode%Janssen%NULL%2,    Lode%Janssen%NULL%0,    Hanne%Valgaeren%NULL%2,    Hanne%Valgaeren%NULL%0,    Dagmar%Obbels%NULL%2,    Dagmar%Obbels%NULL%0,    Marc%Gillis%NULL%2,    Marc%Gillis%NULL%0,    Marc%Van Ranst%NULL%2,    Marc%Van Ranst%NULL%0,    Johan%Frans%NULL%1,    Annick%Demeyere%NULL%2,    Annick%Demeyere%NULL%0,    Rolf%Symons%rolf.symons@imelda.be%2,    Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,           Ben%Hsieh%NULL%1,           Zeng%Xiong%NULL%1,           Kasey%Halsey%NULL%1,           Ji Whae%Choi%NULL%1,           Thi My Linh%Tran%NULL%1,           Ian%Pan%NULL%1,           Lin-Bo%Shi%NULL%1,           Dong-Cui%Wang%NULL%1,           Ji%Mei%NULL%1,           Xiao-Long%Jiang%NULL%1,           Qiu-Hua%Zeng%NULL%1,           Thomas K.%Egglin%NULL%1,           Ping-Feng%Hu%NULL%1,           Saurabh%Agarwal%NULL%1,           Fangfang%Xie%NULL%1,           Sha%Li%NULL%1,           Terrance%Healey%NULL%1,           Michael K.%Atalay%NULL%1,           Wei-Hua%Liao%liaoweihua2017@163.com%1,          Harrison X.%Bai%NULL%1,          Ben%Hsieh%NULL%1,          Zeng%Xiong%NULL%1,          Kasey%Halsey%NULL%1,          Ji Whae%Choi%NULL%1,          Thi My Linh%Tran%NULL%1,          Ian%Pan%NULL%1,          Lin-Bo%Shi%NULL%1,          Dong-Cui%Wang%NULL%1,          Ji%Mei%NULL%1,          Xiao-Long%Jiang%NULL%1,          Qiu-Hua%Zeng%NULL%1,          Thomas K.%Egglin%NULL%1,          Ping-Feng%Hu%NULL%1,          Saurabh%Agarwal%NULL%1,          Fangfang%Xie%NULL%1,          Sha%Li%NULL%1,          Terrance%Healey%NULL%1,          Michael K.%Atalay%NULL%1,          Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,           Marta%Zerunian%NULL%1,           Michela%Polici%NULL%1,           Francesco%Pucciarelli%NULL%1,           Tiziano%Polidori%NULL%1,           Carlotta%Rucci%NULL%1,           Gisella%Guido%NULL%1,           Benedetta%Bracci%NULL%1,           Chiara%de Dominicis%NULL%1,           Andrea%Laghi%andrea.laghi@uniroma1.it%1,          Damiano%Caruso%NULL%1,          Marta%Zerunian%NULL%1,          Michela%Polici%NULL%1,          Francesco%Pucciarelli%NULL%1,          Tiziano%Polidori%NULL%1,          Carlotta%Rucci%NULL%1,          Gisella%Guido%NULL%1,          Benedetta%Bracci%NULL%1,          Chiara%de Dominicis%NULL%1,          Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,           Yanyan%Tang%NULL%1,           Yongkang%Mo%NULL%1,           Shengkai%Li%NULL%1,           Daiying%Lin%NULL%1,           Zhijian%Yang%NULL%1,           Zhiqi%Yang%NULL%1,           Hongfu%Sun%NULL%1,           Jinming%Qiu%NULL%1,           Yuting%Liao%NULL%1,           Jianning%Xiao%NULL%1,           Xiangguang%Chen%NULL%1,           Xianheng%Wu%NULL%1,           Renhua%Wu%NULL%1,           Zhuozhi%Dai%zhuozhi@ualberta.ca%1,          Xiaofeng%Chen%NULL%1,          Yanyan%Tang%NULL%1,          Yongkang%Mo%NULL%1,          Shengkai%Li%NULL%1,          Daiying%Lin%NULL%1,          Zhijian%Yang%NULL%1,          Zhiqi%Yang%NULL%1,          Hongfu%Sun%NULL%1,          Jinming%Qiu%NULL%1,          Yuting%Liao%NULL%1,          Jianning%Xiao%NULL%1,          Xiangguang%Chen%NULL%1,          Xianheng%Wu%NULL%1,          Renhua%Wu%NULL%1,          Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,           Xiaolong%Qi%NULL%1,           Soon Ho%Yoon%yshoka@gmail.com%1,           Sang Joon%Park%NULL%1,           Kyung Hee%Lee%NULL%1,           Jin Yong%Kim%NULL%1,           Young Kyung%Lee%NULL%1,           Hongseok%Ko%NULL%1,           Ki Hwan%Kim%NULL%1,           Chang Min%Park%NULL%1,           Yun-Hyeon%Kim%NULL%1,           Junqiang%Lei%NULL%1,           Jung Hee%Hong%NULL%1,           Hyungjin%Kim%NULL%1,           Eui Jin%Hwang%NULL%1,           Seung Jin%Yoo%NULL%1,           Ju Gang%Nam%NULL%1,           Chang Hyun%Lee%NULL%1,           Jin Mo%Goo%NULL%1,          Hyewon%Choi%NULL%1,          Xiaolong%Qi%NULL%1,          Soon Ho%Yoon%yshoka@gmail.com%1,          Sang Joon%Park%NULL%1,          Kyung Hee%Lee%NULL%1,          Jin Yong%Kim%NULL%1,          Young Kyung%Lee%NULL%1,          Hongseok%Ko%NULL%1,          Ki Hwan%Kim%NULL%1,          Chang Min%Park%NULL%1,          Yun-Hyeon%Kim%NULL%1,          Junqiang%Lei%NULL%1,          Jung Hee%Hong%NULL%1,          Hyungjin%Kim%NULL%1,          Eui Jin%Hwang%NULL%1,          Seung Jin%Yoo%NULL%1,          Ju Gang%Nam%NULL%1,          Chang Hyun%Lee%NULL%1,          Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,           Akihiko%Sakata%NULL%1,           Mitsuhiro%Kirita%NULL%1,           Takashi%Hiroi%NULL%1,           Ken-ichiro%Kobayashi%NULL%1,           Kenji%Kubo%NULL%1,           Hyunjin%Kim%NULL%1,           Azusa%Nishimoto%NULL%1,           Chikara%Maeda%NULL%1,           Akira%Kawamura%NULL%1,           Nobuhiro%Komiya%NULL%1,           Shigeaki%Umeoka%NULL%1,          Yuki%Himoto%yukihimoto@gmail.com%1,          Akihiko%Sakata%NULL%1,          Mitsuhiro%Kirita%NULL%1,          Takashi%Hiroi%NULL%1,          Ken-ichiro%Kobayashi%NULL%1,          Kenji%Kubo%NULL%1,          Hyunjin%Kim%NULL%1,          Azusa%Nishimoto%NULL%1,          Chikara%Maeda%NULL%1,          Akira%Kawamura%NULL%1,          Nobuhiro%Komiya%NULL%1,          Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,           Huaxiang%Xu%NULL%1,           Qinglin%Shen%NULL%1,           Xianghai%Zhang%NULL%1,           Bing%Fan%26171381@qq.com%1,           Chuanhong%Wang%NULL%1,           Bingliang%Zeng%NULL%1,           Zicong%Li%NULL%1,           Xiaofen%Li%NULL%1,           Honglu%Li%NULL%1,          Chunqin%Long%NULL%1,          Huaxiang%Xu%NULL%1,          Qinglin%Shen%NULL%1,          Xianghai%Zhang%NULL%1,          Bing%Fan%26171381@qq.com%1,          Chuanhong%Wang%NULL%1,          Bingliang%Zeng%NULL%1,          Zicong%Li%NULL%1,          Xiaofen%Li%NULL%1,          Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,          Christopher%Gieraerts%NULL%1,          Yves%De Bruecker%NULL%1,          Lode%Janssen%NULL%1,          Hanne%Valgaeren%NULL%1,          Dagmar%Obbels%NULL%1,          Marc%Gillis%NULL%1,          Marc%Van Ranst%NULL%0,          Johan%Frans%NULL%1,          Annick%Demeyere%NULL%1,          Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,        Kai%Xie%NULL%0,        Kai%Xie%NULL%0,        Hui%Lu%NULL%0,        Lei%Xu%bayinhexl@126.com%0,        Shusheng%Zhou%zhouss108@163.com%0,        Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,        Christopher%Gieraerts%NULL%2,        Christopher%Gieraerts%NULL%0,        Yves%De Bruecker%NULL%2,        Yves%De Bruecker%NULL%0,        Lode%Janssen%NULL%2,        Lode%Janssen%NULL%0,        Hanne%Valgaeren%NULL%2,        Hanne%Valgaeren%NULL%0,        Dagmar%Obbels%NULL%2,        Dagmar%Obbels%NULL%0,        Marc%Gillis%NULL%2,        Marc%Gillis%NULL%0,        Marc%Van Ranst%NULL%0,        Marc%Van Ranst%NULL%0,        Johan%Frans%NULL%1,        Annick%Demeyere%NULL%2,        Annick%Demeyere%NULL%0,        Rolf%Symons%rolf.symons@imelda.be%2,        Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,     Christopher%Gieraerts%NULL%2,     Christopher%Gieraerts%NULL%0,     Yves%De Bruecker%NULL%2,     Yves%De Bruecker%NULL%0,     Lode%Janssen%NULL%2,     Lode%Janssen%NULL%0,     Hanne%Valgaeren%NULL%2,     Hanne%Valgaeren%NULL%0,     Dagmar%Obbels%NULL%2,     Dagmar%Obbels%NULL%0,     Marc%Gillis%NULL%2,     Marc%Gillis%NULL%0,     Marc%Van Ranst%NULL%2,     Marc%Van Ranst%NULL%0,     Johan%Frans%NULL%1,     Annick%Demeyere%NULL%2,     Annick%Demeyere%NULL%0,     Rolf%Symons%rolf.symons@imelda.be%2,     Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -779,7 +896,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -837,7 +954,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -866,7 +983,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -924,7 +1041,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -953,7 +1070,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -982,7 +1099,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -1011,7 +1128,7 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
         <v>96</v>
@@ -1040,7 +1157,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -1069,7 +1186,7 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -1098,7 +1215,7 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="159">
   <si>
     <t>Doi</t>
   </si>
@@ -576,6 +576,66 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,     Christopher%Gieraerts%NULL%2,     Christopher%Gieraerts%NULL%0,     Yves%De Bruecker%NULL%2,     Yves%De Bruecker%NULL%0,     Lode%Janssen%NULL%2,     Lode%Janssen%NULL%0,     Hanne%Valgaeren%NULL%2,     Hanne%Valgaeren%NULL%0,     Dagmar%Obbels%NULL%2,     Dagmar%Obbels%NULL%0,     Marc%Gillis%NULL%2,     Marc%Gillis%NULL%0,     Marc%Van Ranst%NULL%2,     Marc%Van Ranst%NULL%0,     Johan%Frans%NULL%1,     Annick%Demeyere%NULL%2,     Annick%Demeyere%NULL%0,     Rolf%Symons%rolf.symons@imelda.be%2,     Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,            Ben%Hsieh%NULL%1,            Zeng%Xiong%NULL%1,            Kasey%Halsey%NULL%1,            Ji Whae%Choi%NULL%1,            Thi My Linh%Tran%NULL%1,            Ian%Pan%NULL%1,            Lin-Bo%Shi%NULL%1,            Dong-Cui%Wang%NULL%1,            Ji%Mei%NULL%1,            Xiao-Long%Jiang%NULL%1,            Qiu-Hua%Zeng%NULL%1,            Thomas K.%Egglin%NULL%1,            Ping-Feng%Hu%NULL%1,            Saurabh%Agarwal%NULL%1,            Fangfang%Xie%NULL%1,            Sha%Li%NULL%1,            Terrance%Healey%NULL%1,            Michael K.%Atalay%NULL%1,            Wei-Hua%Liao%liaoweihua2017@163.com%1,           Harrison X.%Bai%NULL%1,           Ben%Hsieh%NULL%1,           Zeng%Xiong%NULL%1,           Kasey%Halsey%NULL%1,           Ji Whae%Choi%NULL%1,           Thi My Linh%Tran%NULL%1,           Ian%Pan%NULL%1,           Lin-Bo%Shi%NULL%1,           Dong-Cui%Wang%NULL%1,           Ji%Mei%NULL%1,           Xiao-Long%Jiang%NULL%1,           Qiu-Hua%Zeng%NULL%1,           Thomas K.%Egglin%NULL%1,           Ping-Feng%Hu%NULL%1,           Saurabh%Agarwal%NULL%1,           Fangfang%Xie%NULL%1,           Sha%Li%NULL%1,           Terrance%Healey%NULL%1,           Michael K.%Atalay%NULL%1,           Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,            Marta%Zerunian%NULL%1,            Michela%Polici%NULL%1,            Francesco%Pucciarelli%NULL%1,            Tiziano%Polidori%NULL%1,            Carlotta%Rucci%NULL%1,            Gisella%Guido%NULL%1,            Benedetta%Bracci%NULL%1,            Chiara%de Dominicis%NULL%1,            Andrea%Laghi%andrea.laghi@uniroma1.it%1,           Damiano%Caruso%NULL%1,           Marta%Zerunian%NULL%1,           Michela%Polici%NULL%1,           Francesco%Pucciarelli%NULL%1,           Tiziano%Polidori%NULL%1,           Carlotta%Rucci%NULL%1,           Gisella%Guido%NULL%1,           Benedetta%Bracci%NULL%1,           Chiara%de Dominicis%NULL%1,           Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,            Yanyan%Tang%NULL%1,            Yongkang%Mo%NULL%1,            Shengkai%Li%NULL%1,            Daiying%Lin%NULL%1,            Zhijian%Yang%NULL%1,            Zhiqi%Yang%NULL%1,            Hongfu%Sun%NULL%1,            Jinming%Qiu%NULL%1,            Yuting%Liao%NULL%1,            Jianning%Xiao%NULL%1,            Xiangguang%Chen%NULL%1,            Xianheng%Wu%NULL%1,            Renhua%Wu%NULL%1,            Zhuozhi%Dai%zhuozhi@ualberta.ca%1,           Xiaofeng%Chen%NULL%1,           Yanyan%Tang%NULL%1,           Yongkang%Mo%NULL%1,           Shengkai%Li%NULL%1,           Daiying%Lin%NULL%1,           Zhijian%Yang%NULL%1,           Zhiqi%Yang%NULL%1,           Hongfu%Sun%NULL%1,           Jinming%Qiu%NULL%1,           Yuting%Liao%NULL%1,           Jianning%Xiao%NULL%1,           Xiangguang%Chen%NULL%1,           Xianheng%Wu%NULL%1,           Renhua%Wu%NULL%1,           Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,            Xiaolong%Qi%NULL%1,            Soon Ho%Yoon%yshoka@gmail.com%1,            Sang Joon%Park%NULL%1,            Kyung Hee%Lee%NULL%1,            Jin Yong%Kim%NULL%1,            Young Kyung%Lee%NULL%1,            Hongseok%Ko%NULL%1,            Ki Hwan%Kim%NULL%1,            Chang Min%Park%NULL%1,            Yun-Hyeon%Kim%NULL%1,            Junqiang%Lei%NULL%1,            Jung Hee%Hong%NULL%1,            Hyungjin%Kim%NULL%1,            Eui Jin%Hwang%NULL%1,            Seung Jin%Yoo%NULL%1,            Ju Gang%Nam%NULL%1,            Chang Hyun%Lee%NULL%1,            Jin Mo%Goo%NULL%1,           Hyewon%Choi%NULL%1,           Xiaolong%Qi%NULL%1,           Soon Ho%Yoon%yshoka@gmail.com%1,           Sang Joon%Park%NULL%1,           Kyung Hee%Lee%NULL%1,           Jin Yong%Kim%NULL%1,           Young Kyung%Lee%NULL%1,           Hongseok%Ko%NULL%1,           Ki Hwan%Kim%NULL%1,           Chang Min%Park%NULL%1,           Yun-Hyeon%Kim%NULL%1,           Junqiang%Lei%NULL%1,           Jung Hee%Hong%NULL%1,           Hyungjin%Kim%NULL%1,           Eui Jin%Hwang%NULL%1,           Seung Jin%Yoo%NULL%1,           Ju Gang%Nam%NULL%1,           Chang Hyun%Lee%NULL%1,           Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,            Akihiko%Sakata%NULL%1,            Mitsuhiro%Kirita%NULL%1,            Takashi%Hiroi%NULL%1,            Ken-ichiro%Kobayashi%NULL%1,            Kenji%Kubo%NULL%1,            Hyunjin%Kim%NULL%1,            Azusa%Nishimoto%NULL%1,            Chikara%Maeda%NULL%1,            Akira%Kawamura%NULL%1,            Nobuhiro%Komiya%NULL%1,            Shigeaki%Umeoka%NULL%1,           Yuki%Himoto%yukihimoto@gmail.com%1,           Akihiko%Sakata%NULL%1,           Mitsuhiro%Kirita%NULL%1,           Takashi%Hiroi%NULL%1,           Ken-ichiro%Kobayashi%NULL%1,           Kenji%Kubo%NULL%1,           Hyunjin%Kim%NULL%1,           Azusa%Nishimoto%NULL%1,           Chikara%Maeda%NULL%1,           Akira%Kawamura%NULL%1,           Nobuhiro%Komiya%NULL%1,           Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,            Huaxiang%Xu%NULL%1,            Qinglin%Shen%NULL%1,            Xianghai%Zhang%NULL%1,            Bing%Fan%26171381@qq.com%1,            Chuanhong%Wang%NULL%1,            Bingliang%Zeng%NULL%1,            Zicong%Li%NULL%1,            Xiaofen%Li%NULL%1,            Honglu%Li%NULL%1,           Chunqin%Long%NULL%1,           Huaxiang%Xu%NULL%1,           Qinglin%Shen%NULL%1,           Xianghai%Zhang%NULL%1,           Bing%Fan%26171381@qq.com%1,           Chuanhong%Wang%NULL%1,           Bingliang%Zeng%NULL%1,           Zicong%Li%NULL%1,           Xiaofen%Li%NULL%1,           Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,           Christopher%Gieraerts%NULL%1,           Yves%De Bruecker%NULL%1,           Lode%Janssen%NULL%1,           Hanne%Valgaeren%NULL%1,           Dagmar%Obbels%NULL%1,           Marc%Gillis%NULL%1,           Marc%Van Ranst%NULL%0,           Johan%Frans%NULL%1,           Annick%Demeyere%NULL%1,           Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,         Kai%Xie%NULL%0,         Kai%Xie%NULL%0,         Hui%Lu%NULL%0,         Lei%Xu%bayinhexl@126.com%0,         Shusheng%Zhou%zhouss108@163.com%0,         Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,         Christopher%Gieraerts%NULL%2,         Christopher%Gieraerts%NULL%0,         Yves%De Bruecker%NULL%2,         Yves%De Bruecker%NULL%0,         Lode%Janssen%NULL%2,         Lode%Janssen%NULL%0,         Hanne%Valgaeren%NULL%2,         Hanne%Valgaeren%NULL%0,         Dagmar%Obbels%NULL%2,         Dagmar%Obbels%NULL%0,         Marc%Gillis%NULL%2,         Marc%Gillis%NULL%0,         Marc%Van Ranst%NULL%0,         Marc%Van Ranst%NULL%0,         Johan%Frans%NULL%1,         Annick%Demeyere%NULL%2,         Annick%Demeyere%NULL%0,         Rolf%Symons%rolf.symons@imelda.be%2,         Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,      Christopher%Gieraerts%NULL%2,      Christopher%Gieraerts%NULL%0,      Yves%De Bruecker%NULL%2,      Yves%De Bruecker%NULL%0,      Lode%Janssen%NULL%2,      Lode%Janssen%NULL%0,      Hanne%Valgaeren%NULL%2,      Hanne%Valgaeren%NULL%0,      Dagmar%Obbels%NULL%2,      Dagmar%Obbels%NULL%0,      Marc%Gillis%NULL%2,      Marc%Gillis%NULL%0,      Marc%Van Ranst%NULL%2,      Marc%Van Ranst%NULL%0,      Johan%Frans%NULL%1,      Annick%Demeyere%NULL%2,      Annick%Demeyere%NULL%0,      Rolf%Symons%rolf.symons@imelda.be%2,      Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,             Ben%Hsieh%NULL%1,             Zeng%Xiong%NULL%1,             Kasey%Halsey%NULL%1,             Ji Whae%Choi%NULL%1,             Thi My Linh%Tran%NULL%1,             Ian%Pan%NULL%1,             Lin-Bo%Shi%NULL%1,             Dong-Cui%Wang%NULL%1,             Ji%Mei%NULL%1,             Xiao-Long%Jiang%NULL%1,             Qiu-Hua%Zeng%NULL%1,             Thomas K.%Egglin%NULL%1,             Ping-Feng%Hu%NULL%1,             Saurabh%Agarwal%NULL%1,             Fangfang%Xie%NULL%1,             Sha%Li%NULL%1,             Terrance%Healey%NULL%1,             Michael K.%Atalay%NULL%1,             Wei-Hua%Liao%liaoweihua2017@163.com%1,            Harrison X.%Bai%NULL%1,            Ben%Hsieh%NULL%1,            Zeng%Xiong%NULL%1,            Kasey%Halsey%NULL%1,            Ji Whae%Choi%NULL%1,            Thi My Linh%Tran%NULL%1,            Ian%Pan%NULL%1,            Lin-Bo%Shi%NULL%1,            Dong-Cui%Wang%NULL%1,            Ji%Mei%NULL%1,            Xiao-Long%Jiang%NULL%1,            Qiu-Hua%Zeng%NULL%1,            Thomas K.%Egglin%NULL%1,            Ping-Feng%Hu%NULL%1,            Saurabh%Agarwal%NULL%1,            Fangfang%Xie%NULL%1,            Sha%Li%NULL%1,            Terrance%Healey%NULL%1,            Michael K.%Atalay%NULL%1,            Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,             Marta%Zerunian%NULL%1,             Michela%Polici%NULL%1,             Francesco%Pucciarelli%NULL%1,             Tiziano%Polidori%NULL%1,             Carlotta%Rucci%NULL%1,             Gisella%Guido%NULL%1,             Benedetta%Bracci%NULL%1,             Chiara%de Dominicis%NULL%1,             Andrea%Laghi%andrea.laghi@uniroma1.it%1,            Damiano%Caruso%NULL%1,            Marta%Zerunian%NULL%1,            Michela%Polici%NULL%1,            Francesco%Pucciarelli%NULL%1,            Tiziano%Polidori%NULL%1,            Carlotta%Rucci%NULL%1,            Gisella%Guido%NULL%1,            Benedetta%Bracci%NULL%1,            Chiara%de Dominicis%NULL%1,            Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,             Yanyan%Tang%NULL%1,             Yongkang%Mo%NULL%1,             Shengkai%Li%NULL%1,             Daiying%Lin%NULL%1,             Zhijian%Yang%NULL%1,             Zhiqi%Yang%NULL%1,             Hongfu%Sun%NULL%1,             Jinming%Qiu%NULL%1,             Yuting%Liao%NULL%1,             Jianning%Xiao%NULL%1,             Xiangguang%Chen%NULL%1,             Xianheng%Wu%NULL%1,             Renhua%Wu%NULL%1,             Zhuozhi%Dai%zhuozhi@ualberta.ca%1,            Xiaofeng%Chen%NULL%1,            Yanyan%Tang%NULL%1,            Yongkang%Mo%NULL%1,            Shengkai%Li%NULL%1,            Daiying%Lin%NULL%1,            Zhijian%Yang%NULL%1,            Zhiqi%Yang%NULL%1,            Hongfu%Sun%NULL%1,            Jinming%Qiu%NULL%1,            Yuting%Liao%NULL%1,            Jianning%Xiao%NULL%1,            Xiangguang%Chen%NULL%1,            Xianheng%Wu%NULL%1,            Renhua%Wu%NULL%1,            Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,             Xiaolong%Qi%NULL%1,             Soon Ho%Yoon%yshoka@gmail.com%1,             Sang Joon%Park%NULL%1,             Kyung Hee%Lee%NULL%1,             Jin Yong%Kim%NULL%1,             Young Kyung%Lee%NULL%1,             Hongseok%Ko%NULL%1,             Ki Hwan%Kim%NULL%1,             Chang Min%Park%NULL%1,             Yun-Hyeon%Kim%NULL%1,             Junqiang%Lei%NULL%1,             Jung Hee%Hong%NULL%1,             Hyungjin%Kim%NULL%1,             Eui Jin%Hwang%NULL%1,             Seung Jin%Yoo%NULL%1,             Ju Gang%Nam%NULL%1,             Chang Hyun%Lee%NULL%1,             Jin Mo%Goo%NULL%1,            Hyewon%Choi%NULL%1,            Xiaolong%Qi%NULL%1,            Soon Ho%Yoon%yshoka@gmail.com%1,            Sang Joon%Park%NULL%1,            Kyung Hee%Lee%NULL%1,            Jin Yong%Kim%NULL%1,            Young Kyung%Lee%NULL%1,            Hongseok%Ko%NULL%1,            Ki Hwan%Kim%NULL%1,            Chang Min%Park%NULL%1,            Yun-Hyeon%Kim%NULL%1,            Junqiang%Lei%NULL%1,            Jung Hee%Hong%NULL%1,            Hyungjin%Kim%NULL%1,            Eui Jin%Hwang%NULL%1,            Seung Jin%Yoo%NULL%1,            Ju Gang%Nam%NULL%1,            Chang Hyun%Lee%NULL%1,            Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,             Akihiko%Sakata%NULL%1,             Mitsuhiro%Kirita%NULL%1,             Takashi%Hiroi%NULL%1,             Ken-ichiro%Kobayashi%NULL%1,             Kenji%Kubo%NULL%1,             Hyunjin%Kim%NULL%1,             Azusa%Nishimoto%NULL%1,             Chikara%Maeda%NULL%1,             Akira%Kawamura%NULL%1,             Nobuhiro%Komiya%NULL%1,             Shigeaki%Umeoka%NULL%1,            Yuki%Himoto%yukihimoto@gmail.com%1,            Akihiko%Sakata%NULL%1,            Mitsuhiro%Kirita%NULL%1,            Takashi%Hiroi%NULL%1,            Ken-ichiro%Kobayashi%NULL%1,            Kenji%Kubo%NULL%1,            Hyunjin%Kim%NULL%1,            Azusa%Nishimoto%NULL%1,            Chikara%Maeda%NULL%1,            Akira%Kawamura%NULL%1,            Nobuhiro%Komiya%NULL%1,            Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,             Huaxiang%Xu%NULL%1,             Qinglin%Shen%NULL%1,             Xianghai%Zhang%NULL%1,             Bing%Fan%26171381@qq.com%1,             Chuanhong%Wang%NULL%1,             Bingliang%Zeng%NULL%1,             Zicong%Li%NULL%1,             Xiaofen%Li%NULL%1,             Honglu%Li%NULL%1,            Chunqin%Long%NULL%1,            Huaxiang%Xu%NULL%1,            Qinglin%Shen%NULL%1,            Xianghai%Zhang%NULL%1,            Bing%Fan%26171381@qq.com%1,            Chuanhong%Wang%NULL%1,            Bingliang%Zeng%NULL%1,            Zicong%Li%NULL%1,            Xiaofen%Li%NULL%1,            Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,            Christopher%Gieraerts%NULL%1,            Yves%De Bruecker%NULL%1,            Lode%Janssen%NULL%1,            Hanne%Valgaeren%NULL%1,            Dagmar%Obbels%NULL%1,            Marc%Gillis%NULL%1,            Marc%Van Ranst%NULL%0,            Johan%Frans%NULL%1,            Annick%Demeyere%NULL%1,            Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,          Kai%Xie%NULL%0,          Kai%Xie%NULL%0,          Hui%Lu%NULL%0,          Lei%Xu%bayinhexl@126.com%0,          Shusheng%Zhou%zhouss108@163.com%0,          Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,          Christopher%Gieraerts%NULL%2,          Christopher%Gieraerts%NULL%0,          Yves%De Bruecker%NULL%2,          Yves%De Bruecker%NULL%0,          Lode%Janssen%NULL%2,          Lode%Janssen%NULL%0,          Hanne%Valgaeren%NULL%2,          Hanne%Valgaeren%NULL%0,          Dagmar%Obbels%NULL%2,          Dagmar%Obbels%NULL%0,          Marc%Gillis%NULL%2,          Marc%Gillis%NULL%0,          Marc%Van Ranst%NULL%0,          Marc%Van Ranst%NULL%0,          Johan%Frans%NULL%1,          Annick%Demeyere%NULL%2,          Annick%Demeyere%NULL%0,          Rolf%Symons%rolf.symons@imelda.be%2,          Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,       Christopher%Gieraerts%NULL%2,       Christopher%Gieraerts%NULL%0,       Yves%De Bruecker%NULL%2,       Yves%De Bruecker%NULL%0,       Lode%Janssen%NULL%2,       Lode%Janssen%NULL%0,       Hanne%Valgaeren%NULL%2,       Hanne%Valgaeren%NULL%0,       Dagmar%Obbels%NULL%2,       Dagmar%Obbels%NULL%0,       Marc%Gillis%NULL%2,       Marc%Gillis%NULL%0,       Marc%Van Ranst%NULL%2,       Marc%Van Ranst%NULL%0,       Johan%Frans%NULL%1,       Annick%Demeyere%NULL%2,       Annick%Demeyere%NULL%0,       Rolf%Symons%rolf.symons@imelda.be%2,       Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -896,7 +956,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -954,7 +1014,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -983,7 +1043,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -1041,7 +1101,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -1070,7 +1130,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -1099,7 +1159,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -1128,7 +1188,7 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
         <v>96</v>
@@ -1157,7 +1217,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -1186,7 +1246,7 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -1215,7 +1275,7 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="179">
   <si>
     <t>Doi</t>
   </si>
@@ -636,6 +636,66 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,       Christopher%Gieraerts%NULL%2,       Christopher%Gieraerts%NULL%0,       Yves%De Bruecker%NULL%2,       Yves%De Bruecker%NULL%0,       Lode%Janssen%NULL%2,       Lode%Janssen%NULL%0,       Hanne%Valgaeren%NULL%2,       Hanne%Valgaeren%NULL%0,       Dagmar%Obbels%NULL%2,       Dagmar%Obbels%NULL%0,       Marc%Gillis%NULL%2,       Marc%Gillis%NULL%0,       Marc%Van Ranst%NULL%2,       Marc%Van Ranst%NULL%0,       Johan%Frans%NULL%1,       Annick%Demeyere%NULL%2,       Annick%Demeyere%NULL%0,       Rolf%Symons%rolf.symons@imelda.be%2,       Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,              Ben%Hsieh%NULL%1,              Zeng%Xiong%NULL%1,              Kasey%Halsey%NULL%1,              Ji Whae%Choi%NULL%1,              Thi My Linh%Tran%NULL%1,              Ian%Pan%NULL%1,              Lin-Bo%Shi%NULL%1,              Dong-Cui%Wang%NULL%1,              Ji%Mei%NULL%1,              Xiao-Long%Jiang%NULL%1,              Qiu-Hua%Zeng%NULL%1,              Thomas K.%Egglin%NULL%1,              Ping-Feng%Hu%NULL%1,              Saurabh%Agarwal%NULL%1,              Fangfang%Xie%NULL%1,              Sha%Li%NULL%1,              Terrance%Healey%NULL%1,              Michael K.%Atalay%NULL%1,              Wei-Hua%Liao%liaoweihua2017@163.com%1,             Harrison X.%Bai%NULL%1,             Ben%Hsieh%NULL%1,             Zeng%Xiong%NULL%1,             Kasey%Halsey%NULL%1,             Ji Whae%Choi%NULL%1,             Thi My Linh%Tran%NULL%1,             Ian%Pan%NULL%1,             Lin-Bo%Shi%NULL%1,             Dong-Cui%Wang%NULL%1,             Ji%Mei%NULL%1,             Xiao-Long%Jiang%NULL%1,             Qiu-Hua%Zeng%NULL%1,             Thomas K.%Egglin%NULL%1,             Ping-Feng%Hu%NULL%1,             Saurabh%Agarwal%NULL%1,             Fangfang%Xie%NULL%1,             Sha%Li%NULL%1,             Terrance%Healey%NULL%1,             Michael K.%Atalay%NULL%1,             Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,              Marta%Zerunian%NULL%1,              Michela%Polici%NULL%1,              Francesco%Pucciarelli%NULL%1,              Tiziano%Polidori%NULL%1,              Carlotta%Rucci%NULL%1,              Gisella%Guido%NULL%1,              Benedetta%Bracci%NULL%1,              Chiara%de Dominicis%NULL%1,              Andrea%Laghi%andrea.laghi@uniroma1.it%1,             Damiano%Caruso%NULL%1,             Marta%Zerunian%NULL%1,             Michela%Polici%NULL%1,             Francesco%Pucciarelli%NULL%1,             Tiziano%Polidori%NULL%1,             Carlotta%Rucci%NULL%1,             Gisella%Guido%NULL%1,             Benedetta%Bracci%NULL%1,             Chiara%de Dominicis%NULL%1,             Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,              Yanyan%Tang%NULL%1,              Yongkang%Mo%NULL%1,              Shengkai%Li%NULL%1,              Daiying%Lin%NULL%1,              Zhijian%Yang%NULL%1,              Zhiqi%Yang%NULL%1,              Hongfu%Sun%NULL%1,              Jinming%Qiu%NULL%1,              Yuting%Liao%NULL%1,              Jianning%Xiao%NULL%1,              Xiangguang%Chen%NULL%1,              Xianheng%Wu%NULL%1,              Renhua%Wu%NULL%1,              Zhuozhi%Dai%zhuozhi@ualberta.ca%1,             Xiaofeng%Chen%NULL%1,             Yanyan%Tang%NULL%1,             Yongkang%Mo%NULL%1,             Shengkai%Li%NULL%1,             Daiying%Lin%NULL%1,             Zhijian%Yang%NULL%1,             Zhiqi%Yang%NULL%1,             Hongfu%Sun%NULL%1,             Jinming%Qiu%NULL%1,             Yuting%Liao%NULL%1,             Jianning%Xiao%NULL%1,             Xiangguang%Chen%NULL%1,             Xianheng%Wu%NULL%1,             Renhua%Wu%NULL%1,             Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,              Xiaolong%Qi%NULL%1,              Soon Ho%Yoon%yshoka@gmail.com%1,              Sang Joon%Park%NULL%1,              Kyung Hee%Lee%NULL%1,              Jin Yong%Kim%NULL%1,              Young Kyung%Lee%NULL%1,              Hongseok%Ko%NULL%1,              Ki Hwan%Kim%NULL%1,              Chang Min%Park%NULL%1,              Yun-Hyeon%Kim%NULL%1,              Junqiang%Lei%NULL%1,              Jung Hee%Hong%NULL%1,              Hyungjin%Kim%NULL%1,              Eui Jin%Hwang%NULL%1,              Seung Jin%Yoo%NULL%1,              Ju Gang%Nam%NULL%1,              Chang Hyun%Lee%NULL%1,              Jin Mo%Goo%NULL%1,             Hyewon%Choi%NULL%1,             Xiaolong%Qi%NULL%1,             Soon Ho%Yoon%yshoka@gmail.com%1,             Sang Joon%Park%NULL%1,             Kyung Hee%Lee%NULL%1,             Jin Yong%Kim%NULL%1,             Young Kyung%Lee%NULL%1,             Hongseok%Ko%NULL%1,             Ki Hwan%Kim%NULL%1,             Chang Min%Park%NULL%1,             Yun-Hyeon%Kim%NULL%1,             Junqiang%Lei%NULL%1,             Jung Hee%Hong%NULL%1,             Hyungjin%Kim%NULL%1,             Eui Jin%Hwang%NULL%1,             Seung Jin%Yoo%NULL%1,             Ju Gang%Nam%NULL%1,             Chang Hyun%Lee%NULL%1,             Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,              Akihiko%Sakata%NULL%1,              Mitsuhiro%Kirita%NULL%1,              Takashi%Hiroi%NULL%1,              Ken-ichiro%Kobayashi%NULL%1,              Kenji%Kubo%NULL%1,              Hyunjin%Kim%NULL%1,              Azusa%Nishimoto%NULL%1,              Chikara%Maeda%NULL%1,              Akira%Kawamura%NULL%1,              Nobuhiro%Komiya%NULL%1,              Shigeaki%Umeoka%NULL%1,             Yuki%Himoto%yukihimoto@gmail.com%1,             Akihiko%Sakata%NULL%1,             Mitsuhiro%Kirita%NULL%1,             Takashi%Hiroi%NULL%1,             Ken-ichiro%Kobayashi%NULL%1,             Kenji%Kubo%NULL%1,             Hyunjin%Kim%NULL%1,             Azusa%Nishimoto%NULL%1,             Chikara%Maeda%NULL%1,             Akira%Kawamura%NULL%1,             Nobuhiro%Komiya%NULL%1,             Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,              Huaxiang%Xu%NULL%1,              Qinglin%Shen%NULL%1,              Xianghai%Zhang%NULL%1,              Bing%Fan%26171381@qq.com%1,              Chuanhong%Wang%NULL%1,              Bingliang%Zeng%NULL%1,              Zicong%Li%NULL%1,              Xiaofen%Li%NULL%1,              Honglu%Li%NULL%1,             Chunqin%Long%NULL%1,             Huaxiang%Xu%NULL%1,             Qinglin%Shen%NULL%1,             Xianghai%Zhang%NULL%1,             Bing%Fan%26171381@qq.com%1,             Chuanhong%Wang%NULL%1,             Bingliang%Zeng%NULL%1,             Zicong%Li%NULL%1,             Xiaofen%Li%NULL%1,             Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,             Christopher%Gieraerts%NULL%1,             Yves%De Bruecker%NULL%1,             Lode%Janssen%NULL%1,             Hanne%Valgaeren%NULL%1,             Dagmar%Obbels%NULL%1,             Marc%Gillis%NULL%1,             Marc%Van Ranst%NULL%0,             Johan%Frans%NULL%1,             Annick%Demeyere%NULL%1,             Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,           Kai%Xie%NULL%0,           Kai%Xie%NULL%0,           Hui%Lu%NULL%0,           Lei%Xu%bayinhexl@126.com%0,           Shusheng%Zhou%zhouss108@163.com%0,           Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,           Christopher%Gieraerts%NULL%2,           Christopher%Gieraerts%NULL%0,           Yves%De Bruecker%NULL%2,           Yves%De Bruecker%NULL%0,           Lode%Janssen%NULL%2,           Lode%Janssen%NULL%0,           Hanne%Valgaeren%NULL%2,           Hanne%Valgaeren%NULL%0,           Dagmar%Obbels%NULL%2,           Dagmar%Obbels%NULL%0,           Marc%Gillis%NULL%2,           Marc%Gillis%NULL%0,           Marc%Van Ranst%NULL%0,           Marc%Van Ranst%NULL%0,           Johan%Frans%NULL%1,           Annick%Demeyere%NULL%2,           Annick%Demeyere%NULL%0,           Rolf%Symons%rolf.symons@imelda.be%2,           Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,        Christopher%Gieraerts%NULL%2,        Christopher%Gieraerts%NULL%0,        Yves%De Bruecker%NULL%2,        Yves%De Bruecker%NULL%0,        Lode%Janssen%NULL%2,        Lode%Janssen%NULL%0,        Hanne%Valgaeren%NULL%2,        Hanne%Valgaeren%NULL%0,        Dagmar%Obbels%NULL%2,        Dagmar%Obbels%NULL%0,        Marc%Gillis%NULL%2,        Marc%Gillis%NULL%0,        Marc%Van Ranst%NULL%2,        Marc%Van Ranst%NULL%0,        Johan%Frans%NULL%1,        Annick%Demeyere%NULL%2,        Annick%Demeyere%NULL%0,        Rolf%Symons%rolf.symons@imelda.be%2,        Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,               Ben%Hsieh%NULL%1,               Zeng%Xiong%NULL%1,               Kasey%Halsey%NULL%1,               Ji Whae%Choi%NULL%1,               Thi My Linh%Tran%NULL%1,               Ian%Pan%NULL%1,               Lin-Bo%Shi%NULL%1,               Dong-Cui%Wang%NULL%1,               Ji%Mei%NULL%1,               Xiao-Long%Jiang%NULL%1,               Qiu-Hua%Zeng%NULL%1,               Thomas K.%Egglin%NULL%1,               Ping-Feng%Hu%NULL%1,               Saurabh%Agarwal%NULL%1,               Fangfang%Xie%NULL%1,               Sha%Li%NULL%1,               Terrance%Healey%NULL%1,               Michael K.%Atalay%NULL%1,               Wei-Hua%Liao%liaoweihua2017@163.com%1,              Harrison X.%Bai%NULL%1,              Ben%Hsieh%NULL%1,              Zeng%Xiong%NULL%1,              Kasey%Halsey%NULL%1,              Ji Whae%Choi%NULL%1,              Thi My Linh%Tran%NULL%1,              Ian%Pan%NULL%1,              Lin-Bo%Shi%NULL%1,              Dong-Cui%Wang%NULL%1,              Ji%Mei%NULL%1,              Xiao-Long%Jiang%NULL%1,              Qiu-Hua%Zeng%NULL%1,              Thomas K.%Egglin%NULL%1,              Ping-Feng%Hu%NULL%1,              Saurabh%Agarwal%NULL%1,              Fangfang%Xie%NULL%1,              Sha%Li%NULL%1,              Terrance%Healey%NULL%1,              Michael K.%Atalay%NULL%1,              Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,               Marta%Zerunian%NULL%1,               Michela%Polici%NULL%1,               Francesco%Pucciarelli%NULL%1,               Tiziano%Polidori%NULL%1,               Carlotta%Rucci%NULL%1,               Gisella%Guido%NULL%1,               Benedetta%Bracci%NULL%1,               Chiara%de Dominicis%NULL%1,               Andrea%Laghi%andrea.laghi@uniroma1.it%1,              Damiano%Caruso%NULL%1,              Marta%Zerunian%NULL%1,              Michela%Polici%NULL%1,              Francesco%Pucciarelli%NULL%1,              Tiziano%Polidori%NULL%1,              Carlotta%Rucci%NULL%1,              Gisella%Guido%NULL%1,              Benedetta%Bracci%NULL%1,              Chiara%de Dominicis%NULL%1,              Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,               Yanyan%Tang%NULL%1,               Yongkang%Mo%NULL%1,               Shengkai%Li%NULL%1,               Daiying%Lin%NULL%1,               Zhijian%Yang%NULL%1,               Zhiqi%Yang%NULL%1,               Hongfu%Sun%NULL%1,               Jinming%Qiu%NULL%1,               Yuting%Liao%NULL%1,               Jianning%Xiao%NULL%1,               Xiangguang%Chen%NULL%1,               Xianheng%Wu%NULL%1,               Renhua%Wu%NULL%1,               Zhuozhi%Dai%zhuozhi@ualberta.ca%1,              Xiaofeng%Chen%NULL%1,              Yanyan%Tang%NULL%1,              Yongkang%Mo%NULL%1,              Shengkai%Li%NULL%1,              Daiying%Lin%NULL%1,              Zhijian%Yang%NULL%1,              Zhiqi%Yang%NULL%1,              Hongfu%Sun%NULL%1,              Jinming%Qiu%NULL%1,              Yuting%Liao%NULL%1,              Jianning%Xiao%NULL%1,              Xiangguang%Chen%NULL%1,              Xianheng%Wu%NULL%1,              Renhua%Wu%NULL%1,              Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,               Xiaolong%Qi%NULL%1,               Soon Ho%Yoon%yshoka@gmail.com%1,               Sang Joon%Park%NULL%1,               Kyung Hee%Lee%NULL%1,               Jin Yong%Kim%NULL%1,               Young Kyung%Lee%NULL%1,               Hongseok%Ko%NULL%1,               Ki Hwan%Kim%NULL%1,               Chang Min%Park%NULL%1,               Yun-Hyeon%Kim%NULL%1,               Junqiang%Lei%NULL%1,               Jung Hee%Hong%NULL%1,               Hyungjin%Kim%NULL%1,               Eui Jin%Hwang%NULL%1,               Seung Jin%Yoo%NULL%1,               Ju Gang%Nam%NULL%1,               Chang Hyun%Lee%NULL%1,               Jin Mo%Goo%NULL%1,              Hyewon%Choi%NULL%1,              Xiaolong%Qi%NULL%1,              Soon Ho%Yoon%yshoka@gmail.com%1,              Sang Joon%Park%NULL%1,              Kyung Hee%Lee%NULL%1,              Jin Yong%Kim%NULL%1,              Young Kyung%Lee%NULL%1,              Hongseok%Ko%NULL%1,              Ki Hwan%Kim%NULL%1,              Chang Min%Park%NULL%1,              Yun-Hyeon%Kim%NULL%1,              Junqiang%Lei%NULL%1,              Jung Hee%Hong%NULL%1,              Hyungjin%Kim%NULL%1,              Eui Jin%Hwang%NULL%1,              Seung Jin%Yoo%NULL%1,              Ju Gang%Nam%NULL%1,              Chang Hyun%Lee%NULL%1,              Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,               Akihiko%Sakata%NULL%1,               Mitsuhiro%Kirita%NULL%1,               Takashi%Hiroi%NULL%1,               Ken-ichiro%Kobayashi%NULL%1,               Kenji%Kubo%NULL%1,               Hyunjin%Kim%NULL%1,               Azusa%Nishimoto%NULL%1,               Chikara%Maeda%NULL%1,               Akira%Kawamura%NULL%1,               Nobuhiro%Komiya%NULL%1,               Shigeaki%Umeoka%NULL%1,              Yuki%Himoto%yukihimoto@gmail.com%1,              Akihiko%Sakata%NULL%1,              Mitsuhiro%Kirita%NULL%1,              Takashi%Hiroi%NULL%1,              Ken-ichiro%Kobayashi%NULL%1,              Kenji%Kubo%NULL%1,              Hyunjin%Kim%NULL%1,              Azusa%Nishimoto%NULL%1,              Chikara%Maeda%NULL%1,              Akira%Kawamura%NULL%1,              Nobuhiro%Komiya%NULL%1,              Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,               Huaxiang%Xu%NULL%1,               Qinglin%Shen%NULL%1,               Xianghai%Zhang%NULL%1,               Bing%Fan%26171381@qq.com%1,               Chuanhong%Wang%NULL%1,               Bingliang%Zeng%NULL%1,               Zicong%Li%NULL%1,               Xiaofen%Li%NULL%1,               Honglu%Li%NULL%1,              Chunqin%Long%NULL%1,              Huaxiang%Xu%NULL%1,              Qinglin%Shen%NULL%1,              Xianghai%Zhang%NULL%1,              Bing%Fan%26171381@qq.com%1,              Chuanhong%Wang%NULL%1,              Bingliang%Zeng%NULL%1,              Zicong%Li%NULL%1,              Xiaofen%Li%NULL%1,              Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,              Christopher%Gieraerts%NULL%1,              Yves%De Bruecker%NULL%1,              Lode%Janssen%NULL%1,              Hanne%Valgaeren%NULL%1,              Dagmar%Obbels%NULL%1,              Marc%Gillis%NULL%1,              Marc%Van Ranst%NULL%0,              Johan%Frans%NULL%1,              Annick%Demeyere%NULL%1,              Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,            Kai%Xie%NULL%0,            Kai%Xie%NULL%0,            Hui%Lu%NULL%0,            Lei%Xu%bayinhexl@126.com%0,            Shusheng%Zhou%zhouss108@163.com%0,            Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,            Christopher%Gieraerts%NULL%2,            Christopher%Gieraerts%NULL%0,            Yves%De Bruecker%NULL%2,            Yves%De Bruecker%NULL%0,            Lode%Janssen%NULL%2,            Lode%Janssen%NULL%0,            Hanne%Valgaeren%NULL%2,            Hanne%Valgaeren%NULL%0,            Dagmar%Obbels%NULL%2,            Dagmar%Obbels%NULL%0,            Marc%Gillis%NULL%2,            Marc%Gillis%NULL%0,            Marc%Van Ranst%NULL%0,            Marc%Van Ranst%NULL%0,            Johan%Frans%NULL%1,            Annick%Demeyere%NULL%2,            Annick%Demeyere%NULL%0,            Rolf%Symons%rolf.symons@imelda.be%2,            Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,         Christopher%Gieraerts%NULL%2,         Christopher%Gieraerts%NULL%0,         Yves%De Bruecker%NULL%2,         Yves%De Bruecker%NULL%0,         Lode%Janssen%NULL%2,         Lode%Janssen%NULL%0,         Hanne%Valgaeren%NULL%2,         Hanne%Valgaeren%NULL%0,         Dagmar%Obbels%NULL%2,         Dagmar%Obbels%NULL%0,         Marc%Gillis%NULL%2,         Marc%Gillis%NULL%0,         Marc%Van Ranst%NULL%2,         Marc%Van Ranst%NULL%0,         Johan%Frans%NULL%1,         Annick%Demeyere%NULL%2,         Annick%Demeyere%NULL%0,         Rolf%Symons%rolf.symons@imelda.be%2,         Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1016,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1014,7 +1074,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1043,7 +1103,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -1101,7 +1161,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -1130,7 +1190,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -1159,7 +1219,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -1188,7 +1248,7 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
         <v>96</v>
@@ -1217,7 +1277,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -1246,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -1275,7 +1335,7 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="201">
   <si>
     <t>Doi</t>
   </si>
@@ -696,6 +696,107 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,         Christopher%Gieraerts%NULL%2,         Christopher%Gieraerts%NULL%0,         Yves%De Bruecker%NULL%2,         Yves%De Bruecker%NULL%0,         Lode%Janssen%NULL%2,         Lode%Janssen%NULL%0,         Hanne%Valgaeren%NULL%2,         Hanne%Valgaeren%NULL%0,         Dagmar%Obbels%NULL%2,         Dagmar%Obbels%NULL%0,         Marc%Gillis%NULL%2,         Marc%Gillis%NULL%0,         Marc%Van Ranst%NULL%2,         Marc%Van Ranst%NULL%0,         Johan%Frans%NULL%1,         Annick%Demeyere%NULL%2,         Annick%Demeyere%NULL%0,         Rolf%Symons%rolf.symons@imelda.be%2,         Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,                Ben%Hsieh%NULL%1,                Zeng%Xiong%NULL%1,                Kasey%Halsey%NULL%1,                Ji Whae%Choi%NULL%1,                Thi My Linh%Tran%NULL%1,                Ian%Pan%NULL%1,                Lin-Bo%Shi%NULL%1,                Dong-Cui%Wang%NULL%1,                Ji%Mei%NULL%1,                Xiao-Long%Jiang%NULL%1,                Qiu-Hua%Zeng%NULL%1,                Thomas K.%Egglin%NULL%1,                Ping-Feng%Hu%NULL%1,                Saurabh%Agarwal%NULL%1,                Fangfang%Xie%NULL%1,                Sha%Li%NULL%1,                Terrance%Healey%NULL%1,                Michael K.%Atalay%NULL%1,                Wei-Hua%Liao%liaoweihua2017@163.com%1,               Harrison X.%Bai%NULL%1,               Ben%Hsieh%NULL%1,               Zeng%Xiong%NULL%1,               Kasey%Halsey%NULL%1,               Ji Whae%Choi%NULL%1,               Thi My Linh%Tran%NULL%1,               Ian%Pan%NULL%1,               Lin-Bo%Shi%NULL%1,               Dong-Cui%Wang%NULL%1,               Ji%Mei%NULL%1,               Xiao-Long%Jiang%NULL%1,               Qiu-Hua%Zeng%NULL%1,               Thomas K.%Egglin%NULL%1,               Ping-Feng%Hu%NULL%1,               Saurabh%Agarwal%NULL%1,               Fangfang%Xie%NULL%1,               Sha%Li%NULL%1,               Terrance%Healey%NULL%1,               Michael K.%Atalay%NULL%1,               Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,                Marta%Zerunian%NULL%1,                Michela%Polici%NULL%1,                Francesco%Pucciarelli%NULL%1,                Tiziano%Polidori%NULL%1,                Carlotta%Rucci%NULL%1,                Gisella%Guido%NULL%1,                Benedetta%Bracci%NULL%1,                Chiara%de Dominicis%NULL%1,                Andrea%Laghi%andrea.laghi@uniroma1.it%1,               Damiano%Caruso%NULL%1,               Marta%Zerunian%NULL%1,               Michela%Polici%NULL%1,               Francesco%Pucciarelli%NULL%1,               Tiziano%Polidori%NULL%1,               Carlotta%Rucci%NULL%1,               Gisella%Guido%NULL%1,               Benedetta%Bracci%NULL%1,               Chiara%de Dominicis%NULL%1,               Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,                Yanyan%Tang%NULL%1,                Yongkang%Mo%NULL%1,                Shengkai%Li%NULL%1,                Daiying%Lin%NULL%1,                Zhijian%Yang%NULL%1,                Zhiqi%Yang%NULL%1,                Hongfu%Sun%NULL%1,                Jinming%Qiu%NULL%1,                Yuting%Liao%NULL%1,                Jianning%Xiao%NULL%1,                Xiangguang%Chen%NULL%1,                Xianheng%Wu%NULL%1,                Renhua%Wu%NULL%1,                Zhuozhi%Dai%zhuozhi@ualberta.ca%1,               Xiaofeng%Chen%NULL%1,               Yanyan%Tang%NULL%1,               Yongkang%Mo%NULL%1,               Shengkai%Li%NULL%1,               Daiying%Lin%NULL%1,               Zhijian%Yang%NULL%1,               Zhiqi%Yang%NULL%1,               Hongfu%Sun%NULL%1,               Jinming%Qiu%NULL%1,               Yuting%Liao%NULL%1,               Jianning%Xiao%NULL%1,               Xiangguang%Chen%NULL%1,               Xianheng%Wu%NULL%1,               Renhua%Wu%NULL%1,               Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,                Xiaolong%Qi%NULL%1,                Soon Ho%Yoon%yshoka@gmail.com%1,                Sang Joon%Park%NULL%1,                Kyung Hee%Lee%NULL%1,                Jin Yong%Kim%NULL%1,                Young Kyung%Lee%NULL%1,                Hongseok%Ko%NULL%1,                Ki Hwan%Kim%NULL%1,                Chang Min%Park%NULL%1,                Yun-Hyeon%Kim%NULL%1,                Junqiang%Lei%NULL%1,                Jung Hee%Hong%NULL%1,                Hyungjin%Kim%NULL%1,                Eui Jin%Hwang%NULL%1,                Seung Jin%Yoo%NULL%1,                Ju Gang%Nam%NULL%1,                Chang Hyun%Lee%NULL%1,                Jin Mo%Goo%NULL%1,               Hyewon%Choi%NULL%1,               Xiaolong%Qi%NULL%1,               Soon Ho%Yoon%yshoka@gmail.com%1,               Sang Joon%Park%NULL%1,               Kyung Hee%Lee%NULL%1,               Jin Yong%Kim%NULL%1,               Young Kyung%Lee%NULL%1,               Hongseok%Ko%NULL%1,               Ki Hwan%Kim%NULL%1,               Chang Min%Park%NULL%1,               Yun-Hyeon%Kim%NULL%1,               Junqiang%Lei%NULL%1,               Jung Hee%Hong%NULL%1,               Hyungjin%Kim%NULL%1,               Eui Jin%Hwang%NULL%1,               Seung Jin%Yoo%NULL%1,               Ju Gang%Nam%NULL%1,               Chang Hyun%Lee%NULL%1,               Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
+Materials and methods
+This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
+ Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
+Results
+All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
+ The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
+Conclusion
+Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
+Electronic supplementary material
+The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,                Akihiko%Sakata%NULL%1,                Mitsuhiro%Kirita%NULL%1,                Takashi%Hiroi%NULL%1,                Ken-ichiro%Kobayashi%NULL%1,                Kenji%Kubo%NULL%1,                Hyunjin%Kim%NULL%1,                Azusa%Nishimoto%NULL%1,                Chikara%Maeda%NULL%1,                Akira%Kawamura%NULL%1,                Nobuhiro%Komiya%NULL%1,                Shigeaki%Umeoka%NULL%1,               Yuki%Himoto%yukihimoto@gmail.com%1,               Akihiko%Sakata%NULL%1,               Mitsuhiro%Kirita%NULL%1,               Takashi%Hiroi%NULL%1,               Ken-ichiro%Kobayashi%NULL%1,               Kenji%Kubo%NULL%1,               Hyunjin%Kim%NULL%1,               Azusa%Nishimoto%NULL%1,               Chikara%Maeda%NULL%1,               Akira%Kawamura%NULL%1,               Nobuhiro%Komiya%NULL%1,               Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,                Huaxiang%Xu%NULL%1,                Qinglin%Shen%NULL%1,                Xianghai%Zhang%NULL%1,                Bing%Fan%26171381@qq.com%1,                Chuanhong%Wang%NULL%1,                Bingliang%Zeng%NULL%1,                Zicong%Li%NULL%1,                Xiaofen%Li%NULL%1,                Honglu%Li%NULL%1,               Chunqin%Long%NULL%1,               Huaxiang%Xu%NULL%1,               Qinglin%Shen%NULL%1,               Xianghai%Zhang%NULL%1,               Bing%Fan%26171381@qq.com%1,               Chuanhong%Wang%NULL%1,               Bingliang%Zeng%NULL%1,               Zicong%Li%NULL%1,               Xiaofen%Li%NULL%1,               Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,               Christopher%Gieraerts%NULL%1,               Yves%De Bruecker%NULL%1,               Lode%Janssen%NULL%1,               Hanne%Valgaeren%NULL%1,               Dagmar%Obbels%NULL%1,               Marc%Gillis%NULL%1,               Marc%Van Ranst%NULL%0,               Johan%Frans%NULL%1,               Annick%Demeyere%NULL%1,               Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,             Kai%Xie%NULL%0,             Kai%Xie%NULL%0,             Hui%Lu%NULL%0,             Lei%Xu%bayinhexl@126.com%0,             Shusheng%Zhou%zhouss108@163.com%0,             Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,             Christopher%Gieraerts%NULL%2,             Christopher%Gieraerts%NULL%0,             Yves%De Bruecker%NULL%2,             Yves%De Bruecker%NULL%0,             Lode%Janssen%NULL%2,             Lode%Janssen%NULL%0,             Hanne%Valgaeren%NULL%2,             Hanne%Valgaeren%NULL%0,             Dagmar%Obbels%NULL%2,             Dagmar%Obbels%NULL%0,             Marc%Gillis%NULL%2,             Marc%Gillis%NULL%0,             Marc%Van Ranst%NULL%0,             Marc%Van Ranst%NULL%0,             Johan%Frans%NULL%1,             Annick%Demeyere%NULL%2,             Annick%Demeyere%NULL%0,             Rolf%Symons%rolf.symons@imelda.be%2,             Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,          Christopher%Gieraerts%NULL%2,          Christopher%Gieraerts%NULL%0,          Yves%De Bruecker%NULL%2,          Yves%De Bruecker%NULL%0,          Lode%Janssen%NULL%2,          Lode%Janssen%NULL%0,          Hanne%Valgaeren%NULL%2,          Hanne%Valgaeren%NULL%0,          Dagmar%Obbels%NULL%2,          Dagmar%Obbels%NULL%0,          Marc%Gillis%NULL%2,          Marc%Gillis%NULL%0,          Marc%Van Ranst%NULL%2,          Marc%Van Ranst%NULL%0,          Johan%Frans%NULL%1,          Annick%Demeyere%NULL%2,          Annick%Demeyere%NULL%0,          Rolf%Symons%rolf.symons@imelda.be%2,          Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,                 Ben%Hsieh%NULL%1,                 Zeng%Xiong%NULL%1,                 Kasey%Halsey%NULL%1,                 Ji Whae%Choi%NULL%1,                 Thi My Linh%Tran%NULL%1,                 Ian%Pan%NULL%1,                 Lin-Bo%Shi%NULL%1,                 Dong-Cui%Wang%NULL%1,                 Ji%Mei%NULL%1,                 Xiao-Long%Jiang%NULL%1,                 Qiu-Hua%Zeng%NULL%1,                 Thomas K.%Egglin%NULL%1,                 Ping-Feng%Hu%NULL%1,                 Saurabh%Agarwal%NULL%1,                 Fangfang%Xie%NULL%1,                 Sha%Li%NULL%1,                 Terrance%Healey%NULL%1,                 Michael K.%Atalay%NULL%1,                 Wei-Hua%Liao%liaoweihua2017@163.com%1,                Harrison X.%Bai%NULL%1,                Ben%Hsieh%NULL%1,                Zeng%Xiong%NULL%1,                Kasey%Halsey%NULL%1,                Ji Whae%Choi%NULL%1,                Thi My Linh%Tran%NULL%1,                Ian%Pan%NULL%1,                Lin-Bo%Shi%NULL%1,                Dong-Cui%Wang%NULL%1,                Ji%Mei%NULL%1,                Xiao-Long%Jiang%NULL%1,                Qiu-Hua%Zeng%NULL%1,                Thomas K.%Egglin%NULL%1,                Ping-Feng%Hu%NULL%1,                Saurabh%Agarwal%NULL%1,                Fangfang%Xie%NULL%1,                Sha%Li%NULL%1,                Terrance%Healey%NULL%1,                Michael K.%Atalay%NULL%1,                Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,                 Marta%Zerunian%NULL%1,                 Michela%Polici%NULL%1,                 Francesco%Pucciarelli%NULL%1,                 Tiziano%Polidori%NULL%1,                 Carlotta%Rucci%NULL%1,                 Gisella%Guido%NULL%1,                 Benedetta%Bracci%NULL%1,                 Chiara%de Dominicis%NULL%1,                 Andrea%Laghi%andrea.laghi@uniroma1.it%1,                Damiano%Caruso%NULL%1,                Marta%Zerunian%NULL%1,                Michela%Polici%NULL%1,                Francesco%Pucciarelli%NULL%1,                Tiziano%Polidori%NULL%1,                Carlotta%Rucci%NULL%1,                Gisella%Guido%NULL%1,                Benedetta%Bracci%NULL%1,                Chiara%de Dominicis%NULL%1,                Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,                 Yanyan%Tang%NULL%1,                 Yongkang%Mo%NULL%1,                 Shengkai%Li%NULL%1,                 Daiying%Lin%NULL%1,                 Zhijian%Yang%NULL%1,                 Zhiqi%Yang%NULL%1,                 Hongfu%Sun%NULL%1,                 Jinming%Qiu%NULL%1,                 Yuting%Liao%NULL%1,                 Jianning%Xiao%NULL%1,                 Xiangguang%Chen%NULL%1,                 Xianheng%Wu%NULL%1,                 Renhua%Wu%NULL%1,                 Zhuozhi%Dai%zhuozhi@ualberta.ca%1,                Xiaofeng%Chen%NULL%1,                Yanyan%Tang%NULL%1,                Yongkang%Mo%NULL%1,                Shengkai%Li%NULL%1,                Daiying%Lin%NULL%1,                Zhijian%Yang%NULL%1,                Zhiqi%Yang%NULL%1,                Hongfu%Sun%NULL%1,                Jinming%Qiu%NULL%1,                Yuting%Liao%NULL%1,                Jianning%Xiao%NULL%1,                Xiangguang%Chen%NULL%1,                Xianheng%Wu%NULL%1,                Renhua%Wu%NULL%1,                Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,                 Xiaolong%Qi%NULL%1,                 Soon Ho%Yoon%yshoka@gmail.com%1,                 Sang Joon%Park%NULL%1,                 Kyung Hee%Lee%NULL%1,                 Jin Yong%Kim%NULL%1,                 Young Kyung%Lee%NULL%1,                 Hongseok%Ko%NULL%1,                 Ki Hwan%Kim%NULL%1,                 Chang Min%Park%NULL%1,                 Yun-Hyeon%Kim%NULL%1,                 Junqiang%Lei%NULL%1,                 Jung Hee%Hong%NULL%1,                 Hyungjin%Kim%NULL%1,                 Eui Jin%Hwang%NULL%1,                 Seung Jin%Yoo%NULL%1,                 Ju Gang%Nam%NULL%1,                 Chang Hyun%Lee%NULL%1,                 Jin Mo%Goo%NULL%1,                Hyewon%Choi%NULL%1,                Xiaolong%Qi%NULL%1,                Soon Ho%Yoon%yshoka@gmail.com%1,                Sang Joon%Park%NULL%1,                Kyung Hee%Lee%NULL%1,                Jin Yong%Kim%NULL%1,                Young Kyung%Lee%NULL%1,                Hongseok%Ko%NULL%1,                Ki Hwan%Kim%NULL%1,                Chang Min%Park%NULL%1,                Yun-Hyeon%Kim%NULL%1,                Junqiang%Lei%NULL%1,                Jung Hee%Hong%NULL%1,                Hyungjin%Kim%NULL%1,                Eui Jin%Hwang%NULL%1,                Seung Jin%Yoo%NULL%1,                Ju Gang%Nam%NULL%1,                Chang Hyun%Lee%NULL%1,                Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,                 Akihiko%Sakata%NULL%1,                 Mitsuhiro%Kirita%NULL%1,                 Takashi%Hiroi%NULL%1,                 Ken-ichiro%Kobayashi%NULL%1,                 Kenji%Kubo%NULL%1,                 Hyunjin%Kim%NULL%1,                 Azusa%Nishimoto%NULL%1,                 Chikara%Maeda%NULL%1,                 Akira%Kawamura%NULL%1,                 Nobuhiro%Komiya%NULL%1,                 Shigeaki%Umeoka%NULL%1,                Yuki%Himoto%yukihimoto@gmail.com%1,                Akihiko%Sakata%NULL%1,                Mitsuhiro%Kirita%NULL%1,                Takashi%Hiroi%NULL%1,                Ken-ichiro%Kobayashi%NULL%1,                Kenji%Kubo%NULL%1,                Hyunjin%Kim%NULL%1,                Azusa%Nishimoto%NULL%1,                Chikara%Maeda%NULL%1,                Akira%Kawamura%NULL%1,                Nobuhiro%Komiya%NULL%1,                Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,                 Huaxiang%Xu%NULL%1,                 Qinglin%Shen%NULL%1,                 Xianghai%Zhang%NULL%1,                 Bing%Fan%26171381@qq.com%1,                 Chuanhong%Wang%NULL%1,                 Bingliang%Zeng%NULL%1,                 Zicong%Li%NULL%1,                 Xiaofen%Li%NULL%1,                 Honglu%Li%NULL%1,                Chunqin%Long%NULL%1,                Huaxiang%Xu%NULL%1,                Qinglin%Shen%NULL%1,                Xianghai%Zhang%NULL%1,                Bing%Fan%26171381@qq.com%1,                Chuanhong%Wang%NULL%1,                Bingliang%Zeng%NULL%1,                Zicong%Li%NULL%1,                Xiaofen%Li%NULL%1,                Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,                Christopher%Gieraerts%NULL%1,                Yves%De Bruecker%NULL%1,                Lode%Janssen%NULL%1,                Hanne%Valgaeren%NULL%1,                Dagmar%Obbels%NULL%1,                Marc%Gillis%NULL%1,                Marc%Van Ranst%NULL%0,                Johan%Frans%NULL%1,                Annick%Demeyere%NULL%1,                Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,              Kai%Xie%NULL%0,              Kai%Xie%NULL%0,              Hui%Lu%NULL%0,              Lei%Xu%bayinhexl@126.com%0,              Shusheng%Zhou%zhouss108@163.com%0,              Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,              Christopher%Gieraerts%NULL%2,              Christopher%Gieraerts%NULL%0,              Yves%De Bruecker%NULL%2,              Yves%De Bruecker%NULL%0,              Lode%Janssen%NULL%2,              Lode%Janssen%NULL%0,              Hanne%Valgaeren%NULL%2,              Hanne%Valgaeren%NULL%0,              Dagmar%Obbels%NULL%2,              Dagmar%Obbels%NULL%0,              Marc%Gillis%NULL%2,              Marc%Gillis%NULL%0,              Marc%Van Ranst%NULL%0,              Marc%Van Ranst%NULL%0,              Johan%Frans%NULL%1,              Annick%Demeyere%NULL%2,              Annick%Demeyere%NULL%0,              Rolf%Symons%rolf.symons@imelda.be%2,              Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,           Christopher%Gieraerts%NULL%2,           Christopher%Gieraerts%NULL%0,           Yves%De Bruecker%NULL%2,           Yves%De Bruecker%NULL%0,           Lode%Janssen%NULL%2,           Lode%Janssen%NULL%0,           Hanne%Valgaeren%NULL%2,           Hanne%Valgaeren%NULL%0,           Dagmar%Obbels%NULL%2,           Dagmar%Obbels%NULL%0,           Marc%Gillis%NULL%2,           Marc%Gillis%NULL%0,           Marc%Van Ranst%NULL%2,           Marc%Van Ranst%NULL%0,           Johan%Frans%NULL%1,           Annick%Demeyere%NULL%2,           Annick%Demeyere%NULL%0,           Rolf%Symons%rolf.symons@imelda.be%2,           Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1117,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1074,7 +1175,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1100,10 +1201,10 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -1161,7 +1262,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -1187,10 +1288,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -1219,7 +1320,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -1248,7 +1349,7 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
         <v>96</v>
@@ -1277,7 +1378,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -1306,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -1335,7 +1436,7 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FAF730-05B5-400B-B00D-9CC30AA1C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F13885-E89C-4DC0-A3A1-554E3E16F1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="90" windowWidth="17220" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>Doi</t>
   </si>
@@ -31,16 +31,10 @@
     <t>10.1148/radiol.2020200823</t>
   </si>
   <si>
-    <t>10.1148/radiol.2020200642.</t>
-  </si>
-  <si>
     <t>10.1148/radiol.2020201237</t>
   </si>
   <si>
     <t>10.1007/s00330-020-06829-2</t>
-  </si>
-  <si>
-    <t>10.2214/AJR.20.22959.</t>
   </si>
   <si>
     <t>10.1148/ryct.2020200107</t>
@@ -217,33 +211,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Objectives
-id="Par1"&gt;Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-id="Par2"&gt;A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-id="Par3"&gt;Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-id="Par5"&gt;
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Purpose
 To study the extent of pulmonary involvement in coronavirus 19 (COVID-19) with quantitative CT and to assess the impact of disease burden on opacity visibility on chest radiographs.
 Materials and Methods
@@ -262,21 +229,6 @@
 Conclusion
 QCTmass varied among patients with COVID-19. Chest radiographs had high specificity for detecting lung opacities in COVID-19 but a low sensitivity.
  QCTmass and combined opacity volume were significant determinants of opacity visibility on radiographs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose
-id="Par1"&gt;To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
-Materials and methods
-id="Par2"&gt;This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
- Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
-Results
-id="Par3"&gt;All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
- The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
-Conclusion
-id="Par4"&gt;Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
-Electronic supplementary material
-The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
 </t>
   </si>
   <si>
@@ -329,379 +281,28 @@
 </t>
   </si>
   <si>
-    <t>[Harrison X.%Bai%NULL%2,    Ben%Hsieh%NULL%1,    Zeng%Xiong%NULL%1,    Kasey%Halsey%NULL%1,    Ji Whae%Choi%NULL%1,    Thi My Linh%Tran%NULL%1,    Ian%Pan%NULL%1,    Lin-Bo%Shi%NULL%1,    Dong-Cui%Wang%NULL%1,    Ji%Mei%NULL%1,    Xiao-Long%Jiang%NULL%1,    Qiu-Hua%Zeng%NULL%1,    Thomas K.%Egglin%NULL%1,    Ping-Feng%Hu%NULL%1,    Saurabh%Agarwal%NULL%1,    Fangfang%Xie%NULL%1,    Sha%Li%NULL%1,    Terrance%Healey%NULL%1,    Michael K.%Atalay%NULL%1,    Wei-Hua%Liao%liaoweihua2017@163.com%1,   Harrison X.%Bai%NULL%1,   Ben%Hsieh%NULL%1,   Zeng%Xiong%NULL%1,   Kasey%Halsey%NULL%1,   Ji Whae%Choi%NULL%1,   Thi My Linh%Tran%NULL%1,   Ian%Pan%NULL%1,   Lin-Bo%Shi%NULL%1,   Dong-Cui%Wang%NULL%1,   Ji%Mei%NULL%1,   Xiao-Long%Jiang%NULL%1,   Qiu-Hua%Zeng%NULL%1,   Thomas K.%Egglin%NULL%1,   Ping-Feng%Hu%NULL%1,   Saurabh%Agarwal%NULL%1,   Fangfang%Xie%NULL%1,   Sha%Li%NULL%1,   Terrance%Healey%NULL%1,   Michael K.%Atalay%NULL%1,   Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%1,    Marta%Zerunian%NULL%1,    Michela%Polici%NULL%1,    Francesco%Pucciarelli%NULL%1,    Tiziano%Polidori%NULL%1,    Carlotta%Rucci%NULL%1,    Gisella%Guido%NULL%1,    Benedetta%Bracci%NULL%1,    Chiara%de Dominicis%NULL%1,    Andrea%Laghi%andrea.laghi@uniroma1.it%1,   Damiano%Caruso%NULL%1,   Marta%Zerunian%NULL%1,   Michela%Polici%NULL%1,   Francesco%Pucciarelli%NULL%1,   Tiziano%Polidori%NULL%1,   Carlotta%Rucci%NULL%1,   Gisella%Guido%NULL%1,   Benedetta%Bracci%NULL%1,   Chiara%de Dominicis%NULL%1,   Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,    Yanyan%Tang%NULL%1,    Yongkang%Mo%NULL%1,    Shengkai%Li%NULL%1,    Daiying%Lin%NULL%1,    Zhijian%Yang%NULL%1,    Zhiqi%Yang%NULL%1,    Hongfu%Sun%NULL%1,    Jinming%Qiu%NULL%1,    Yuting%Liao%NULL%1,    Jianning%Xiao%NULL%1,    Xiangguang%Chen%NULL%1,    Xianheng%Wu%NULL%1,    Renhua%Wu%NULL%1,    Zhuozhi%Dai%zhuozhi@ualberta.ca%1,   Xiaofeng%Chen%NULL%1,   Yanyan%Tang%NULL%1,   Yongkang%Mo%NULL%1,   Shengkai%Li%NULL%1,   Daiying%Lin%NULL%1,   Zhijian%Yang%NULL%1,   Zhiqi%Yang%NULL%1,   Hongfu%Sun%NULL%1,   Jinming%Qiu%NULL%1,   Yuting%Liao%NULL%1,   Jianning%Xiao%NULL%1,   Xiangguang%Chen%NULL%1,   Xianheng%Wu%NULL%1,   Renhua%Wu%NULL%1,   Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,    Xiaolong%Qi%NULL%1,    Soon Ho%Yoon%yshoka@gmail.com%1,    Sang Joon%Park%NULL%1,    Kyung Hee%Lee%NULL%1,    Jin Yong%Kim%NULL%1,    Young Kyung%Lee%NULL%1,    Hongseok%Ko%NULL%1,    Ki Hwan%Kim%NULL%1,    Chang Min%Park%NULL%1,    Yun-Hyeon%Kim%NULL%1,    Junqiang%Lei%NULL%1,    Jung Hee%Hong%NULL%1,    Hyungjin%Kim%NULL%1,    Eui Jin%Hwang%NULL%1,    Seung Jin%Yoo%NULL%1,    Ju Gang%Nam%NULL%1,    Chang Hyun%Lee%NULL%1,    Jin Mo%Goo%NULL%1,   Hyewon%Choi%NULL%1,   Xiaolong%Qi%NULL%1,   Soon Ho%Yoon%yshoka@gmail.com%1,   Sang Joon%Park%NULL%1,   Kyung Hee%Lee%NULL%1,   Jin Yong%Kim%NULL%1,   Young Kyung%Lee%NULL%1,   Hongseok%Ko%NULL%1,   Ki Hwan%Kim%NULL%1,   Chang Min%Park%NULL%1,   Yun-Hyeon%Kim%NULL%1,   Junqiang%Lei%NULL%1,   Jung Hee%Hong%NULL%1,   Hyungjin%Kim%NULL%1,   Eui Jin%Hwang%NULL%1,   Seung Jin%Yoo%NULL%1,   Ju Gang%Nam%NULL%1,   Chang Hyun%Lee%NULL%1,   Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,    Akihiko%Sakata%NULL%1,    Mitsuhiro%Kirita%NULL%1,    Takashi%Hiroi%NULL%1,    Ken-ichiro%Kobayashi%NULL%1,    Kenji%Kubo%NULL%1,    Hyunjin%Kim%NULL%1,    Azusa%Nishimoto%NULL%1,    Chikara%Maeda%NULL%1,    Akira%Kawamura%NULL%1,    Nobuhiro%Komiya%NULL%1,    Shigeaki%Umeoka%NULL%1,   Yuki%Himoto%yukihimoto@gmail.com%1,   Akihiko%Sakata%NULL%1,   Mitsuhiro%Kirita%NULL%1,   Takashi%Hiroi%NULL%1,   Ken-ichiro%Kobayashi%NULL%1,   Kenji%Kubo%NULL%1,   Hyunjin%Kim%NULL%1,   Azusa%Nishimoto%NULL%1,   Chikara%Maeda%NULL%1,   Akira%Kawamura%NULL%1,   Nobuhiro%Komiya%NULL%1,   Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,    Huaxiang%Xu%NULL%1,    Qinglin%Shen%NULL%1,    Xianghai%Zhang%NULL%1,    Bing%Fan%26171381@qq.com%1,    Chuanhong%Wang%NULL%1,    Bingliang%Zeng%NULL%1,    Zicong%Li%NULL%1,    Xiaofen%Li%NULL%1,    Honglu%Li%NULL%1,   Chunqin%Long%NULL%1,   Huaxiang%Xu%NULL%1,   Qinglin%Shen%NULL%1,   Xianghai%Zhang%NULL%1,   Bing%Fan%26171381@qq.com%1,   Chuanhong%Wang%NULL%1,   Bingliang%Zeng%NULL%1,   Zicong%Li%NULL%1,   Xiaofen%Li%NULL%1,   Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,   Christopher%Gieraerts%NULL%0,   Yves%De Bruecker%NULL%0,   Lode%Janssen%NULL%0,   Hanne%Valgaeren%NULL%0,   Dagmar%Obbels%NULL%0,   Marc%Gillis%NULL%0,   Marc%Van Ranst%NULL%0,   Johan%Frans%NULL%0,   Annick%Demeyere%NULL%0,   Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0, Kai%Xie%NULL%2, Kai%Xie%NULL%0, Hui%Lu%NULL%1, Lei%Xu%bayinhexl@126.com%1, Shusheng%Zhou%zhouss108@163.com%1, Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0, Christopher%Gieraerts%NULL%2, Christopher%Gieraerts%NULL%0, Yves%De Bruecker%NULL%2, Yves%De Bruecker%NULL%0, Lode%Janssen%NULL%2, Lode%Janssen%NULL%0, Hanne%Valgaeren%NULL%2, Hanne%Valgaeren%NULL%0, Dagmar%Obbels%NULL%2, Dagmar%Obbels%NULL%0, Marc%Gillis%NULL%2, Marc%Gillis%NULL%0, Marc%Van Ranst%NULL%2, Marc%Van Ranst%NULL%0, Johan%Frans%NULL%1, Annick%Demeyere%NULL%2, Annick%Demeyere%NULL%0, Rolf%Symons%rolf.symons@imelda.be%2, Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
     <t>10.1016/j.ajem.2020.04.051</t>
   </si>
   <si>
-    <t>[Harrison X.%Bai%NULL%2,     Ben%Hsieh%NULL%1,     Zeng%Xiong%NULL%1,     Kasey%Halsey%NULL%1,     Ji Whae%Choi%NULL%1,     Thi My Linh%Tran%NULL%1,     Ian%Pan%NULL%1,     Lin-Bo%Shi%NULL%1,     Dong-Cui%Wang%NULL%1,     Ji%Mei%NULL%1,     Xiao-Long%Jiang%NULL%1,     Qiu-Hua%Zeng%NULL%1,     Thomas K.%Egglin%NULL%1,     Ping-Feng%Hu%NULL%1,     Saurabh%Agarwal%NULL%1,     Fangfang%Xie%NULL%1,     Sha%Li%NULL%1,     Terrance%Healey%NULL%1,     Michael K.%Atalay%NULL%1,     Wei-Hua%Liao%liaoweihua2017@163.com%1,    Harrison X.%Bai%NULL%1,    Ben%Hsieh%NULL%1,    Zeng%Xiong%NULL%1,    Kasey%Halsey%NULL%1,    Ji Whae%Choi%NULL%1,    Thi My Linh%Tran%NULL%1,    Ian%Pan%NULL%1,    Lin-Bo%Shi%NULL%1,    Dong-Cui%Wang%NULL%1,    Ji%Mei%NULL%1,    Xiao-Long%Jiang%NULL%1,    Qiu-Hua%Zeng%NULL%1,    Thomas K.%Egglin%NULL%1,    Ping-Feng%Hu%NULL%1,    Saurabh%Agarwal%NULL%1,    Fangfang%Xie%NULL%1,    Sha%Li%NULL%1,    Terrance%Healey%NULL%1,    Michael K.%Atalay%NULL%1,    Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%1,     Marta%Zerunian%NULL%1,     Michela%Polici%NULL%1,     Francesco%Pucciarelli%NULL%1,     Tiziano%Polidori%NULL%1,     Carlotta%Rucci%NULL%1,     Gisella%Guido%NULL%1,     Benedetta%Bracci%NULL%1,     Chiara%de Dominicis%NULL%1,     Andrea%Laghi%andrea.laghi@uniroma1.it%1,    Damiano%Caruso%NULL%1,    Marta%Zerunian%NULL%1,    Michela%Polici%NULL%1,    Francesco%Pucciarelli%NULL%1,    Tiziano%Polidori%NULL%1,    Carlotta%Rucci%NULL%1,    Gisella%Guido%NULL%1,    Benedetta%Bracci%NULL%1,    Chiara%de Dominicis%NULL%1,    Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,     Yanyan%Tang%NULL%1,     Yongkang%Mo%NULL%1,     Shengkai%Li%NULL%1,     Daiying%Lin%NULL%1,     Zhijian%Yang%NULL%1,     Zhiqi%Yang%NULL%1,     Hongfu%Sun%NULL%1,     Jinming%Qiu%NULL%1,     Yuting%Liao%NULL%1,     Jianning%Xiao%NULL%1,     Xiangguang%Chen%NULL%1,     Xianheng%Wu%NULL%1,     Renhua%Wu%NULL%1,     Zhuozhi%Dai%zhuozhi@ualberta.ca%1,    Xiaofeng%Chen%NULL%1,    Yanyan%Tang%NULL%1,    Yongkang%Mo%NULL%1,    Shengkai%Li%NULL%1,    Daiying%Lin%NULL%1,    Zhijian%Yang%NULL%1,    Zhiqi%Yang%NULL%1,    Hongfu%Sun%NULL%1,    Jinming%Qiu%NULL%1,    Yuting%Liao%NULL%1,    Jianning%Xiao%NULL%1,    Xiangguang%Chen%NULL%1,    Xianheng%Wu%NULL%1,    Renhua%Wu%NULL%1,    Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,     Xiaolong%Qi%NULL%1,     Soon Ho%Yoon%yshoka@gmail.com%1,     Sang Joon%Park%NULL%1,     Kyung Hee%Lee%NULL%1,     Jin Yong%Kim%NULL%1,     Young Kyung%Lee%NULL%1,     Hongseok%Ko%NULL%1,     Ki Hwan%Kim%NULL%1,     Chang Min%Park%NULL%1,     Yun-Hyeon%Kim%NULL%1,     Junqiang%Lei%NULL%1,     Jung Hee%Hong%NULL%1,     Hyungjin%Kim%NULL%1,     Eui Jin%Hwang%NULL%1,     Seung Jin%Yoo%NULL%1,     Ju Gang%Nam%NULL%1,     Chang Hyun%Lee%NULL%1,     Jin Mo%Goo%NULL%1,    Hyewon%Choi%NULL%1,    Xiaolong%Qi%NULL%1,    Soon Ho%Yoon%yshoka@gmail.com%1,    Sang Joon%Park%NULL%1,    Kyung Hee%Lee%NULL%1,    Jin Yong%Kim%NULL%1,    Young Kyung%Lee%NULL%1,    Hongseok%Ko%NULL%1,    Ki Hwan%Kim%NULL%1,    Chang Min%Park%NULL%1,    Yun-Hyeon%Kim%NULL%1,    Junqiang%Lei%NULL%1,    Jung Hee%Hong%NULL%1,    Hyungjin%Kim%NULL%1,    Eui Jin%Hwang%NULL%1,    Seung Jin%Yoo%NULL%1,    Ju Gang%Nam%NULL%1,    Chang Hyun%Lee%NULL%1,    Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,     Akihiko%Sakata%NULL%1,     Mitsuhiro%Kirita%NULL%1,     Takashi%Hiroi%NULL%1,     Ken-ichiro%Kobayashi%NULL%1,     Kenji%Kubo%NULL%1,     Hyunjin%Kim%NULL%1,     Azusa%Nishimoto%NULL%1,     Chikara%Maeda%NULL%1,     Akira%Kawamura%NULL%1,     Nobuhiro%Komiya%NULL%1,     Shigeaki%Umeoka%NULL%1,    Yuki%Himoto%yukihimoto@gmail.com%1,    Akihiko%Sakata%NULL%1,    Mitsuhiro%Kirita%NULL%1,    Takashi%Hiroi%NULL%1,    Ken-ichiro%Kobayashi%NULL%1,    Kenji%Kubo%NULL%1,    Hyunjin%Kim%NULL%1,    Azusa%Nishimoto%NULL%1,    Chikara%Maeda%NULL%1,    Akira%Kawamura%NULL%1,    Nobuhiro%Komiya%NULL%1,    Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,     Huaxiang%Xu%NULL%1,     Qinglin%Shen%NULL%1,     Xianghai%Zhang%NULL%1,     Bing%Fan%26171381@qq.com%1,     Chuanhong%Wang%NULL%1,     Bingliang%Zeng%NULL%1,     Zicong%Li%NULL%1,     Xiaofen%Li%NULL%1,     Honglu%Li%NULL%1,    Chunqin%Long%NULL%1,    Huaxiang%Xu%NULL%1,    Qinglin%Shen%NULL%1,    Xianghai%Zhang%NULL%1,    Bing%Fan%26171381@qq.com%1,    Chuanhong%Wang%NULL%1,    Bingliang%Zeng%NULL%1,    Zicong%Li%NULL%1,    Xiaofen%Li%NULL%1,    Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%3,    Christopher%Gieraerts%NULL%1,    Yves%De Bruecker%NULL%1,    Lode%Janssen%NULL%1,    Hanne%Valgaeren%NULL%1,    Dagmar%Obbels%NULL%1,    Marc%Gillis%NULL%1,    Marc%Van Ranst%NULL%0,    Johan%Frans%NULL%1,    Annick%Demeyere%NULL%1,    Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,  Kai%Xie%NULL%5,  Kai%Xie%NULL%0,  Hui%Lu%NULL%3,  Lei%Xu%bayinhexl@126.com%4,  Shusheng%Zhou%zhouss108@163.com%3,  Shiyuan%Fang%fangshiyuan2008@126.com%3]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,  Christopher%Gieraerts%NULL%4,  Christopher%Gieraerts%NULL%0,  Yves%De Bruecker%NULL%4,  Yves%De Bruecker%NULL%0,  Lode%Janssen%NULL%4,  Lode%Janssen%NULL%0,  Hanne%Valgaeren%NULL%4,  Hanne%Valgaeren%NULL%0,  Dagmar%Obbels%NULL%4,  Dagmar%Obbels%NULL%0,  Marc%Gillis%NULL%4,  Marc%Gillis%NULL%0,  Marc%Van Ranst%NULL%4,  Marc%Van Ranst%NULL%0,  Johan%Frans%NULL%3,  Annick%Demeyere%NULL%4,  Annick%Demeyere%NULL%0,  Rolf%Symons%rolf.symons@imelda.be%5,  Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Harrison X.%Bai%NULL%2,      Ben%Hsieh%NULL%1,      Zeng%Xiong%NULL%1,      Kasey%Halsey%NULL%1,      Ji Whae%Choi%NULL%1,      Thi My Linh%Tran%NULL%1,      Ian%Pan%NULL%1,      Lin-Bo%Shi%NULL%1,      Dong-Cui%Wang%NULL%1,      Ji%Mei%NULL%1,      Xiao-Long%Jiang%NULL%1,      Qiu-Hua%Zeng%NULL%1,      Thomas K.%Egglin%NULL%1,      Ping-Feng%Hu%NULL%1,      Saurabh%Agarwal%NULL%1,      Fangfang%Xie%NULL%1,      Sha%Li%NULL%1,      Terrance%Healey%NULL%1,      Michael K.%Atalay%NULL%1,      Wei-Hua%Liao%liaoweihua2017@163.com%1,     Harrison X.%Bai%NULL%1,     Ben%Hsieh%NULL%1,     Zeng%Xiong%NULL%1,     Kasey%Halsey%NULL%1,     Ji Whae%Choi%NULL%1,     Thi My Linh%Tran%NULL%1,     Ian%Pan%NULL%1,     Lin-Bo%Shi%NULL%1,     Dong-Cui%Wang%NULL%1,     Ji%Mei%NULL%1,     Xiao-Long%Jiang%NULL%1,     Qiu-Hua%Zeng%NULL%1,     Thomas K.%Egglin%NULL%1,     Ping-Feng%Hu%NULL%1,     Saurabh%Agarwal%NULL%1,     Fangfang%Xie%NULL%1,     Sha%Li%NULL%1,     Terrance%Healey%NULL%1,     Michael K.%Atalay%NULL%1,     Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%1,      Marta%Zerunian%NULL%1,      Michela%Polici%NULL%1,      Francesco%Pucciarelli%NULL%1,      Tiziano%Polidori%NULL%1,      Carlotta%Rucci%NULL%1,      Gisella%Guido%NULL%1,      Benedetta%Bracci%NULL%1,      Chiara%de Dominicis%NULL%1,      Andrea%Laghi%andrea.laghi@uniroma1.it%1,     Damiano%Caruso%NULL%1,     Marta%Zerunian%NULL%1,     Michela%Polici%NULL%1,     Francesco%Pucciarelli%NULL%1,     Tiziano%Polidori%NULL%1,     Carlotta%Rucci%NULL%1,     Gisella%Guido%NULL%1,     Benedetta%Bracci%NULL%1,     Chiara%de Dominicis%NULL%1,     Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,      Yanyan%Tang%NULL%1,      Yongkang%Mo%NULL%1,      Shengkai%Li%NULL%1,      Daiying%Lin%NULL%1,      Zhijian%Yang%NULL%1,      Zhiqi%Yang%NULL%1,      Hongfu%Sun%NULL%1,      Jinming%Qiu%NULL%1,      Yuting%Liao%NULL%1,      Jianning%Xiao%NULL%1,      Xiangguang%Chen%NULL%1,      Xianheng%Wu%NULL%1,      Renhua%Wu%NULL%1,      Zhuozhi%Dai%zhuozhi@ualberta.ca%1,     Xiaofeng%Chen%NULL%1,     Yanyan%Tang%NULL%1,     Yongkang%Mo%NULL%1,     Shengkai%Li%NULL%1,     Daiying%Lin%NULL%1,     Zhijian%Yang%NULL%1,     Zhiqi%Yang%NULL%1,     Hongfu%Sun%NULL%1,     Jinming%Qiu%NULL%1,     Yuting%Liao%NULL%1,     Jianning%Xiao%NULL%1,     Xiangguang%Chen%NULL%1,     Xianheng%Wu%NULL%1,     Renhua%Wu%NULL%1,     Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,      Xiaolong%Qi%NULL%1,      Soon Ho%Yoon%yshoka@gmail.com%1,      Sang Joon%Park%NULL%1,      Kyung Hee%Lee%NULL%1,      Jin Yong%Kim%NULL%1,      Young Kyung%Lee%NULL%1,      Hongseok%Ko%NULL%1,      Ki Hwan%Kim%NULL%1,      Chang Min%Park%NULL%1,      Yun-Hyeon%Kim%NULL%1,      Junqiang%Lei%NULL%1,      Jung Hee%Hong%NULL%1,      Hyungjin%Kim%NULL%1,      Eui Jin%Hwang%NULL%1,      Seung Jin%Yoo%NULL%1,      Ju Gang%Nam%NULL%1,      Chang Hyun%Lee%NULL%1,      Jin Mo%Goo%NULL%1,     Hyewon%Choi%NULL%1,     Xiaolong%Qi%NULL%1,     Soon Ho%Yoon%yshoka@gmail.com%1,     Sang Joon%Park%NULL%1,     Kyung Hee%Lee%NULL%1,     Jin Yong%Kim%NULL%1,     Young Kyung%Lee%NULL%1,     Hongseok%Ko%NULL%1,     Ki Hwan%Kim%NULL%1,     Chang Min%Park%NULL%1,     Yun-Hyeon%Kim%NULL%1,     Junqiang%Lei%NULL%1,     Jung Hee%Hong%NULL%1,     Hyungjin%Kim%NULL%1,     Eui Jin%Hwang%NULL%1,     Seung Jin%Yoo%NULL%1,     Ju Gang%Nam%NULL%1,     Chang Hyun%Lee%NULL%1,     Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,      Akihiko%Sakata%NULL%1,      Mitsuhiro%Kirita%NULL%1,      Takashi%Hiroi%NULL%1,      Ken-ichiro%Kobayashi%NULL%1,      Kenji%Kubo%NULL%1,      Hyunjin%Kim%NULL%1,      Azusa%Nishimoto%NULL%1,      Chikara%Maeda%NULL%1,      Akira%Kawamura%NULL%1,      Nobuhiro%Komiya%NULL%1,      Shigeaki%Umeoka%NULL%1,     Yuki%Himoto%yukihimoto@gmail.com%1,     Akihiko%Sakata%NULL%1,     Mitsuhiro%Kirita%NULL%1,     Takashi%Hiroi%NULL%1,     Ken-ichiro%Kobayashi%NULL%1,     Kenji%Kubo%NULL%1,     Hyunjin%Kim%NULL%1,     Azusa%Nishimoto%NULL%1,     Chikara%Maeda%NULL%1,     Akira%Kawamura%NULL%1,     Nobuhiro%Komiya%NULL%1,     Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,      Huaxiang%Xu%NULL%1,      Qinglin%Shen%NULL%1,      Xianghai%Zhang%NULL%1,      Bing%Fan%26171381@qq.com%1,      Chuanhong%Wang%NULL%1,      Bingliang%Zeng%NULL%1,      Zicong%Li%NULL%1,      Xiaofen%Li%NULL%1,      Honglu%Li%NULL%1,     Chunqin%Long%NULL%1,     Huaxiang%Xu%NULL%1,     Qinglin%Shen%NULL%1,     Xianghai%Zhang%NULL%1,     Bing%Fan%26171381@qq.com%1,     Chuanhong%Wang%NULL%1,     Bingliang%Zeng%NULL%1,     Zicong%Li%NULL%1,     Xiaofen%Li%NULL%1,     Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%3,     Christopher%Gieraerts%NULL%1,     Yves%De Bruecker%NULL%1,     Lode%Janssen%NULL%1,     Hanne%Valgaeren%NULL%1,     Dagmar%Obbels%NULL%1,     Marc%Gillis%NULL%1,     Marc%Van Ranst%NULL%0,     Johan%Frans%NULL%1,     Annick%Demeyere%NULL%1,     Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,   Kai%Xie%NULL%2,   Kai%Xie%NULL%0,   Hui%Lu%NULL%1,   Lei%Xu%bayinhexl@126.com%1,   Shusheng%Zhou%zhouss108@163.com%1,   Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,   Christopher%Gieraerts%NULL%2,   Christopher%Gieraerts%NULL%0,   Yves%De Bruecker%NULL%2,   Yves%De Bruecker%NULL%0,   Lode%Janssen%NULL%2,   Lode%Janssen%NULL%0,   Hanne%Valgaeren%NULL%2,   Hanne%Valgaeren%NULL%0,   Dagmar%Obbels%NULL%2,   Dagmar%Obbels%NULL%0,   Marc%Gillis%NULL%2,   Marc%Gillis%NULL%0,   Marc%Van Ranst%NULL%2,   Marc%Van Ranst%NULL%0,   Johan%Frans%NULL%1,   Annick%Demeyere%NULL%2,   Annick%Demeyere%NULL%0,   Rolf%Symons%rolf.symons@imelda.be%2,   Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
-    <t>[Harrison X.%Bai%NULL%2,       Ben%Hsieh%NULL%1,       Zeng%Xiong%NULL%1,       Kasey%Halsey%NULL%1,       Ji Whae%Choi%NULL%1,       Thi My Linh%Tran%NULL%1,       Ian%Pan%NULL%1,       Lin-Bo%Shi%NULL%1,       Dong-Cui%Wang%NULL%1,       Ji%Mei%NULL%1,       Xiao-Long%Jiang%NULL%1,       Qiu-Hua%Zeng%NULL%1,       Thomas K.%Egglin%NULL%1,       Ping-Feng%Hu%NULL%1,       Saurabh%Agarwal%NULL%1,       Fangfang%Xie%NULL%1,       Sha%Li%NULL%1,       Terrance%Healey%NULL%1,       Michael K.%Atalay%NULL%1,       Wei-Hua%Liao%liaoweihua2017@163.com%1,      Harrison X.%Bai%NULL%1,      Ben%Hsieh%NULL%1,      Zeng%Xiong%NULL%1,      Kasey%Halsey%NULL%1,      Ji Whae%Choi%NULL%1,      Thi My Linh%Tran%NULL%1,      Ian%Pan%NULL%1,      Lin-Bo%Shi%NULL%1,      Dong-Cui%Wang%NULL%1,      Ji%Mei%NULL%1,      Xiao-Long%Jiang%NULL%1,      Qiu-Hua%Zeng%NULL%1,      Thomas K.%Egglin%NULL%1,      Ping-Feng%Hu%NULL%1,      Saurabh%Agarwal%NULL%1,      Fangfang%Xie%NULL%1,      Sha%Li%NULL%1,      Terrance%Healey%NULL%1,      Michael K.%Atalay%NULL%1,      Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>[Damiano%Caruso%NULL%2,       Marta%Zerunian%NULL%1,       Michela%Polici%NULL%1,       Francesco%Pucciarelli%NULL%1,       Tiziano%Polidori%NULL%1,       Carlotta%Rucci%NULL%1,       Gisella%Guido%NULL%1,       Benedetta%Bracci%NULL%1,       Chiara%de Dominicis%NULL%1,       Andrea%Laghi%andrea.laghi@uniroma1.it%1,      Damiano%Caruso%NULL%1,      Marta%Zerunian%NULL%1,      Michela%Polici%NULL%1,      Francesco%Pucciarelli%NULL%1,      Tiziano%Polidori%NULL%1,      Carlotta%Rucci%NULL%1,      Gisella%Guido%NULL%1,      Benedetta%Bracci%NULL%1,      Chiara%de Dominicis%NULL%1,      Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,       Yanyan%Tang%NULL%1,       Yongkang%Mo%NULL%1,       Shengkai%Li%NULL%1,       Daiying%Lin%NULL%1,       Zhijian%Yang%NULL%1,       Zhiqi%Yang%NULL%1,       Hongfu%Sun%NULL%1,       Jinming%Qiu%NULL%1,       Yuting%Liao%NULL%1,       Jianning%Xiao%NULL%1,       Xiangguang%Chen%NULL%1,       Xianheng%Wu%NULL%1,       Renhua%Wu%NULL%1,       Zhuozhi%Dai%zhuozhi@ualberta.ca%1,      Xiaofeng%Chen%NULL%1,      Yanyan%Tang%NULL%1,      Yongkang%Mo%NULL%1,      Shengkai%Li%NULL%1,      Daiying%Lin%NULL%1,      Zhijian%Yang%NULL%1,      Zhiqi%Yang%NULL%1,      Hongfu%Sun%NULL%1,      Jinming%Qiu%NULL%1,      Yuting%Liao%NULL%1,      Jianning%Xiao%NULL%1,      Xiangguang%Chen%NULL%1,      Xianheng%Wu%NULL%1,      Renhua%Wu%NULL%1,      Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
     <t>_PMC_Springer</t>
   </si>
   <si>
-    <t>[Hyewon%Choi%NULL%2,       Xiaolong%Qi%NULL%1,       Soon Ho%Yoon%yshoka@gmail.com%1,       Sang Joon%Park%NULL%1,       Kyung Hee%Lee%NULL%1,       Jin Yong%Kim%NULL%1,       Young Kyung%Lee%NULL%1,       Hongseok%Ko%NULL%1,       Ki Hwan%Kim%NULL%1,       Chang Min%Park%NULL%1,       Yun-Hyeon%Kim%NULL%1,       Junqiang%Lei%NULL%1,       Jung Hee%Hong%NULL%1,       Hyungjin%Kim%NULL%1,       Eui Jin%Hwang%NULL%1,       Seung Jin%Yoo%NULL%1,       Ju Gang%Nam%NULL%1,       Chang Hyun%Lee%NULL%1,       Jin Mo%Goo%NULL%1,      Hyewon%Choi%NULL%1,      Xiaolong%Qi%NULL%1,      Soon Ho%Yoon%yshoka@gmail.com%1,      Sang Joon%Park%NULL%1,      Kyung Hee%Lee%NULL%1,      Jin Yong%Kim%NULL%1,      Young Kyung%Lee%NULL%1,      Hongseok%Ko%NULL%1,      Ki Hwan%Kim%NULL%1,      Chang Min%Park%NULL%1,      Yun-Hyeon%Kim%NULL%1,      Junqiang%Lei%NULL%1,      Jung Hee%Hong%NULL%1,      Hyungjin%Kim%NULL%1,      Eui Jin%Hwang%NULL%1,      Seung Jin%Yoo%NULL%1,      Ju Gang%Nam%NULL%1,      Chang Hyun%Lee%NULL%1,      Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,       Akihiko%Sakata%NULL%1,       Mitsuhiro%Kirita%NULL%1,       Takashi%Hiroi%NULL%1,       Ken-ichiro%Kobayashi%NULL%1,       Kenji%Kubo%NULL%1,       Hyunjin%Kim%NULL%1,       Azusa%Nishimoto%NULL%1,       Chikara%Maeda%NULL%1,       Akira%Kawamura%NULL%1,       Nobuhiro%Komiya%NULL%1,       Shigeaki%Umeoka%NULL%1,      Yuki%Himoto%yukihimoto@gmail.com%1,      Akihiko%Sakata%NULL%1,      Mitsuhiro%Kirita%NULL%1,      Takashi%Hiroi%NULL%1,      Ken-ichiro%Kobayashi%NULL%1,      Kenji%Kubo%NULL%1,      Hyunjin%Kim%NULL%1,      Azusa%Nishimoto%NULL%1,      Chikara%Maeda%NULL%1,      Akira%Kawamura%NULL%1,      Nobuhiro%Komiya%NULL%1,      Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,       Huaxiang%Xu%NULL%1,       Qinglin%Shen%NULL%1,       Xianghai%Zhang%NULL%1,       Bing%Fan%26171381@qq.com%1,       Chuanhong%Wang%NULL%1,       Bingliang%Zeng%NULL%1,       Zicong%Li%NULL%1,       Xiaofen%Li%NULL%1,       Honglu%Li%NULL%1,      Chunqin%Long%NULL%1,      Huaxiang%Xu%NULL%1,      Qinglin%Shen%NULL%1,      Xianghai%Zhang%NULL%1,      Bing%Fan%26171381@qq.com%1,      Chuanhong%Wang%NULL%1,      Bingliang%Zeng%NULL%1,      Zicong%Li%NULL%1,      Xiaofen%Li%NULL%1,      Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
     <t>_PMC_elsevier</t>
   </si>
   <si>
-    <t>[Anthony%Dangis%NULL%4,      Christopher%Gieraerts%NULL%1,      Yves%De Bruecker%NULL%1,      Lode%Janssen%NULL%1,      Hanne%Valgaeren%NULL%1,      Dagmar%Obbels%NULL%1,      Marc%Gillis%NULL%1,      Marc%Van Ranst%NULL%0,      Johan%Frans%NULL%1,      Annick%Demeyere%NULL%1,      Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
     <t>PMC7166306</t>
   </si>
   <si>
-    <t>[Wanbo%Zhu%NULL%0,    Kai%Xie%NULL%0,    Kai%Xie%NULL%0,    Hui%Lu%NULL%0,    Lei%Xu%bayinhexl@126.com%0,    Shusheng%Zhou%zhouss108@163.com%0,    Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
-  </si>
-  <si>
     <t>PMC7194021</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,    Christopher%Gieraerts%NULL%2,    Christopher%Gieraerts%NULL%0,    Yves%De Bruecker%NULL%2,    Yves%De Bruecker%NULL%0,    Lode%Janssen%NULL%2,    Lode%Janssen%NULL%0,    Hanne%Valgaeren%NULL%2,    Hanne%Valgaeren%NULL%0,    Dagmar%Obbels%NULL%2,    Dagmar%Obbels%NULL%0,    Marc%Gillis%NULL%2,    Marc%Gillis%NULL%0,    Marc%Van Ranst%NULL%0,    Marc%Van Ranst%NULL%0,    Johan%Frans%NULL%1,    Annick%Demeyere%NULL%2,    Annick%Demeyere%NULL%0,    Rolf%Symons%rolf.symons@imelda.be%2,    Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Harrison X.%Bai%NULL%2,        Ben%Hsieh%NULL%1,        Zeng%Xiong%NULL%1,        Kasey%Halsey%NULL%1,        Ji Whae%Choi%NULL%1,        Thi My Linh%Tran%NULL%1,        Ian%Pan%NULL%1,        Lin-Bo%Shi%NULL%1,        Dong-Cui%Wang%NULL%1,        Ji%Mei%NULL%1,        Xiao-Long%Jiang%NULL%1,        Qiu-Hua%Zeng%NULL%1,        Thomas K.%Egglin%NULL%1,        Ping-Feng%Hu%NULL%1,        Saurabh%Agarwal%NULL%1,        Fangfang%Xie%NULL%1,        Sha%Li%NULL%1,        Terrance%Healey%NULL%1,        Michael K.%Atalay%NULL%1,        Wei-Hua%Liao%liaoweihua2017@163.com%1,       Harrison X.%Bai%NULL%1,       Ben%Hsieh%NULL%1,       Zeng%Xiong%NULL%1,       Kasey%Halsey%NULL%1,       Ji Whae%Choi%NULL%1,       Thi My Linh%Tran%NULL%1,       Ian%Pan%NULL%1,       Lin-Bo%Shi%NULL%1,       Dong-Cui%Wang%NULL%1,       Ji%Mei%NULL%1,       Xiao-Long%Jiang%NULL%1,       Qiu-Hua%Zeng%NULL%1,       Thomas K.%Egglin%NULL%1,       Ping-Feng%Hu%NULL%1,       Saurabh%Agarwal%NULL%1,       Fangfang%Xie%NULL%1,       Sha%Li%NULL%1,       Terrance%Healey%NULL%1,       Michael K.%Atalay%NULL%1,       Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%2,        Marta%Zerunian%NULL%1,        Michela%Polici%NULL%1,        Francesco%Pucciarelli%NULL%1,        Tiziano%Polidori%NULL%1,        Carlotta%Rucci%NULL%1,        Gisella%Guido%NULL%1,        Benedetta%Bracci%NULL%1,        Chiara%de Dominicis%NULL%1,        Andrea%Laghi%andrea.laghi@uniroma1.it%1,       Damiano%Caruso%NULL%1,       Marta%Zerunian%NULL%1,       Michela%Polici%NULL%1,       Francesco%Pucciarelli%NULL%1,       Tiziano%Polidori%NULL%1,       Carlotta%Rucci%NULL%1,       Gisella%Guido%NULL%1,       Benedetta%Bracci%NULL%1,       Chiara%de Dominicis%NULL%1,       Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,        Yanyan%Tang%NULL%1,        Yongkang%Mo%NULL%1,        Shengkai%Li%NULL%1,        Daiying%Lin%NULL%1,        Zhijian%Yang%NULL%1,        Zhiqi%Yang%NULL%1,        Hongfu%Sun%NULL%1,        Jinming%Qiu%NULL%1,        Yuting%Liao%NULL%1,        Jianning%Xiao%NULL%1,        Xiangguang%Chen%NULL%1,        Xianheng%Wu%NULL%1,        Renhua%Wu%NULL%1,        Zhuozhi%Dai%zhuozhi@ualberta.ca%1,       Xiaofeng%Chen%NULL%1,       Yanyan%Tang%NULL%1,       Yongkang%Mo%NULL%1,       Shengkai%Li%NULL%1,       Daiying%Lin%NULL%1,       Zhijian%Yang%NULL%1,       Zhiqi%Yang%NULL%1,       Hongfu%Sun%NULL%1,       Jinming%Qiu%NULL%1,       Yuting%Liao%NULL%1,       Jianning%Xiao%NULL%1,       Xiangguang%Chen%NULL%1,       Xianheng%Wu%NULL%1,       Renhua%Wu%NULL%1,       Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,        Xiaolong%Qi%NULL%1,        Soon Ho%Yoon%yshoka@gmail.com%1,        Sang Joon%Park%NULL%1,        Kyung Hee%Lee%NULL%1,        Jin Yong%Kim%NULL%1,        Young Kyung%Lee%NULL%1,        Hongseok%Ko%NULL%1,        Ki Hwan%Kim%NULL%1,        Chang Min%Park%NULL%1,        Yun-Hyeon%Kim%NULL%1,        Junqiang%Lei%NULL%1,        Jung Hee%Hong%NULL%1,        Hyungjin%Kim%NULL%1,        Eui Jin%Hwang%NULL%1,        Seung Jin%Yoo%NULL%1,        Ju Gang%Nam%NULL%1,        Chang Hyun%Lee%NULL%1,        Jin Mo%Goo%NULL%1,       Hyewon%Choi%NULL%1,       Xiaolong%Qi%NULL%1,       Soon Ho%Yoon%yshoka@gmail.com%1,       Sang Joon%Park%NULL%1,       Kyung Hee%Lee%NULL%1,       Jin Yong%Kim%NULL%1,       Young Kyung%Lee%NULL%1,       Hongseok%Ko%NULL%1,       Ki Hwan%Kim%NULL%1,       Chang Min%Park%NULL%1,       Yun-Hyeon%Kim%NULL%1,       Junqiang%Lei%NULL%1,       Jung Hee%Hong%NULL%1,       Hyungjin%Kim%NULL%1,       Eui Jin%Hwang%NULL%1,       Seung Jin%Yoo%NULL%1,       Ju Gang%Nam%NULL%1,       Chang Hyun%Lee%NULL%1,       Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,        Akihiko%Sakata%NULL%1,        Mitsuhiro%Kirita%NULL%1,        Takashi%Hiroi%NULL%1,        Ken-ichiro%Kobayashi%NULL%1,        Kenji%Kubo%NULL%1,        Hyunjin%Kim%NULL%1,        Azusa%Nishimoto%NULL%1,        Chikara%Maeda%NULL%1,        Akira%Kawamura%NULL%1,        Nobuhiro%Komiya%NULL%1,        Shigeaki%Umeoka%NULL%1,       Yuki%Himoto%yukihimoto@gmail.com%1,       Akihiko%Sakata%NULL%1,       Mitsuhiro%Kirita%NULL%1,       Takashi%Hiroi%NULL%1,       Ken-ichiro%Kobayashi%NULL%1,       Kenji%Kubo%NULL%1,       Hyunjin%Kim%NULL%1,       Azusa%Nishimoto%NULL%1,       Chikara%Maeda%NULL%1,       Akira%Kawamura%NULL%1,       Nobuhiro%Komiya%NULL%1,       Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,        Huaxiang%Xu%NULL%1,        Qinglin%Shen%NULL%1,        Xianghai%Zhang%NULL%1,        Bing%Fan%26171381@qq.com%1,        Chuanhong%Wang%NULL%1,        Bingliang%Zeng%NULL%1,        Zicong%Li%NULL%1,        Xiaofen%Li%NULL%1,        Honglu%Li%NULL%1,       Chunqin%Long%NULL%1,       Huaxiang%Xu%NULL%1,       Qinglin%Shen%NULL%1,       Xianghai%Zhang%NULL%1,       Bing%Fan%26171381@qq.com%1,       Chuanhong%Wang%NULL%1,       Bingliang%Zeng%NULL%1,       Zicong%Li%NULL%1,       Xiaofen%Li%NULL%1,       Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%4,       Christopher%Gieraerts%NULL%1,       Yves%De Bruecker%NULL%1,       Lode%Janssen%NULL%1,       Hanne%Valgaeren%NULL%1,       Dagmar%Obbels%NULL%1,       Marc%Gillis%NULL%1,       Marc%Van Ranst%NULL%0,       Johan%Frans%NULL%1,       Annick%Demeyere%NULL%1,       Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,     Kai%Xie%NULL%0,     Kai%Xie%NULL%0,     Hui%Lu%NULL%0,     Lei%Xu%bayinhexl@126.com%0,     Shusheng%Zhou%zhouss108@163.com%0,     Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,     Christopher%Gieraerts%NULL%2,     Christopher%Gieraerts%NULL%0,     Yves%De Bruecker%NULL%2,     Yves%De Bruecker%NULL%0,     Lode%Janssen%NULL%2,     Lode%Janssen%NULL%0,     Hanne%Valgaeren%NULL%2,     Hanne%Valgaeren%NULL%0,     Dagmar%Obbels%NULL%2,     Dagmar%Obbels%NULL%0,     Marc%Gillis%NULL%2,     Marc%Gillis%NULL%0,     Marc%Van Ranst%NULL%0,     Marc%Van Ranst%NULL%0,     Johan%Frans%NULL%1,     Annick%Demeyere%NULL%2,     Annick%Demeyere%NULL%0,     Rolf%Symons%rolf.symons@imelda.be%2,     Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,  Christopher%Gieraerts%NULL%2,  Christopher%Gieraerts%NULL%0,  Yves%De Bruecker%NULL%2,  Yves%De Bruecker%NULL%0,  Lode%Janssen%NULL%2,  Lode%Janssen%NULL%0,  Hanne%Valgaeren%NULL%2,  Hanne%Valgaeren%NULL%0,  Dagmar%Obbels%NULL%2,  Dagmar%Obbels%NULL%0,  Marc%Gillis%NULL%2,  Marc%Gillis%NULL%0,  Marc%Van Ranst%NULL%2,  Marc%Van Ranst%NULL%0,  Johan%Frans%NULL%1,  Annick%Demeyere%NULL%2,  Annick%Demeyere%NULL%0,  Rolf%Symons%rolf.symons@imelda.be%2,  Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Harrison X.%Bai%NULL%2,         Ben%Hsieh%NULL%1,         Zeng%Xiong%NULL%1,         Kasey%Halsey%NULL%1,         Ji Whae%Choi%NULL%1,         Thi My Linh%Tran%NULL%1,         Ian%Pan%NULL%1,         Lin-Bo%Shi%NULL%1,         Dong-Cui%Wang%NULL%1,         Ji%Mei%NULL%1,         Xiao-Long%Jiang%NULL%1,         Qiu-Hua%Zeng%NULL%1,         Thomas K.%Egglin%NULL%1,         Ping-Feng%Hu%NULL%1,         Saurabh%Agarwal%NULL%1,         Fangfang%Xie%NULL%1,         Sha%Li%NULL%1,         Terrance%Healey%NULL%1,         Michael K.%Atalay%NULL%1,         Wei-Hua%Liao%liaoweihua2017@163.com%1,        Harrison X.%Bai%NULL%1,        Ben%Hsieh%NULL%1,        Zeng%Xiong%NULL%1,        Kasey%Halsey%NULL%1,        Ji Whae%Choi%NULL%1,        Thi My Linh%Tran%NULL%1,        Ian%Pan%NULL%1,        Lin-Bo%Shi%NULL%1,        Dong-Cui%Wang%NULL%1,        Ji%Mei%NULL%1,        Xiao-Long%Jiang%NULL%1,        Qiu-Hua%Zeng%NULL%1,        Thomas K.%Egglin%NULL%1,        Ping-Feng%Hu%NULL%1,        Saurabh%Agarwal%NULL%1,        Fangfang%Xie%NULL%1,        Sha%Li%NULL%1,        Terrance%Healey%NULL%1,        Michael K.%Atalay%NULL%1,        Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%2,         Marta%Zerunian%NULL%1,         Michela%Polici%NULL%1,         Francesco%Pucciarelli%NULL%1,         Tiziano%Polidori%NULL%1,         Carlotta%Rucci%NULL%1,         Gisella%Guido%NULL%1,         Benedetta%Bracci%NULL%1,         Chiara%de Dominicis%NULL%1,         Andrea%Laghi%andrea.laghi@uniroma1.it%1,        Damiano%Caruso%NULL%1,        Marta%Zerunian%NULL%1,        Michela%Polici%NULL%1,        Francesco%Pucciarelli%NULL%1,        Tiziano%Polidori%NULL%1,        Carlotta%Rucci%NULL%1,        Gisella%Guido%NULL%1,        Benedetta%Bracci%NULL%1,        Chiara%de Dominicis%NULL%1,        Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,         Yanyan%Tang%NULL%1,         Yongkang%Mo%NULL%1,         Shengkai%Li%NULL%1,         Daiying%Lin%NULL%1,         Zhijian%Yang%NULL%1,         Zhiqi%Yang%NULL%1,         Hongfu%Sun%NULL%1,         Jinming%Qiu%NULL%1,         Yuting%Liao%NULL%1,         Jianning%Xiao%NULL%1,         Xiangguang%Chen%NULL%1,         Xianheng%Wu%NULL%1,         Renhua%Wu%NULL%1,         Zhuozhi%Dai%zhuozhi@ualberta.ca%1,        Xiaofeng%Chen%NULL%1,        Yanyan%Tang%NULL%1,        Yongkang%Mo%NULL%1,        Shengkai%Li%NULL%1,        Daiying%Lin%NULL%1,        Zhijian%Yang%NULL%1,        Zhiqi%Yang%NULL%1,        Hongfu%Sun%NULL%1,        Jinming%Qiu%NULL%1,        Yuting%Liao%NULL%1,        Jianning%Xiao%NULL%1,        Xiangguang%Chen%NULL%1,        Xianheng%Wu%NULL%1,        Renhua%Wu%NULL%1,        Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,         Xiaolong%Qi%NULL%1,         Soon Ho%Yoon%yshoka@gmail.com%1,         Sang Joon%Park%NULL%1,         Kyung Hee%Lee%NULL%1,         Jin Yong%Kim%NULL%1,         Young Kyung%Lee%NULL%1,         Hongseok%Ko%NULL%1,         Ki Hwan%Kim%NULL%1,         Chang Min%Park%NULL%1,         Yun-Hyeon%Kim%NULL%1,         Junqiang%Lei%NULL%1,         Jung Hee%Hong%NULL%1,         Hyungjin%Kim%NULL%1,         Eui Jin%Hwang%NULL%1,         Seung Jin%Yoo%NULL%1,         Ju Gang%Nam%NULL%1,         Chang Hyun%Lee%NULL%1,         Jin Mo%Goo%NULL%1,        Hyewon%Choi%NULL%1,        Xiaolong%Qi%NULL%1,        Soon Ho%Yoon%yshoka@gmail.com%1,        Sang Joon%Park%NULL%1,        Kyung Hee%Lee%NULL%1,        Jin Yong%Kim%NULL%1,        Young Kyung%Lee%NULL%1,        Hongseok%Ko%NULL%1,        Ki Hwan%Kim%NULL%1,        Chang Min%Park%NULL%1,        Yun-Hyeon%Kim%NULL%1,        Junqiang%Lei%NULL%1,        Jung Hee%Hong%NULL%1,        Hyungjin%Kim%NULL%1,        Eui Jin%Hwang%NULL%1,        Seung Jin%Yoo%NULL%1,        Ju Gang%Nam%NULL%1,        Chang Hyun%Lee%NULL%1,        Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,         Akihiko%Sakata%NULL%1,         Mitsuhiro%Kirita%NULL%1,         Takashi%Hiroi%NULL%1,         Ken-ichiro%Kobayashi%NULL%1,         Kenji%Kubo%NULL%1,         Hyunjin%Kim%NULL%1,         Azusa%Nishimoto%NULL%1,         Chikara%Maeda%NULL%1,         Akira%Kawamura%NULL%1,         Nobuhiro%Komiya%NULL%1,         Shigeaki%Umeoka%NULL%1,        Yuki%Himoto%yukihimoto@gmail.com%1,        Akihiko%Sakata%NULL%1,        Mitsuhiro%Kirita%NULL%1,        Takashi%Hiroi%NULL%1,        Ken-ichiro%Kobayashi%NULL%1,        Kenji%Kubo%NULL%1,        Hyunjin%Kim%NULL%1,        Azusa%Nishimoto%NULL%1,        Chikara%Maeda%NULL%1,        Akira%Kawamura%NULL%1,        Nobuhiro%Komiya%NULL%1,        Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,         Huaxiang%Xu%NULL%1,         Qinglin%Shen%NULL%1,         Xianghai%Zhang%NULL%1,         Bing%Fan%26171381@qq.com%1,         Chuanhong%Wang%NULL%1,         Bingliang%Zeng%NULL%1,         Zicong%Li%NULL%1,         Xiaofen%Li%NULL%1,         Honglu%Li%NULL%1,        Chunqin%Long%NULL%1,        Huaxiang%Xu%NULL%1,        Qinglin%Shen%NULL%1,        Xianghai%Zhang%NULL%1,        Bing%Fan%26171381@qq.com%1,        Chuanhong%Wang%NULL%1,        Bingliang%Zeng%NULL%1,        Zicong%Li%NULL%1,        Xiaofen%Li%NULL%1,        Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%4,        Christopher%Gieraerts%NULL%1,        Yves%De Bruecker%NULL%1,        Lode%Janssen%NULL%1,        Hanne%Valgaeren%NULL%1,        Dagmar%Obbels%NULL%1,        Marc%Gillis%NULL%1,        Marc%Van Ranst%NULL%0,        Johan%Frans%NULL%1,        Annick%Demeyere%NULL%1,        Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,      Kai%Xie%NULL%0,      Kai%Xie%NULL%0,      Hui%Lu%NULL%0,      Lei%Xu%bayinhexl@126.com%0,      Shusheng%Zhou%zhouss108@163.com%0,      Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,      Christopher%Gieraerts%NULL%2,      Christopher%Gieraerts%NULL%0,      Yves%De Bruecker%NULL%2,      Yves%De Bruecker%NULL%0,      Lode%Janssen%NULL%2,      Lode%Janssen%NULL%0,      Hanne%Valgaeren%NULL%2,      Hanne%Valgaeren%NULL%0,      Dagmar%Obbels%NULL%2,      Dagmar%Obbels%NULL%0,      Marc%Gillis%NULL%2,      Marc%Gillis%NULL%0,      Marc%Van Ranst%NULL%0,      Marc%Van Ranst%NULL%0,      Johan%Frans%NULL%1,      Annick%Demeyere%NULL%2,      Annick%Demeyere%NULL%0,      Rolf%Symons%rolf.symons@imelda.be%2,      Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Harrison X.%Bai%NULL%2,          Ben%Hsieh%NULL%1,          Zeng%Xiong%NULL%1,          Kasey%Halsey%NULL%1,          Ji Whae%Choi%NULL%1,          Thi My Linh%Tran%NULL%1,          Ian%Pan%NULL%1,          Lin-Bo%Shi%NULL%1,          Dong-Cui%Wang%NULL%1,          Ji%Mei%NULL%1,          Xiao-Long%Jiang%NULL%1,          Qiu-Hua%Zeng%NULL%1,          Thomas K.%Egglin%NULL%1,          Ping-Feng%Hu%NULL%1,          Saurabh%Agarwal%NULL%1,          Fangfang%Xie%NULL%1,          Sha%Li%NULL%1,          Terrance%Healey%NULL%1,          Michael K.%Atalay%NULL%1,          Wei-Hua%Liao%liaoweihua2017@163.com%1,         Harrison X.%Bai%NULL%1,         Ben%Hsieh%NULL%1,         Zeng%Xiong%NULL%1,         Kasey%Halsey%NULL%1,         Ji Whae%Choi%NULL%1,         Thi My Linh%Tran%NULL%1,         Ian%Pan%NULL%1,         Lin-Bo%Shi%NULL%1,         Dong-Cui%Wang%NULL%1,         Ji%Mei%NULL%1,         Xiao-Long%Jiang%NULL%1,         Qiu-Hua%Zeng%NULL%1,         Thomas K.%Egglin%NULL%1,         Ping-Feng%Hu%NULL%1,         Saurabh%Agarwal%NULL%1,         Fangfang%Xie%NULL%1,         Sha%Li%NULL%1,         Terrance%Healey%NULL%1,         Michael K.%Atalay%NULL%1,         Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%2,          Marta%Zerunian%NULL%1,          Michela%Polici%NULL%1,          Francesco%Pucciarelli%NULL%1,          Tiziano%Polidori%NULL%1,          Carlotta%Rucci%NULL%1,          Gisella%Guido%NULL%1,          Benedetta%Bracci%NULL%1,          Chiara%de Dominicis%NULL%1,          Andrea%Laghi%andrea.laghi@uniroma1.it%1,         Damiano%Caruso%NULL%1,         Marta%Zerunian%NULL%1,         Michela%Polici%NULL%1,         Francesco%Pucciarelli%NULL%1,         Tiziano%Polidori%NULL%1,         Carlotta%Rucci%NULL%1,         Gisella%Guido%NULL%1,         Benedetta%Bracci%NULL%1,         Chiara%de Dominicis%NULL%1,         Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,          Yanyan%Tang%NULL%1,          Yongkang%Mo%NULL%1,          Shengkai%Li%NULL%1,          Daiying%Lin%NULL%1,          Zhijian%Yang%NULL%1,          Zhiqi%Yang%NULL%1,          Hongfu%Sun%NULL%1,          Jinming%Qiu%NULL%1,          Yuting%Liao%NULL%1,          Jianning%Xiao%NULL%1,          Xiangguang%Chen%NULL%1,          Xianheng%Wu%NULL%1,          Renhua%Wu%NULL%1,          Zhuozhi%Dai%zhuozhi@ualberta.ca%1,         Xiaofeng%Chen%NULL%1,         Yanyan%Tang%NULL%1,         Yongkang%Mo%NULL%1,         Shengkai%Li%NULL%1,         Daiying%Lin%NULL%1,         Zhijian%Yang%NULL%1,         Zhiqi%Yang%NULL%1,         Hongfu%Sun%NULL%1,         Jinming%Qiu%NULL%1,         Yuting%Liao%NULL%1,         Jianning%Xiao%NULL%1,         Xiangguang%Chen%NULL%1,         Xianheng%Wu%NULL%1,         Renhua%Wu%NULL%1,         Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,          Xiaolong%Qi%NULL%1,          Soon Ho%Yoon%yshoka@gmail.com%1,          Sang Joon%Park%NULL%1,          Kyung Hee%Lee%NULL%1,          Jin Yong%Kim%NULL%1,          Young Kyung%Lee%NULL%1,          Hongseok%Ko%NULL%1,          Ki Hwan%Kim%NULL%1,          Chang Min%Park%NULL%1,          Yun-Hyeon%Kim%NULL%1,          Junqiang%Lei%NULL%1,          Jung Hee%Hong%NULL%1,          Hyungjin%Kim%NULL%1,          Eui Jin%Hwang%NULL%1,          Seung Jin%Yoo%NULL%1,          Ju Gang%Nam%NULL%1,          Chang Hyun%Lee%NULL%1,          Jin Mo%Goo%NULL%1,         Hyewon%Choi%NULL%1,         Xiaolong%Qi%NULL%1,         Soon Ho%Yoon%yshoka@gmail.com%1,         Sang Joon%Park%NULL%1,         Kyung Hee%Lee%NULL%1,         Jin Yong%Kim%NULL%1,         Young Kyung%Lee%NULL%1,         Hongseok%Ko%NULL%1,         Ki Hwan%Kim%NULL%1,         Chang Min%Park%NULL%1,         Yun-Hyeon%Kim%NULL%1,         Junqiang%Lei%NULL%1,         Jung Hee%Hong%NULL%1,         Hyungjin%Kim%NULL%1,         Eui Jin%Hwang%NULL%1,         Seung Jin%Yoo%NULL%1,         Ju Gang%Nam%NULL%1,         Chang Hyun%Lee%NULL%1,         Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,          Akihiko%Sakata%NULL%1,          Mitsuhiro%Kirita%NULL%1,          Takashi%Hiroi%NULL%1,          Ken-ichiro%Kobayashi%NULL%1,          Kenji%Kubo%NULL%1,          Hyunjin%Kim%NULL%1,          Azusa%Nishimoto%NULL%1,          Chikara%Maeda%NULL%1,          Akira%Kawamura%NULL%1,          Nobuhiro%Komiya%NULL%1,          Shigeaki%Umeoka%NULL%1,         Yuki%Himoto%yukihimoto@gmail.com%1,         Akihiko%Sakata%NULL%1,         Mitsuhiro%Kirita%NULL%1,         Takashi%Hiroi%NULL%1,         Ken-ichiro%Kobayashi%NULL%1,         Kenji%Kubo%NULL%1,         Hyunjin%Kim%NULL%1,         Azusa%Nishimoto%NULL%1,         Chikara%Maeda%NULL%1,         Akira%Kawamura%NULL%1,         Nobuhiro%Komiya%NULL%1,         Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,          Huaxiang%Xu%NULL%1,          Qinglin%Shen%NULL%1,          Xianghai%Zhang%NULL%1,          Bing%Fan%26171381@qq.com%1,          Chuanhong%Wang%NULL%1,          Bingliang%Zeng%NULL%1,          Zicong%Li%NULL%1,          Xiaofen%Li%NULL%1,          Honglu%Li%NULL%1,         Chunqin%Long%NULL%1,         Huaxiang%Xu%NULL%1,         Qinglin%Shen%NULL%1,         Xianghai%Zhang%NULL%1,         Bing%Fan%26171381@qq.com%1,         Chuanhong%Wang%NULL%1,         Bingliang%Zeng%NULL%1,         Zicong%Li%NULL%1,         Xiaofen%Li%NULL%1,         Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%4,         Christopher%Gieraerts%NULL%1,         Yves%De Bruecker%NULL%1,         Lode%Janssen%NULL%1,         Hanne%Valgaeren%NULL%1,         Dagmar%Obbels%NULL%1,         Marc%Gillis%NULL%1,         Marc%Van Ranst%NULL%0,         Johan%Frans%NULL%1,         Annick%Demeyere%NULL%1,         Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,       Kai%Xie%NULL%0,       Kai%Xie%NULL%0,       Hui%Lu%NULL%0,       Lei%Xu%bayinhexl@126.com%0,       Shusheng%Zhou%zhouss108@163.com%0,       Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,       Christopher%Gieraerts%NULL%2,       Christopher%Gieraerts%NULL%0,       Yves%De Bruecker%NULL%2,       Yves%De Bruecker%NULL%0,       Lode%Janssen%NULL%2,       Lode%Janssen%NULL%0,       Hanne%Valgaeren%NULL%2,       Hanne%Valgaeren%NULL%0,       Dagmar%Obbels%NULL%2,       Dagmar%Obbels%NULL%0,       Marc%Gillis%NULL%2,       Marc%Gillis%NULL%0,       Marc%Van Ranst%NULL%0,       Marc%Van Ranst%NULL%0,       Johan%Frans%NULL%1,       Annick%Demeyere%NULL%2,       Annick%Demeyere%NULL%0,       Rolf%Symons%rolf.symons@imelda.be%2,       Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,    Christopher%Gieraerts%NULL%2,    Christopher%Gieraerts%NULL%0,    Yves%De Bruecker%NULL%2,    Yves%De Bruecker%NULL%0,    Lode%Janssen%NULL%2,    Lode%Janssen%NULL%0,    Hanne%Valgaeren%NULL%2,    Hanne%Valgaeren%NULL%0,    Dagmar%Obbels%NULL%2,    Dagmar%Obbels%NULL%0,    Marc%Gillis%NULL%2,    Marc%Gillis%NULL%0,    Marc%Van Ranst%NULL%2,    Marc%Van Ranst%NULL%0,    Johan%Frans%NULL%1,    Annick%Demeyere%NULL%2,    Annick%Demeyere%NULL%0,    Rolf%Symons%rolf.symons@imelda.be%2,    Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Harrison X.%Bai%NULL%2,           Ben%Hsieh%NULL%1,           Zeng%Xiong%NULL%1,           Kasey%Halsey%NULL%1,           Ji Whae%Choi%NULL%1,           Thi My Linh%Tran%NULL%1,           Ian%Pan%NULL%1,           Lin-Bo%Shi%NULL%1,           Dong-Cui%Wang%NULL%1,           Ji%Mei%NULL%1,           Xiao-Long%Jiang%NULL%1,           Qiu-Hua%Zeng%NULL%1,           Thomas K.%Egglin%NULL%1,           Ping-Feng%Hu%NULL%1,           Saurabh%Agarwal%NULL%1,           Fangfang%Xie%NULL%1,           Sha%Li%NULL%1,           Terrance%Healey%NULL%1,           Michael K.%Atalay%NULL%1,           Wei-Hua%Liao%liaoweihua2017@163.com%1,          Harrison X.%Bai%NULL%1,          Ben%Hsieh%NULL%1,          Zeng%Xiong%NULL%1,          Kasey%Halsey%NULL%1,          Ji Whae%Choi%NULL%1,          Thi My Linh%Tran%NULL%1,          Ian%Pan%NULL%1,          Lin-Bo%Shi%NULL%1,          Dong-Cui%Wang%NULL%1,          Ji%Mei%NULL%1,          Xiao-Long%Jiang%NULL%1,          Qiu-Hua%Zeng%NULL%1,          Thomas K.%Egglin%NULL%1,          Ping-Feng%Hu%NULL%1,          Saurabh%Agarwal%NULL%1,          Fangfang%Xie%NULL%1,          Sha%Li%NULL%1,          Terrance%Healey%NULL%1,          Michael K.%Atalay%NULL%1,          Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%2,           Marta%Zerunian%NULL%1,           Michela%Polici%NULL%1,           Francesco%Pucciarelli%NULL%1,           Tiziano%Polidori%NULL%1,           Carlotta%Rucci%NULL%1,           Gisella%Guido%NULL%1,           Benedetta%Bracci%NULL%1,           Chiara%de Dominicis%NULL%1,           Andrea%Laghi%andrea.laghi@uniroma1.it%1,          Damiano%Caruso%NULL%1,          Marta%Zerunian%NULL%1,          Michela%Polici%NULL%1,          Francesco%Pucciarelli%NULL%1,          Tiziano%Polidori%NULL%1,          Carlotta%Rucci%NULL%1,          Gisella%Guido%NULL%1,          Benedetta%Bracci%NULL%1,          Chiara%de Dominicis%NULL%1,          Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,           Yanyan%Tang%NULL%1,           Yongkang%Mo%NULL%1,           Shengkai%Li%NULL%1,           Daiying%Lin%NULL%1,           Zhijian%Yang%NULL%1,           Zhiqi%Yang%NULL%1,           Hongfu%Sun%NULL%1,           Jinming%Qiu%NULL%1,           Yuting%Liao%NULL%1,           Jianning%Xiao%NULL%1,           Xiangguang%Chen%NULL%1,           Xianheng%Wu%NULL%1,           Renhua%Wu%NULL%1,           Zhuozhi%Dai%zhuozhi@ualberta.ca%1,          Xiaofeng%Chen%NULL%1,          Yanyan%Tang%NULL%1,          Yongkang%Mo%NULL%1,          Shengkai%Li%NULL%1,          Daiying%Lin%NULL%1,          Zhijian%Yang%NULL%1,          Zhiqi%Yang%NULL%1,          Hongfu%Sun%NULL%1,          Jinming%Qiu%NULL%1,          Yuting%Liao%NULL%1,          Jianning%Xiao%NULL%1,          Xiangguang%Chen%NULL%1,          Xianheng%Wu%NULL%1,          Renhua%Wu%NULL%1,          Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,           Xiaolong%Qi%NULL%1,           Soon Ho%Yoon%yshoka@gmail.com%1,           Sang Joon%Park%NULL%1,           Kyung Hee%Lee%NULL%1,           Jin Yong%Kim%NULL%1,           Young Kyung%Lee%NULL%1,           Hongseok%Ko%NULL%1,           Ki Hwan%Kim%NULL%1,           Chang Min%Park%NULL%1,           Yun-Hyeon%Kim%NULL%1,           Junqiang%Lei%NULL%1,           Jung Hee%Hong%NULL%1,           Hyungjin%Kim%NULL%1,           Eui Jin%Hwang%NULL%1,           Seung Jin%Yoo%NULL%1,           Ju Gang%Nam%NULL%1,           Chang Hyun%Lee%NULL%1,           Jin Mo%Goo%NULL%1,          Hyewon%Choi%NULL%1,          Xiaolong%Qi%NULL%1,          Soon Ho%Yoon%yshoka@gmail.com%1,          Sang Joon%Park%NULL%1,          Kyung Hee%Lee%NULL%1,          Jin Yong%Kim%NULL%1,          Young Kyung%Lee%NULL%1,          Hongseok%Ko%NULL%1,          Ki Hwan%Kim%NULL%1,          Chang Min%Park%NULL%1,          Yun-Hyeon%Kim%NULL%1,          Junqiang%Lei%NULL%1,          Jung Hee%Hong%NULL%1,          Hyungjin%Kim%NULL%1,          Eui Jin%Hwang%NULL%1,          Seung Jin%Yoo%NULL%1,          Ju Gang%Nam%NULL%1,          Chang Hyun%Lee%NULL%1,          Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,           Akihiko%Sakata%NULL%1,           Mitsuhiro%Kirita%NULL%1,           Takashi%Hiroi%NULL%1,           Ken-ichiro%Kobayashi%NULL%1,           Kenji%Kubo%NULL%1,           Hyunjin%Kim%NULL%1,           Azusa%Nishimoto%NULL%1,           Chikara%Maeda%NULL%1,           Akira%Kawamura%NULL%1,           Nobuhiro%Komiya%NULL%1,           Shigeaki%Umeoka%NULL%1,          Yuki%Himoto%yukihimoto@gmail.com%1,          Akihiko%Sakata%NULL%1,          Mitsuhiro%Kirita%NULL%1,          Takashi%Hiroi%NULL%1,          Ken-ichiro%Kobayashi%NULL%1,          Kenji%Kubo%NULL%1,          Hyunjin%Kim%NULL%1,          Azusa%Nishimoto%NULL%1,          Chikara%Maeda%NULL%1,          Akira%Kawamura%NULL%1,          Nobuhiro%Komiya%NULL%1,          Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,           Huaxiang%Xu%NULL%1,           Qinglin%Shen%NULL%1,           Xianghai%Zhang%NULL%1,           Bing%Fan%26171381@qq.com%1,           Chuanhong%Wang%NULL%1,           Bingliang%Zeng%NULL%1,           Zicong%Li%NULL%1,           Xiaofen%Li%NULL%1,           Honglu%Li%NULL%1,          Chunqin%Long%NULL%1,          Huaxiang%Xu%NULL%1,          Qinglin%Shen%NULL%1,          Xianghai%Zhang%NULL%1,          Bing%Fan%26171381@qq.com%1,          Chuanhong%Wang%NULL%1,          Bingliang%Zeng%NULL%1,          Zicong%Li%NULL%1,          Xiaofen%Li%NULL%1,          Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%4,          Christopher%Gieraerts%NULL%1,          Yves%De Bruecker%NULL%1,          Lode%Janssen%NULL%1,          Hanne%Valgaeren%NULL%1,          Dagmar%Obbels%NULL%1,          Marc%Gillis%NULL%1,          Marc%Van Ranst%NULL%0,          Johan%Frans%NULL%1,          Annick%Demeyere%NULL%1,          Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,        Kai%Xie%NULL%0,        Kai%Xie%NULL%0,        Hui%Lu%NULL%0,        Lei%Xu%bayinhexl@126.com%0,        Shusheng%Zhou%zhouss108@163.com%0,        Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,        Christopher%Gieraerts%NULL%2,        Christopher%Gieraerts%NULL%0,        Yves%De Bruecker%NULL%2,        Yves%De Bruecker%NULL%0,        Lode%Janssen%NULL%2,        Lode%Janssen%NULL%0,        Hanne%Valgaeren%NULL%2,        Hanne%Valgaeren%NULL%0,        Dagmar%Obbels%NULL%2,        Dagmar%Obbels%NULL%0,        Marc%Gillis%NULL%2,        Marc%Gillis%NULL%0,        Marc%Van Ranst%NULL%0,        Marc%Van Ranst%NULL%0,        Johan%Frans%NULL%1,        Annick%Demeyere%NULL%2,        Annick%Demeyere%NULL%0,        Rolf%Symons%rolf.symons@imelda.be%2,        Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,     Christopher%Gieraerts%NULL%2,     Christopher%Gieraerts%NULL%0,     Yves%De Bruecker%NULL%2,     Yves%De Bruecker%NULL%0,     Lode%Janssen%NULL%2,     Lode%Janssen%NULL%0,     Hanne%Valgaeren%NULL%2,     Hanne%Valgaeren%NULL%0,     Dagmar%Obbels%NULL%2,     Dagmar%Obbels%NULL%0,     Marc%Gillis%NULL%2,     Marc%Gillis%NULL%0,     Marc%Van Ranst%NULL%2,     Marc%Van Ranst%NULL%0,     Johan%Frans%NULL%1,     Annick%Demeyere%NULL%2,     Annick%Demeyere%NULL%0,     Rolf%Symons%rolf.symons@imelda.be%2,     Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Harrison X.%Bai%NULL%2,            Ben%Hsieh%NULL%1,            Zeng%Xiong%NULL%1,            Kasey%Halsey%NULL%1,            Ji Whae%Choi%NULL%1,            Thi My Linh%Tran%NULL%1,            Ian%Pan%NULL%1,            Lin-Bo%Shi%NULL%1,            Dong-Cui%Wang%NULL%1,            Ji%Mei%NULL%1,            Xiao-Long%Jiang%NULL%1,            Qiu-Hua%Zeng%NULL%1,            Thomas K.%Egglin%NULL%1,            Ping-Feng%Hu%NULL%1,            Saurabh%Agarwal%NULL%1,            Fangfang%Xie%NULL%1,            Sha%Li%NULL%1,            Terrance%Healey%NULL%1,            Michael K.%Atalay%NULL%1,            Wei-Hua%Liao%liaoweihua2017@163.com%1,           Harrison X.%Bai%NULL%1,           Ben%Hsieh%NULL%1,           Zeng%Xiong%NULL%1,           Kasey%Halsey%NULL%1,           Ji Whae%Choi%NULL%1,           Thi My Linh%Tran%NULL%1,           Ian%Pan%NULL%1,           Lin-Bo%Shi%NULL%1,           Dong-Cui%Wang%NULL%1,           Ji%Mei%NULL%1,           Xiao-Long%Jiang%NULL%1,           Qiu-Hua%Zeng%NULL%1,           Thomas K.%Egglin%NULL%1,           Ping-Feng%Hu%NULL%1,           Saurabh%Agarwal%NULL%1,           Fangfang%Xie%NULL%1,           Sha%Li%NULL%1,           Terrance%Healey%NULL%1,           Michael K.%Atalay%NULL%1,           Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%2,            Marta%Zerunian%NULL%1,            Michela%Polici%NULL%1,            Francesco%Pucciarelli%NULL%1,            Tiziano%Polidori%NULL%1,            Carlotta%Rucci%NULL%1,            Gisella%Guido%NULL%1,            Benedetta%Bracci%NULL%1,            Chiara%de Dominicis%NULL%1,            Andrea%Laghi%andrea.laghi@uniroma1.it%1,           Damiano%Caruso%NULL%1,           Marta%Zerunian%NULL%1,           Michela%Polici%NULL%1,           Francesco%Pucciarelli%NULL%1,           Tiziano%Polidori%NULL%1,           Carlotta%Rucci%NULL%1,           Gisella%Guido%NULL%1,           Benedetta%Bracci%NULL%1,           Chiara%de Dominicis%NULL%1,           Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,            Yanyan%Tang%NULL%1,            Yongkang%Mo%NULL%1,            Shengkai%Li%NULL%1,            Daiying%Lin%NULL%1,            Zhijian%Yang%NULL%1,            Zhiqi%Yang%NULL%1,            Hongfu%Sun%NULL%1,            Jinming%Qiu%NULL%1,            Yuting%Liao%NULL%1,            Jianning%Xiao%NULL%1,            Xiangguang%Chen%NULL%1,            Xianheng%Wu%NULL%1,            Renhua%Wu%NULL%1,            Zhuozhi%Dai%zhuozhi@ualberta.ca%1,           Xiaofeng%Chen%NULL%1,           Yanyan%Tang%NULL%1,           Yongkang%Mo%NULL%1,           Shengkai%Li%NULL%1,           Daiying%Lin%NULL%1,           Zhijian%Yang%NULL%1,           Zhiqi%Yang%NULL%1,           Hongfu%Sun%NULL%1,           Jinming%Qiu%NULL%1,           Yuting%Liao%NULL%1,           Jianning%Xiao%NULL%1,           Xiangguang%Chen%NULL%1,           Xianheng%Wu%NULL%1,           Renhua%Wu%NULL%1,           Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,            Xiaolong%Qi%NULL%1,            Soon Ho%Yoon%yshoka@gmail.com%1,            Sang Joon%Park%NULL%1,            Kyung Hee%Lee%NULL%1,            Jin Yong%Kim%NULL%1,            Young Kyung%Lee%NULL%1,            Hongseok%Ko%NULL%1,            Ki Hwan%Kim%NULL%1,            Chang Min%Park%NULL%1,            Yun-Hyeon%Kim%NULL%1,            Junqiang%Lei%NULL%1,            Jung Hee%Hong%NULL%1,            Hyungjin%Kim%NULL%1,            Eui Jin%Hwang%NULL%1,            Seung Jin%Yoo%NULL%1,            Ju Gang%Nam%NULL%1,            Chang Hyun%Lee%NULL%1,            Jin Mo%Goo%NULL%1,           Hyewon%Choi%NULL%1,           Xiaolong%Qi%NULL%1,           Soon Ho%Yoon%yshoka@gmail.com%1,           Sang Joon%Park%NULL%1,           Kyung Hee%Lee%NULL%1,           Jin Yong%Kim%NULL%1,           Young Kyung%Lee%NULL%1,           Hongseok%Ko%NULL%1,           Ki Hwan%Kim%NULL%1,           Chang Min%Park%NULL%1,           Yun-Hyeon%Kim%NULL%1,           Junqiang%Lei%NULL%1,           Jung Hee%Hong%NULL%1,           Hyungjin%Kim%NULL%1,           Eui Jin%Hwang%NULL%1,           Seung Jin%Yoo%NULL%1,           Ju Gang%Nam%NULL%1,           Chang Hyun%Lee%NULL%1,           Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,            Akihiko%Sakata%NULL%1,            Mitsuhiro%Kirita%NULL%1,            Takashi%Hiroi%NULL%1,            Ken-ichiro%Kobayashi%NULL%1,            Kenji%Kubo%NULL%1,            Hyunjin%Kim%NULL%1,            Azusa%Nishimoto%NULL%1,            Chikara%Maeda%NULL%1,            Akira%Kawamura%NULL%1,            Nobuhiro%Komiya%NULL%1,            Shigeaki%Umeoka%NULL%1,           Yuki%Himoto%yukihimoto@gmail.com%1,           Akihiko%Sakata%NULL%1,           Mitsuhiro%Kirita%NULL%1,           Takashi%Hiroi%NULL%1,           Ken-ichiro%Kobayashi%NULL%1,           Kenji%Kubo%NULL%1,           Hyunjin%Kim%NULL%1,           Azusa%Nishimoto%NULL%1,           Chikara%Maeda%NULL%1,           Akira%Kawamura%NULL%1,           Nobuhiro%Komiya%NULL%1,           Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,            Huaxiang%Xu%NULL%1,            Qinglin%Shen%NULL%1,            Xianghai%Zhang%NULL%1,            Bing%Fan%26171381@qq.com%1,            Chuanhong%Wang%NULL%1,            Bingliang%Zeng%NULL%1,            Zicong%Li%NULL%1,            Xiaofen%Li%NULL%1,            Honglu%Li%NULL%1,           Chunqin%Long%NULL%1,           Huaxiang%Xu%NULL%1,           Qinglin%Shen%NULL%1,           Xianghai%Zhang%NULL%1,           Bing%Fan%26171381@qq.com%1,           Chuanhong%Wang%NULL%1,           Bingliang%Zeng%NULL%1,           Zicong%Li%NULL%1,           Xiaofen%Li%NULL%1,           Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%4,           Christopher%Gieraerts%NULL%1,           Yves%De Bruecker%NULL%1,           Lode%Janssen%NULL%1,           Hanne%Valgaeren%NULL%1,           Dagmar%Obbels%NULL%1,           Marc%Gillis%NULL%1,           Marc%Van Ranst%NULL%0,           Johan%Frans%NULL%1,           Annick%Demeyere%NULL%1,           Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,         Kai%Xie%NULL%0,         Kai%Xie%NULL%0,         Hui%Lu%NULL%0,         Lei%Xu%bayinhexl@126.com%0,         Shusheng%Zhou%zhouss108@163.com%0,         Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,         Christopher%Gieraerts%NULL%2,         Christopher%Gieraerts%NULL%0,         Yves%De Bruecker%NULL%2,         Yves%De Bruecker%NULL%0,         Lode%Janssen%NULL%2,         Lode%Janssen%NULL%0,         Hanne%Valgaeren%NULL%2,         Hanne%Valgaeren%NULL%0,         Dagmar%Obbels%NULL%2,         Dagmar%Obbels%NULL%0,         Marc%Gillis%NULL%2,         Marc%Gillis%NULL%0,         Marc%Van Ranst%NULL%0,         Marc%Van Ranst%NULL%0,         Johan%Frans%NULL%1,         Annick%Demeyere%NULL%2,         Annick%Demeyere%NULL%0,         Rolf%Symons%rolf.symons@imelda.be%2,         Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,      Christopher%Gieraerts%NULL%2,      Christopher%Gieraerts%NULL%0,      Yves%De Bruecker%NULL%2,      Yves%De Bruecker%NULL%0,      Lode%Janssen%NULL%2,      Lode%Janssen%NULL%0,      Hanne%Valgaeren%NULL%2,      Hanne%Valgaeren%NULL%0,      Dagmar%Obbels%NULL%2,      Dagmar%Obbels%NULL%0,      Marc%Gillis%NULL%2,      Marc%Gillis%NULL%0,      Marc%Van Ranst%NULL%2,      Marc%Van Ranst%NULL%0,      Johan%Frans%NULL%1,      Annick%Demeyere%NULL%2,      Annick%Demeyere%NULL%0,      Rolf%Symons%rolf.symons@imelda.be%2,      Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Harrison X.%Bai%NULL%2,             Ben%Hsieh%NULL%1,             Zeng%Xiong%NULL%1,             Kasey%Halsey%NULL%1,             Ji Whae%Choi%NULL%1,             Thi My Linh%Tran%NULL%1,             Ian%Pan%NULL%1,             Lin-Bo%Shi%NULL%1,             Dong-Cui%Wang%NULL%1,             Ji%Mei%NULL%1,             Xiao-Long%Jiang%NULL%1,             Qiu-Hua%Zeng%NULL%1,             Thomas K.%Egglin%NULL%1,             Ping-Feng%Hu%NULL%1,             Saurabh%Agarwal%NULL%1,             Fangfang%Xie%NULL%1,             Sha%Li%NULL%1,             Terrance%Healey%NULL%1,             Michael K.%Atalay%NULL%1,             Wei-Hua%Liao%liaoweihua2017@163.com%1,            Harrison X.%Bai%NULL%1,            Ben%Hsieh%NULL%1,            Zeng%Xiong%NULL%1,            Kasey%Halsey%NULL%1,            Ji Whae%Choi%NULL%1,            Thi My Linh%Tran%NULL%1,            Ian%Pan%NULL%1,            Lin-Bo%Shi%NULL%1,            Dong-Cui%Wang%NULL%1,            Ji%Mei%NULL%1,            Xiao-Long%Jiang%NULL%1,            Qiu-Hua%Zeng%NULL%1,            Thomas K.%Egglin%NULL%1,            Ping-Feng%Hu%NULL%1,            Saurabh%Agarwal%NULL%1,            Fangfang%Xie%NULL%1,            Sha%Li%NULL%1,            Terrance%Healey%NULL%1,            Michael K.%Atalay%NULL%1,            Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%2,             Marta%Zerunian%NULL%1,             Michela%Polici%NULL%1,             Francesco%Pucciarelli%NULL%1,             Tiziano%Polidori%NULL%1,             Carlotta%Rucci%NULL%1,             Gisella%Guido%NULL%1,             Benedetta%Bracci%NULL%1,             Chiara%de Dominicis%NULL%1,             Andrea%Laghi%andrea.laghi@uniroma1.it%1,            Damiano%Caruso%NULL%1,            Marta%Zerunian%NULL%1,            Michela%Polici%NULL%1,            Francesco%Pucciarelli%NULL%1,            Tiziano%Polidori%NULL%1,            Carlotta%Rucci%NULL%1,            Gisella%Guido%NULL%1,            Benedetta%Bracci%NULL%1,            Chiara%de Dominicis%NULL%1,            Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,             Yanyan%Tang%NULL%1,             Yongkang%Mo%NULL%1,             Shengkai%Li%NULL%1,             Daiying%Lin%NULL%1,             Zhijian%Yang%NULL%1,             Zhiqi%Yang%NULL%1,             Hongfu%Sun%NULL%1,             Jinming%Qiu%NULL%1,             Yuting%Liao%NULL%1,             Jianning%Xiao%NULL%1,             Xiangguang%Chen%NULL%1,             Xianheng%Wu%NULL%1,             Renhua%Wu%NULL%1,             Zhuozhi%Dai%zhuozhi@ualberta.ca%1,            Xiaofeng%Chen%NULL%1,            Yanyan%Tang%NULL%1,            Yongkang%Mo%NULL%1,            Shengkai%Li%NULL%1,            Daiying%Lin%NULL%1,            Zhijian%Yang%NULL%1,            Zhiqi%Yang%NULL%1,            Hongfu%Sun%NULL%1,            Jinming%Qiu%NULL%1,            Yuting%Liao%NULL%1,            Jianning%Xiao%NULL%1,            Xiangguang%Chen%NULL%1,            Xianheng%Wu%NULL%1,            Renhua%Wu%NULL%1,            Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,             Xiaolong%Qi%NULL%1,             Soon Ho%Yoon%yshoka@gmail.com%1,             Sang Joon%Park%NULL%1,             Kyung Hee%Lee%NULL%1,             Jin Yong%Kim%NULL%1,             Young Kyung%Lee%NULL%1,             Hongseok%Ko%NULL%1,             Ki Hwan%Kim%NULL%1,             Chang Min%Park%NULL%1,             Yun-Hyeon%Kim%NULL%1,             Junqiang%Lei%NULL%1,             Jung Hee%Hong%NULL%1,             Hyungjin%Kim%NULL%1,             Eui Jin%Hwang%NULL%1,             Seung Jin%Yoo%NULL%1,             Ju Gang%Nam%NULL%1,             Chang Hyun%Lee%NULL%1,             Jin Mo%Goo%NULL%1,            Hyewon%Choi%NULL%1,            Xiaolong%Qi%NULL%1,            Soon Ho%Yoon%yshoka@gmail.com%1,            Sang Joon%Park%NULL%1,            Kyung Hee%Lee%NULL%1,            Jin Yong%Kim%NULL%1,            Young Kyung%Lee%NULL%1,            Hongseok%Ko%NULL%1,            Ki Hwan%Kim%NULL%1,            Chang Min%Park%NULL%1,            Yun-Hyeon%Kim%NULL%1,            Junqiang%Lei%NULL%1,            Jung Hee%Hong%NULL%1,            Hyungjin%Kim%NULL%1,            Eui Jin%Hwang%NULL%1,            Seung Jin%Yoo%NULL%1,            Ju Gang%Nam%NULL%1,            Chang Hyun%Lee%NULL%1,            Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,             Akihiko%Sakata%NULL%1,             Mitsuhiro%Kirita%NULL%1,             Takashi%Hiroi%NULL%1,             Ken-ichiro%Kobayashi%NULL%1,             Kenji%Kubo%NULL%1,             Hyunjin%Kim%NULL%1,             Azusa%Nishimoto%NULL%1,             Chikara%Maeda%NULL%1,             Akira%Kawamura%NULL%1,             Nobuhiro%Komiya%NULL%1,             Shigeaki%Umeoka%NULL%1,            Yuki%Himoto%yukihimoto@gmail.com%1,            Akihiko%Sakata%NULL%1,            Mitsuhiro%Kirita%NULL%1,            Takashi%Hiroi%NULL%1,            Ken-ichiro%Kobayashi%NULL%1,            Kenji%Kubo%NULL%1,            Hyunjin%Kim%NULL%1,            Azusa%Nishimoto%NULL%1,            Chikara%Maeda%NULL%1,            Akira%Kawamura%NULL%1,            Nobuhiro%Komiya%NULL%1,            Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,             Huaxiang%Xu%NULL%1,             Qinglin%Shen%NULL%1,             Xianghai%Zhang%NULL%1,             Bing%Fan%26171381@qq.com%1,             Chuanhong%Wang%NULL%1,             Bingliang%Zeng%NULL%1,             Zicong%Li%NULL%1,             Xiaofen%Li%NULL%1,             Honglu%Li%NULL%1,            Chunqin%Long%NULL%1,            Huaxiang%Xu%NULL%1,            Qinglin%Shen%NULL%1,            Xianghai%Zhang%NULL%1,            Bing%Fan%26171381@qq.com%1,            Chuanhong%Wang%NULL%1,            Bingliang%Zeng%NULL%1,            Zicong%Li%NULL%1,            Xiaofen%Li%NULL%1,            Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%4,            Christopher%Gieraerts%NULL%1,            Yves%De Bruecker%NULL%1,            Lode%Janssen%NULL%1,            Hanne%Valgaeren%NULL%1,            Dagmar%Obbels%NULL%1,            Marc%Gillis%NULL%1,            Marc%Van Ranst%NULL%0,            Johan%Frans%NULL%1,            Annick%Demeyere%NULL%1,            Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,          Kai%Xie%NULL%0,          Kai%Xie%NULL%0,          Hui%Lu%NULL%0,          Lei%Xu%bayinhexl@126.com%0,          Shusheng%Zhou%zhouss108@163.com%0,          Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,          Christopher%Gieraerts%NULL%2,          Christopher%Gieraerts%NULL%0,          Yves%De Bruecker%NULL%2,          Yves%De Bruecker%NULL%0,          Lode%Janssen%NULL%2,          Lode%Janssen%NULL%0,          Hanne%Valgaeren%NULL%2,          Hanne%Valgaeren%NULL%0,          Dagmar%Obbels%NULL%2,          Dagmar%Obbels%NULL%0,          Marc%Gillis%NULL%2,          Marc%Gillis%NULL%0,          Marc%Van Ranst%NULL%0,          Marc%Van Ranst%NULL%0,          Johan%Frans%NULL%1,          Annick%Demeyere%NULL%2,          Annick%Demeyere%NULL%0,          Rolf%Symons%rolf.symons@imelda.be%2,          Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,       Christopher%Gieraerts%NULL%2,       Christopher%Gieraerts%NULL%0,       Yves%De Bruecker%NULL%2,       Yves%De Bruecker%NULL%0,       Lode%Janssen%NULL%2,       Lode%Janssen%NULL%0,       Hanne%Valgaeren%NULL%2,       Hanne%Valgaeren%NULL%0,       Dagmar%Obbels%NULL%2,       Dagmar%Obbels%NULL%0,       Marc%Gillis%NULL%2,       Marc%Gillis%NULL%0,       Marc%Van Ranst%NULL%2,       Marc%Van Ranst%NULL%0,       Johan%Frans%NULL%1,       Annick%Demeyere%NULL%2,       Annick%Demeyere%NULL%0,       Rolf%Symons%rolf.symons@imelda.be%2,       Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Harrison X.%Bai%NULL%2,              Ben%Hsieh%NULL%1,              Zeng%Xiong%NULL%1,              Kasey%Halsey%NULL%1,              Ji Whae%Choi%NULL%1,              Thi My Linh%Tran%NULL%1,              Ian%Pan%NULL%1,              Lin-Bo%Shi%NULL%1,              Dong-Cui%Wang%NULL%1,              Ji%Mei%NULL%1,              Xiao-Long%Jiang%NULL%1,              Qiu-Hua%Zeng%NULL%1,              Thomas K.%Egglin%NULL%1,              Ping-Feng%Hu%NULL%1,              Saurabh%Agarwal%NULL%1,              Fangfang%Xie%NULL%1,              Sha%Li%NULL%1,              Terrance%Healey%NULL%1,              Michael K.%Atalay%NULL%1,              Wei-Hua%Liao%liaoweihua2017@163.com%1,             Harrison X.%Bai%NULL%1,             Ben%Hsieh%NULL%1,             Zeng%Xiong%NULL%1,             Kasey%Halsey%NULL%1,             Ji Whae%Choi%NULL%1,             Thi My Linh%Tran%NULL%1,             Ian%Pan%NULL%1,             Lin-Bo%Shi%NULL%1,             Dong-Cui%Wang%NULL%1,             Ji%Mei%NULL%1,             Xiao-Long%Jiang%NULL%1,             Qiu-Hua%Zeng%NULL%1,             Thomas K.%Egglin%NULL%1,             Ping-Feng%Hu%NULL%1,             Saurabh%Agarwal%NULL%1,             Fangfang%Xie%NULL%1,             Sha%Li%NULL%1,             Terrance%Healey%NULL%1,             Michael K.%Atalay%NULL%1,             Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%2,              Marta%Zerunian%NULL%1,              Michela%Polici%NULL%1,              Francesco%Pucciarelli%NULL%1,              Tiziano%Polidori%NULL%1,              Carlotta%Rucci%NULL%1,              Gisella%Guido%NULL%1,              Benedetta%Bracci%NULL%1,              Chiara%de Dominicis%NULL%1,              Andrea%Laghi%andrea.laghi@uniroma1.it%1,             Damiano%Caruso%NULL%1,             Marta%Zerunian%NULL%1,             Michela%Polici%NULL%1,             Francesco%Pucciarelli%NULL%1,             Tiziano%Polidori%NULL%1,             Carlotta%Rucci%NULL%1,             Gisella%Guido%NULL%1,             Benedetta%Bracci%NULL%1,             Chiara%de Dominicis%NULL%1,             Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,              Yanyan%Tang%NULL%1,              Yongkang%Mo%NULL%1,              Shengkai%Li%NULL%1,              Daiying%Lin%NULL%1,              Zhijian%Yang%NULL%1,              Zhiqi%Yang%NULL%1,              Hongfu%Sun%NULL%1,              Jinming%Qiu%NULL%1,              Yuting%Liao%NULL%1,              Jianning%Xiao%NULL%1,              Xiangguang%Chen%NULL%1,              Xianheng%Wu%NULL%1,              Renhua%Wu%NULL%1,              Zhuozhi%Dai%zhuozhi@ualberta.ca%1,             Xiaofeng%Chen%NULL%1,             Yanyan%Tang%NULL%1,             Yongkang%Mo%NULL%1,             Shengkai%Li%NULL%1,             Daiying%Lin%NULL%1,             Zhijian%Yang%NULL%1,             Zhiqi%Yang%NULL%1,             Hongfu%Sun%NULL%1,             Jinming%Qiu%NULL%1,             Yuting%Liao%NULL%1,             Jianning%Xiao%NULL%1,             Xiangguang%Chen%NULL%1,             Xianheng%Wu%NULL%1,             Renhua%Wu%NULL%1,             Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,              Xiaolong%Qi%NULL%1,              Soon Ho%Yoon%yshoka@gmail.com%1,              Sang Joon%Park%NULL%1,              Kyung Hee%Lee%NULL%1,              Jin Yong%Kim%NULL%1,              Young Kyung%Lee%NULL%1,              Hongseok%Ko%NULL%1,              Ki Hwan%Kim%NULL%1,              Chang Min%Park%NULL%1,              Yun-Hyeon%Kim%NULL%1,              Junqiang%Lei%NULL%1,              Jung Hee%Hong%NULL%1,              Hyungjin%Kim%NULL%1,              Eui Jin%Hwang%NULL%1,              Seung Jin%Yoo%NULL%1,              Ju Gang%Nam%NULL%1,              Chang Hyun%Lee%NULL%1,              Jin Mo%Goo%NULL%1,             Hyewon%Choi%NULL%1,             Xiaolong%Qi%NULL%1,             Soon Ho%Yoon%yshoka@gmail.com%1,             Sang Joon%Park%NULL%1,             Kyung Hee%Lee%NULL%1,             Jin Yong%Kim%NULL%1,             Young Kyung%Lee%NULL%1,             Hongseok%Ko%NULL%1,             Ki Hwan%Kim%NULL%1,             Chang Min%Park%NULL%1,             Yun-Hyeon%Kim%NULL%1,             Junqiang%Lei%NULL%1,             Jung Hee%Hong%NULL%1,             Hyungjin%Kim%NULL%1,             Eui Jin%Hwang%NULL%1,             Seung Jin%Yoo%NULL%1,             Ju Gang%Nam%NULL%1,             Chang Hyun%Lee%NULL%1,             Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,              Akihiko%Sakata%NULL%1,              Mitsuhiro%Kirita%NULL%1,              Takashi%Hiroi%NULL%1,              Ken-ichiro%Kobayashi%NULL%1,              Kenji%Kubo%NULL%1,              Hyunjin%Kim%NULL%1,              Azusa%Nishimoto%NULL%1,              Chikara%Maeda%NULL%1,              Akira%Kawamura%NULL%1,              Nobuhiro%Komiya%NULL%1,              Shigeaki%Umeoka%NULL%1,             Yuki%Himoto%yukihimoto@gmail.com%1,             Akihiko%Sakata%NULL%1,             Mitsuhiro%Kirita%NULL%1,             Takashi%Hiroi%NULL%1,             Ken-ichiro%Kobayashi%NULL%1,             Kenji%Kubo%NULL%1,             Hyunjin%Kim%NULL%1,             Azusa%Nishimoto%NULL%1,             Chikara%Maeda%NULL%1,             Akira%Kawamura%NULL%1,             Nobuhiro%Komiya%NULL%1,             Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,              Huaxiang%Xu%NULL%1,              Qinglin%Shen%NULL%1,              Xianghai%Zhang%NULL%1,              Bing%Fan%26171381@qq.com%1,              Chuanhong%Wang%NULL%1,              Bingliang%Zeng%NULL%1,              Zicong%Li%NULL%1,              Xiaofen%Li%NULL%1,              Honglu%Li%NULL%1,             Chunqin%Long%NULL%1,             Huaxiang%Xu%NULL%1,             Qinglin%Shen%NULL%1,             Xianghai%Zhang%NULL%1,             Bing%Fan%26171381@qq.com%1,             Chuanhong%Wang%NULL%1,             Bingliang%Zeng%NULL%1,             Zicong%Li%NULL%1,             Xiaofen%Li%NULL%1,             Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%4,             Christopher%Gieraerts%NULL%1,             Yves%De Bruecker%NULL%1,             Lode%Janssen%NULL%1,             Hanne%Valgaeren%NULL%1,             Dagmar%Obbels%NULL%1,             Marc%Gillis%NULL%1,             Marc%Van Ranst%NULL%0,             Johan%Frans%NULL%1,             Annick%Demeyere%NULL%1,             Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,           Kai%Xie%NULL%0,           Kai%Xie%NULL%0,           Hui%Lu%NULL%0,           Lei%Xu%bayinhexl@126.com%0,           Shusheng%Zhou%zhouss108@163.com%0,           Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,           Christopher%Gieraerts%NULL%2,           Christopher%Gieraerts%NULL%0,           Yves%De Bruecker%NULL%2,           Yves%De Bruecker%NULL%0,           Lode%Janssen%NULL%2,           Lode%Janssen%NULL%0,           Hanne%Valgaeren%NULL%2,           Hanne%Valgaeren%NULL%0,           Dagmar%Obbels%NULL%2,           Dagmar%Obbels%NULL%0,           Marc%Gillis%NULL%2,           Marc%Gillis%NULL%0,           Marc%Van Ranst%NULL%0,           Marc%Van Ranst%NULL%0,           Johan%Frans%NULL%1,           Annick%Demeyere%NULL%2,           Annick%Demeyere%NULL%0,           Rolf%Symons%rolf.symons@imelda.be%2,           Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,        Christopher%Gieraerts%NULL%2,        Christopher%Gieraerts%NULL%0,        Yves%De Bruecker%NULL%2,        Yves%De Bruecker%NULL%0,        Lode%Janssen%NULL%2,        Lode%Janssen%NULL%0,        Hanne%Valgaeren%NULL%2,        Hanne%Valgaeren%NULL%0,        Dagmar%Obbels%NULL%2,        Dagmar%Obbels%NULL%0,        Marc%Gillis%NULL%2,        Marc%Gillis%NULL%0,        Marc%Van Ranst%NULL%2,        Marc%Van Ranst%NULL%0,        Johan%Frans%NULL%1,        Annick%Demeyere%NULL%2,        Annick%Demeyere%NULL%0,        Rolf%Symons%rolf.symons@imelda.be%2,        Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Harrison X.%Bai%NULL%2,               Ben%Hsieh%NULL%1,               Zeng%Xiong%NULL%1,               Kasey%Halsey%NULL%1,               Ji Whae%Choi%NULL%1,               Thi My Linh%Tran%NULL%1,               Ian%Pan%NULL%1,               Lin-Bo%Shi%NULL%1,               Dong-Cui%Wang%NULL%1,               Ji%Mei%NULL%1,               Xiao-Long%Jiang%NULL%1,               Qiu-Hua%Zeng%NULL%1,               Thomas K.%Egglin%NULL%1,               Ping-Feng%Hu%NULL%1,               Saurabh%Agarwal%NULL%1,               Fangfang%Xie%NULL%1,               Sha%Li%NULL%1,               Terrance%Healey%NULL%1,               Michael K.%Atalay%NULL%1,               Wei-Hua%Liao%liaoweihua2017@163.com%1,              Harrison X.%Bai%NULL%1,              Ben%Hsieh%NULL%1,              Zeng%Xiong%NULL%1,              Kasey%Halsey%NULL%1,              Ji Whae%Choi%NULL%1,              Thi My Linh%Tran%NULL%1,              Ian%Pan%NULL%1,              Lin-Bo%Shi%NULL%1,              Dong-Cui%Wang%NULL%1,              Ji%Mei%NULL%1,              Xiao-Long%Jiang%NULL%1,              Qiu-Hua%Zeng%NULL%1,              Thomas K.%Egglin%NULL%1,              Ping-Feng%Hu%NULL%1,              Saurabh%Agarwal%NULL%1,              Fangfang%Xie%NULL%1,              Sha%Li%NULL%1,              Terrance%Healey%NULL%1,              Michael K.%Atalay%NULL%1,              Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%2,               Marta%Zerunian%NULL%1,               Michela%Polici%NULL%1,               Francesco%Pucciarelli%NULL%1,               Tiziano%Polidori%NULL%1,               Carlotta%Rucci%NULL%1,               Gisella%Guido%NULL%1,               Benedetta%Bracci%NULL%1,               Chiara%de Dominicis%NULL%1,               Andrea%Laghi%andrea.laghi@uniroma1.it%1,              Damiano%Caruso%NULL%1,              Marta%Zerunian%NULL%1,              Michela%Polici%NULL%1,              Francesco%Pucciarelli%NULL%1,              Tiziano%Polidori%NULL%1,              Carlotta%Rucci%NULL%1,              Gisella%Guido%NULL%1,              Benedetta%Bracci%NULL%1,              Chiara%de Dominicis%NULL%1,              Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%2,               Yanyan%Tang%NULL%1,               Yongkang%Mo%NULL%1,               Shengkai%Li%NULL%1,               Daiying%Lin%NULL%1,               Zhijian%Yang%NULL%1,               Zhiqi%Yang%NULL%1,               Hongfu%Sun%NULL%1,               Jinming%Qiu%NULL%1,               Yuting%Liao%NULL%1,               Jianning%Xiao%NULL%1,               Xiangguang%Chen%NULL%1,               Xianheng%Wu%NULL%1,               Renhua%Wu%NULL%1,               Zhuozhi%Dai%zhuozhi@ualberta.ca%1,              Xiaofeng%Chen%NULL%1,              Yanyan%Tang%NULL%1,              Yongkang%Mo%NULL%1,              Shengkai%Li%NULL%1,              Daiying%Lin%NULL%1,              Zhijian%Yang%NULL%1,              Zhiqi%Yang%NULL%1,              Hongfu%Sun%NULL%1,              Jinming%Qiu%NULL%1,              Yuting%Liao%NULL%1,              Jianning%Xiao%NULL%1,              Xiangguang%Chen%NULL%1,              Xianheng%Wu%NULL%1,              Renhua%Wu%NULL%1,              Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,               Xiaolong%Qi%NULL%1,               Soon Ho%Yoon%yshoka@gmail.com%1,               Sang Joon%Park%NULL%1,               Kyung Hee%Lee%NULL%1,               Jin Yong%Kim%NULL%1,               Young Kyung%Lee%NULL%1,               Hongseok%Ko%NULL%1,               Ki Hwan%Kim%NULL%1,               Chang Min%Park%NULL%1,               Yun-Hyeon%Kim%NULL%1,               Junqiang%Lei%NULL%1,               Jung Hee%Hong%NULL%1,               Hyungjin%Kim%NULL%1,               Eui Jin%Hwang%NULL%1,               Seung Jin%Yoo%NULL%1,               Ju Gang%Nam%NULL%1,               Chang Hyun%Lee%NULL%1,               Jin Mo%Goo%NULL%1,              Hyewon%Choi%NULL%1,              Xiaolong%Qi%NULL%1,              Soon Ho%Yoon%yshoka@gmail.com%1,              Sang Joon%Park%NULL%1,              Kyung Hee%Lee%NULL%1,              Jin Yong%Kim%NULL%1,              Young Kyung%Lee%NULL%1,              Hongseok%Ko%NULL%1,              Ki Hwan%Kim%NULL%1,              Chang Min%Park%NULL%1,              Yun-Hyeon%Kim%NULL%1,              Junqiang%Lei%NULL%1,              Jung Hee%Hong%NULL%1,              Hyungjin%Kim%NULL%1,              Eui Jin%Hwang%NULL%1,              Seung Jin%Yoo%NULL%1,              Ju Gang%Nam%NULL%1,              Chang Hyun%Lee%NULL%1,              Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,               Akihiko%Sakata%NULL%1,               Mitsuhiro%Kirita%NULL%1,               Takashi%Hiroi%NULL%1,               Ken-ichiro%Kobayashi%NULL%1,               Kenji%Kubo%NULL%1,               Hyunjin%Kim%NULL%1,               Azusa%Nishimoto%NULL%1,               Chikara%Maeda%NULL%1,               Akira%Kawamura%NULL%1,               Nobuhiro%Komiya%NULL%1,               Shigeaki%Umeoka%NULL%1,              Yuki%Himoto%yukihimoto@gmail.com%1,              Akihiko%Sakata%NULL%1,              Mitsuhiro%Kirita%NULL%1,              Takashi%Hiroi%NULL%1,              Ken-ichiro%Kobayashi%NULL%1,              Kenji%Kubo%NULL%1,              Hyunjin%Kim%NULL%1,              Azusa%Nishimoto%NULL%1,              Chikara%Maeda%NULL%1,              Akira%Kawamura%NULL%1,              Nobuhiro%Komiya%NULL%1,              Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,               Huaxiang%Xu%NULL%1,               Qinglin%Shen%NULL%1,               Xianghai%Zhang%NULL%1,               Bing%Fan%26171381@qq.com%1,               Chuanhong%Wang%NULL%1,               Bingliang%Zeng%NULL%1,               Zicong%Li%NULL%1,               Xiaofen%Li%NULL%1,               Honglu%Li%NULL%1,              Chunqin%Long%NULL%1,              Huaxiang%Xu%NULL%1,              Qinglin%Shen%NULL%1,              Xianghai%Zhang%NULL%1,              Bing%Fan%26171381@qq.com%1,              Chuanhong%Wang%NULL%1,              Bingliang%Zeng%NULL%1,              Zicong%Li%NULL%1,              Xiaofen%Li%NULL%1,              Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%4,              Christopher%Gieraerts%NULL%1,              Yves%De Bruecker%NULL%1,              Lode%Janssen%NULL%1,              Hanne%Valgaeren%NULL%1,              Dagmar%Obbels%NULL%1,              Marc%Gillis%NULL%1,              Marc%Van Ranst%NULL%0,              Johan%Frans%NULL%1,              Annick%Demeyere%NULL%1,              Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,            Kai%Xie%NULL%0,            Kai%Xie%NULL%0,            Hui%Lu%NULL%0,            Lei%Xu%bayinhexl@126.com%0,            Shusheng%Zhou%zhouss108@163.com%0,            Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,            Christopher%Gieraerts%NULL%2,            Christopher%Gieraerts%NULL%0,            Yves%De Bruecker%NULL%2,            Yves%De Bruecker%NULL%0,            Lode%Janssen%NULL%2,            Lode%Janssen%NULL%0,            Hanne%Valgaeren%NULL%2,            Hanne%Valgaeren%NULL%0,            Dagmar%Obbels%NULL%2,            Dagmar%Obbels%NULL%0,            Marc%Gillis%NULL%2,            Marc%Gillis%NULL%0,            Marc%Van Ranst%NULL%0,            Marc%Van Ranst%NULL%0,            Johan%Frans%NULL%1,            Annick%Demeyere%NULL%2,            Annick%Demeyere%NULL%0,            Rolf%Symons%rolf.symons@imelda.be%2,            Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,         Christopher%Gieraerts%NULL%2,         Christopher%Gieraerts%NULL%0,         Yves%De Bruecker%NULL%2,         Yves%De Bruecker%NULL%0,         Lode%Janssen%NULL%2,         Lode%Janssen%NULL%0,         Hanne%Valgaeren%NULL%2,         Hanne%Valgaeren%NULL%0,         Dagmar%Obbels%NULL%2,         Dagmar%Obbels%NULL%0,         Marc%Gillis%NULL%2,         Marc%Gillis%NULL%0,         Marc%Van Ranst%NULL%2,         Marc%Van Ranst%NULL%0,         Johan%Frans%NULL%1,         Annick%Demeyere%NULL%2,         Annick%Demeyere%NULL%0,         Rolf%Symons%rolf.symons@imelda.be%2,         Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Harrison X.%Bai%NULL%2,                Ben%Hsieh%NULL%1,                Zeng%Xiong%NULL%1,                Kasey%Halsey%NULL%1,                Ji Whae%Choi%NULL%1,                Thi My Linh%Tran%NULL%1,                Ian%Pan%NULL%1,                Lin-Bo%Shi%NULL%1,                Dong-Cui%Wang%NULL%1,                Ji%Mei%NULL%1,                Xiao-Long%Jiang%NULL%1,                Qiu-Hua%Zeng%NULL%1,                Thomas K.%Egglin%NULL%1,                Ping-Feng%Hu%NULL%1,                Saurabh%Agarwal%NULL%1,                Fangfang%Xie%NULL%1,                Sha%Li%NULL%1,                Terrance%Healey%NULL%1,                Michael K.%Atalay%NULL%1,                Wei-Hua%Liao%liaoweihua2017@163.com%1,               Harrison X.%Bai%NULL%1,               Ben%Hsieh%NULL%1,               Zeng%Xiong%NULL%1,               Kasey%Halsey%NULL%1,               Ji Whae%Choi%NULL%1,               Thi My Linh%Tran%NULL%1,               Ian%Pan%NULL%1,               Lin-Bo%Shi%NULL%1,               Dong-Cui%Wang%NULL%1,               Ji%Mei%NULL%1,               Xiao-Long%Jiang%NULL%1,               Qiu-Hua%Zeng%NULL%1,               Thomas K.%Egglin%NULL%1,               Ping-Feng%Hu%NULL%1,               Saurabh%Agarwal%NULL%1,               Fangfang%Xie%NULL%1,               Sha%Li%NULL%1,               Terrance%Healey%NULL%1,               Michael K.%Atalay%NULL%1,               Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Damiano%Caruso%NULL%2,                Marta%Zerunian%NULL%1,                Michela%Polici%NULL%1,                Francesco%Pucciarelli%NULL%1,                Tiziano%Polidori%NULL%1,                Carlotta%Rucci%NULL%1,                Gisella%Guido%NULL%1,                Benedetta%Bracci%NULL%1,                Chiara%de Dominicis%NULL%1,                Andrea%Laghi%andrea.laghi@uniroma1.it%1,               Damiano%Caruso%NULL%1,               Marta%Zerunian%NULL%1,               Michela%Polici%NULL%1,               Francesco%Pucciarelli%NULL%1,               Tiziano%Polidori%NULL%1,               Carlotta%Rucci%NULL%1,               Gisella%Guido%NULL%1,               Benedetta%Bracci%NULL%1,               Chiara%de Dominicis%NULL%1,               Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
   </si>
   <si>
     <t xml:space="preserve">Objectives
@@ -730,12 +331,6 @@
 </t>
   </si>
   <si>
-    <t>[Xiaofeng%Chen%NULL%2,                Yanyan%Tang%NULL%1,                Yongkang%Mo%NULL%1,                Shengkai%Li%NULL%1,                Daiying%Lin%NULL%1,                Zhijian%Yang%NULL%1,                Zhiqi%Yang%NULL%1,                Hongfu%Sun%NULL%1,                Jinming%Qiu%NULL%1,                Yuting%Liao%NULL%1,                Jianning%Xiao%NULL%1,                Xiangguang%Chen%NULL%1,                Xianheng%Wu%NULL%1,                Renhua%Wu%NULL%1,                Zhuozhi%Dai%zhuozhi@ualberta.ca%1,               Xiaofeng%Chen%NULL%1,               Yanyan%Tang%NULL%1,               Yongkang%Mo%NULL%1,               Shengkai%Li%NULL%1,               Daiying%Lin%NULL%1,               Zhijian%Yang%NULL%1,               Zhiqi%Yang%NULL%1,               Hongfu%Sun%NULL%1,               Jinming%Qiu%NULL%1,               Yuting%Liao%NULL%1,               Jianning%Xiao%NULL%1,               Xiangguang%Chen%NULL%1,               Xianheng%Wu%NULL%1,               Renhua%Wu%NULL%1,               Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t>[Hyewon%Choi%NULL%2,                Xiaolong%Qi%NULL%1,                Soon Ho%Yoon%yshoka@gmail.com%1,                Sang Joon%Park%NULL%1,                Kyung Hee%Lee%NULL%1,                Jin Yong%Kim%NULL%1,                Young Kyung%Lee%NULL%1,                Hongseok%Ko%NULL%1,                Ki Hwan%Kim%NULL%1,                Chang Min%Park%NULL%1,                Yun-Hyeon%Kim%NULL%1,                Junqiang%Lei%NULL%1,                Jung Hee%Hong%NULL%1,                Hyungjin%Kim%NULL%1,                Eui Jin%Hwang%NULL%1,                Seung Jin%Yoo%NULL%1,                Ju Gang%Nam%NULL%1,                Chang Hyun%Lee%NULL%1,                Jin Mo%Goo%NULL%1,               Hyewon%Choi%NULL%1,               Xiaolong%Qi%NULL%1,               Soon Ho%Yoon%yshoka@gmail.com%1,               Sang Joon%Park%NULL%1,               Kyung Hee%Lee%NULL%1,               Jin Yong%Kim%NULL%1,               Young Kyung%Lee%NULL%1,               Hongseok%Ko%NULL%1,               Ki Hwan%Kim%NULL%1,               Chang Min%Park%NULL%1,               Yun-Hyeon%Kim%NULL%1,               Junqiang%Lei%NULL%1,               Jung Hee%Hong%NULL%1,               Hyungjin%Kim%NULL%1,               Eui Jin%Hwang%NULL%1,               Seung Jin%Yoo%NULL%1,               Ju Gang%Nam%NULL%1,               Chang Hyun%Lee%NULL%1,               Jin Mo%Goo%NULL%1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Purpose
 To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
 Materials and methods
@@ -751,24 +346,6 @@
 </t>
   </si>
   <si>
-    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,                Akihiko%Sakata%NULL%1,                Mitsuhiro%Kirita%NULL%1,                Takashi%Hiroi%NULL%1,                Ken-ichiro%Kobayashi%NULL%1,                Kenji%Kubo%NULL%1,                Hyunjin%Kim%NULL%1,                Azusa%Nishimoto%NULL%1,                Chikara%Maeda%NULL%1,                Akira%Kawamura%NULL%1,                Nobuhiro%Komiya%NULL%1,                Shigeaki%Umeoka%NULL%1,               Yuki%Himoto%yukihimoto@gmail.com%1,               Akihiko%Sakata%NULL%1,               Mitsuhiro%Kirita%NULL%1,               Takashi%Hiroi%NULL%1,               Ken-ichiro%Kobayashi%NULL%1,               Kenji%Kubo%NULL%1,               Hyunjin%Kim%NULL%1,               Azusa%Nishimoto%NULL%1,               Chikara%Maeda%NULL%1,               Akira%Kawamura%NULL%1,               Nobuhiro%Komiya%NULL%1,               Shigeaki%Umeoka%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Chunqin%Long%NULL%2,                Huaxiang%Xu%NULL%1,                Qinglin%Shen%NULL%1,                Xianghai%Zhang%NULL%1,                Bing%Fan%26171381@qq.com%1,                Chuanhong%Wang%NULL%1,                Bingliang%Zeng%NULL%1,                Zicong%Li%NULL%1,                Xiaofen%Li%NULL%1,                Honglu%Li%NULL%1,               Chunqin%Long%NULL%1,               Huaxiang%Xu%NULL%1,               Qinglin%Shen%NULL%1,               Xianghai%Zhang%NULL%1,               Bing%Fan%26171381@qq.com%1,               Chuanhong%Wang%NULL%1,               Bingliang%Zeng%NULL%1,               Zicong%Li%NULL%1,               Xiaofen%Li%NULL%1,               Honglu%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%4,               Christopher%Gieraerts%NULL%1,               Yves%De Bruecker%NULL%1,               Lode%Janssen%NULL%1,               Hanne%Valgaeren%NULL%1,               Dagmar%Obbels%NULL%1,               Marc%Gillis%NULL%1,               Marc%Van Ranst%NULL%0,               Johan%Frans%NULL%1,               Annick%Demeyere%NULL%1,               Rolf%Symons%rolf.symons@imelda.be%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0,             Kai%Xie%NULL%0,             Kai%Xie%NULL%0,             Hui%Lu%NULL%0,             Lei%Xu%bayinhexl@126.com%0,             Shusheng%Zhou%zhouss108@163.com%0,             Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,             Christopher%Gieraerts%NULL%2,             Christopher%Gieraerts%NULL%0,             Yves%De Bruecker%NULL%2,             Yves%De Bruecker%NULL%0,             Lode%Janssen%NULL%2,             Lode%Janssen%NULL%0,             Hanne%Valgaeren%NULL%2,             Hanne%Valgaeren%NULL%0,             Dagmar%Obbels%NULL%2,             Dagmar%Obbels%NULL%0,             Marc%Gillis%NULL%2,             Marc%Gillis%NULL%0,             Marc%Van Ranst%NULL%0,             Marc%Van Ranst%NULL%0,             Johan%Frans%NULL%1,             Annick%Demeyere%NULL%2,             Annick%Demeyere%NULL%0,             Rolf%Symons%rolf.symons@imelda.be%2,             Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
-    <t>[Anthony%Dangis%NULL%0,          Christopher%Gieraerts%NULL%2,          Christopher%Gieraerts%NULL%0,          Yves%De Bruecker%NULL%2,          Yves%De Bruecker%NULL%0,          Lode%Janssen%NULL%2,          Lode%Janssen%NULL%0,          Hanne%Valgaeren%NULL%2,          Hanne%Valgaeren%NULL%0,          Dagmar%Obbels%NULL%2,          Dagmar%Obbels%NULL%0,          Marc%Gillis%NULL%2,          Marc%Gillis%NULL%0,          Marc%Van Ranst%NULL%2,          Marc%Van Ranst%NULL%0,          Johan%Frans%NULL%1,          Annick%Demeyere%NULL%2,          Annick%Demeyere%NULL%0,          Rolf%Symons%rolf.symons@imelda.be%2,          Rolf%Symons%rolf.symons@imelda.be%0]</t>
-  </si>
-  <si>
     <t>[Harrison X.%Bai%NULL%2,                 Ben%Hsieh%NULL%1,                 Zeng%Xiong%NULL%1,                 Kasey%Halsey%NULL%1,                 Ji Whae%Choi%NULL%1,                 Thi My Linh%Tran%NULL%1,                 Ian%Pan%NULL%1,                 Lin-Bo%Shi%NULL%1,                 Dong-Cui%Wang%NULL%1,                 Ji%Mei%NULL%1,                 Xiao-Long%Jiang%NULL%1,                 Qiu-Hua%Zeng%NULL%1,                 Thomas K.%Egglin%NULL%1,                 Ping-Feng%Hu%NULL%1,                 Saurabh%Agarwal%NULL%1,                 Fangfang%Xie%NULL%1,                 Sha%Li%NULL%1,                 Terrance%Healey%NULL%1,                 Michael K.%Atalay%NULL%1,                 Wei-Hua%Liao%liaoweihua2017@163.com%1,                Harrison X.%Bai%NULL%1,                Ben%Hsieh%NULL%1,                Zeng%Xiong%NULL%1,                Kasey%Halsey%NULL%1,                Ji Whae%Choi%NULL%1,                Thi My Linh%Tran%NULL%1,                Ian%Pan%NULL%1,                Lin-Bo%Shi%NULL%1,                Dong-Cui%Wang%NULL%1,                Ji%Mei%NULL%1,                Xiao-Long%Jiang%NULL%1,                Qiu-Hua%Zeng%NULL%1,                Thomas K.%Egglin%NULL%1,                Ping-Feng%Hu%NULL%1,                Saurabh%Agarwal%NULL%1,                Fangfang%Xie%NULL%1,                Sha%Li%NULL%1,                Terrance%Healey%NULL%1,                Michael K.%Atalay%NULL%1,                Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
   </si>
   <si>
@@ -797,6 +374,12 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,           Christopher%Gieraerts%NULL%2,           Christopher%Gieraerts%NULL%0,           Yves%De Bruecker%NULL%2,           Yves%De Bruecker%NULL%0,           Lode%Janssen%NULL%2,           Lode%Janssen%NULL%0,           Hanne%Valgaeren%NULL%2,           Hanne%Valgaeren%NULL%0,           Dagmar%Obbels%NULL%2,           Dagmar%Obbels%NULL%0,           Marc%Gillis%NULL%2,           Marc%Gillis%NULL%0,           Marc%Van Ranst%NULL%2,           Marc%Van Ranst%NULL%0,           Johan%Frans%NULL%1,           Annick%Demeyere%NULL%2,           Annick%Demeyere%NULL%0,           Rolf%Symons%rolf.symons@imelda.be%2,           Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>10.1148/radiol.2020200642</t>
+  </si>
+  <si>
+    <t>10.2214/AJR.20.22959</t>
   </si>
 </sst>
 </file>
@@ -1066,15 +649,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,28 +665,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1111,344 +694,344 @@
         <v>44044</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2">
         <v>44044</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>44044</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>43937</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2">
         <v>44013</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>43922</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>43952</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>43952</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2">
         <v>44348</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>43922</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>44075</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>43922</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
   <si>
     <t>Doi</t>
   </si>
@@ -380,6 +380,36 @@
   </si>
   <si>
     <t>10.2214/AJR.20.22959</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,                  Ben%Hsieh%NULL%1,                  Zeng%Xiong%NULL%1,                  Kasey%Halsey%NULL%1,                  Ji Whae%Choi%NULL%1,                  Thi My Linh%Tran%NULL%1,                  Ian%Pan%NULL%1,                  Lin-Bo%Shi%NULL%1,                  Dong-Cui%Wang%NULL%1,                  Ji%Mei%NULL%1,                  Xiao-Long%Jiang%NULL%1,                  Qiu-Hua%Zeng%NULL%1,                  Thomas K.%Egglin%NULL%1,                  Ping-Feng%Hu%NULL%1,                  Saurabh%Agarwal%NULL%1,                  Fangfang%Xie%NULL%1,                  Sha%Li%NULL%1,                  Terrance%Healey%NULL%1,                  Michael K.%Atalay%NULL%1,                  Wei-Hua%Liao%liaoweihua2017@163.com%1,                 Harrison X.%Bai%NULL%1,                 Ben%Hsieh%NULL%1,                 Zeng%Xiong%NULL%1,                 Kasey%Halsey%NULL%1,                 Ji Whae%Choi%NULL%1,                 Thi My Linh%Tran%NULL%1,                 Ian%Pan%NULL%1,                 Lin-Bo%Shi%NULL%1,                 Dong-Cui%Wang%NULL%1,                 Ji%Mei%NULL%1,                 Xiao-Long%Jiang%NULL%1,                 Qiu-Hua%Zeng%NULL%1,                 Thomas K.%Egglin%NULL%1,                 Ping-Feng%Hu%NULL%1,                 Saurabh%Agarwal%NULL%1,                 Fangfang%Xie%NULL%1,                 Sha%Li%NULL%1,                 Terrance%Healey%NULL%1,                 Michael K.%Atalay%NULL%1,                 Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,                  Marta%Zerunian%NULL%1,                  Michela%Polici%NULL%1,                  Francesco%Pucciarelli%NULL%1,                  Tiziano%Polidori%NULL%1,                  Carlotta%Rucci%NULL%1,                  Gisella%Guido%NULL%1,                  Benedetta%Bracci%NULL%1,                  Chiara%de Dominicis%NULL%1,                  Andrea%Laghi%andrea.laghi@uniroma1.it%1,                 Damiano%Caruso%NULL%1,                 Marta%Zerunian%NULL%1,                 Michela%Polici%NULL%1,                 Francesco%Pucciarelli%NULL%1,                 Tiziano%Polidori%NULL%1,                 Carlotta%Rucci%NULL%1,                 Gisella%Guido%NULL%1,                 Benedetta%Bracci%NULL%1,                 Chiara%de Dominicis%NULL%1,                 Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,                  Yanyan%Tang%NULL%1,                  Yongkang%Mo%NULL%1,                  Shengkai%Li%NULL%1,                  Daiying%Lin%NULL%1,                  Zhijian%Yang%NULL%1,                  Zhiqi%Yang%NULL%1,                  Hongfu%Sun%NULL%1,                  Jinming%Qiu%NULL%1,                  Yuting%Liao%NULL%1,                  Jianning%Xiao%NULL%1,                  Xiangguang%Chen%NULL%1,                  Xianheng%Wu%NULL%1,                  Renhua%Wu%NULL%1,                  Zhuozhi%Dai%zhuozhi@ualberta.ca%1,                 Xiaofeng%Chen%NULL%1,                 Yanyan%Tang%NULL%1,                 Yongkang%Mo%NULL%1,                 Shengkai%Li%NULL%1,                 Daiying%Lin%NULL%1,                 Zhijian%Yang%NULL%1,                 Zhiqi%Yang%NULL%1,                 Hongfu%Sun%NULL%1,                 Jinming%Qiu%NULL%1,                 Yuting%Liao%NULL%1,                 Jianning%Xiao%NULL%1,                 Xiangguang%Chen%NULL%1,                 Xianheng%Wu%NULL%1,                 Renhua%Wu%NULL%1,                 Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,                  Xiaolong%Qi%NULL%1,                  Soon Ho%Yoon%yshoka@gmail.com%1,                  Sang Joon%Park%NULL%1,                  Kyung Hee%Lee%NULL%1,                  Jin Yong%Kim%NULL%1,                  Young Kyung%Lee%NULL%1,                  Hongseok%Ko%NULL%1,                  Ki Hwan%Kim%NULL%1,                  Chang Min%Park%NULL%1,                  Yun-Hyeon%Kim%NULL%1,                  Junqiang%Lei%NULL%1,                  Jung Hee%Hong%NULL%1,                  Hyungjin%Kim%NULL%1,                  Eui Jin%Hwang%NULL%1,                  Seung Jin%Yoo%NULL%1,                  Ju Gang%Nam%NULL%1,                  Chang Hyun%Lee%NULL%1,                  Jin Mo%Goo%NULL%1,                 Hyewon%Choi%NULL%1,                 Xiaolong%Qi%NULL%1,                 Soon Ho%Yoon%yshoka@gmail.com%1,                 Sang Joon%Park%NULL%1,                 Kyung Hee%Lee%NULL%1,                 Jin Yong%Kim%NULL%1,                 Young Kyung%Lee%NULL%1,                 Hongseok%Ko%NULL%1,                 Ki Hwan%Kim%NULL%1,                 Chang Min%Park%NULL%1,                 Yun-Hyeon%Kim%NULL%1,                 Junqiang%Lei%NULL%1,                 Jung Hee%Hong%NULL%1,                 Hyungjin%Kim%NULL%1,                 Eui Jin%Hwang%NULL%1,                 Seung Jin%Yoo%NULL%1,                 Ju Gang%Nam%NULL%1,                 Chang Hyun%Lee%NULL%1,                 Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,                  Akihiko%Sakata%NULL%1,                  Mitsuhiro%Kirita%NULL%1,                  Takashi%Hiroi%NULL%1,                  Ken-ichiro%Kobayashi%NULL%1,                  Kenji%Kubo%NULL%1,                  Hyunjin%Kim%NULL%1,                  Azusa%Nishimoto%NULL%1,                  Chikara%Maeda%NULL%1,                  Akira%Kawamura%NULL%1,                  Nobuhiro%Komiya%NULL%1,                  Shigeaki%Umeoka%NULL%1,                 Yuki%Himoto%yukihimoto@gmail.com%1,                 Akihiko%Sakata%NULL%1,                 Mitsuhiro%Kirita%NULL%1,                 Takashi%Hiroi%NULL%1,                 Ken-ichiro%Kobayashi%NULL%1,                 Kenji%Kubo%NULL%1,                 Hyunjin%Kim%NULL%1,                 Azusa%Nishimoto%NULL%1,                 Chikara%Maeda%NULL%1,                 Akira%Kawamura%NULL%1,                 Nobuhiro%Komiya%NULL%1,                 Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,                  Huaxiang%Xu%NULL%1,                  Qinglin%Shen%NULL%1,                  Xianghai%Zhang%NULL%1,                  Bing%Fan%26171381@qq.com%1,                  Chuanhong%Wang%NULL%1,                  Bingliang%Zeng%NULL%1,                  Zicong%Li%NULL%1,                  Xiaofen%Li%NULL%1,                  Honglu%Li%NULL%1,                 Chunqin%Long%NULL%1,                 Huaxiang%Xu%NULL%1,                 Qinglin%Shen%NULL%1,                 Xianghai%Zhang%NULL%1,                 Bing%Fan%26171381@qq.com%1,                 Chuanhong%Wang%NULL%1,                 Bingliang%Zeng%NULL%1,                 Zicong%Li%NULL%1,                 Xiaofen%Li%NULL%1,                 Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,                 Christopher%Gieraerts%NULL%1,                 Yves%De Bruecker%NULL%1,                 Lode%Janssen%NULL%1,                 Hanne%Valgaeren%NULL%1,                 Dagmar%Obbels%NULL%1,                 Marc%Gillis%NULL%1,                 Marc%Van Ranst%NULL%0,                 Johan%Frans%NULL%1,                 Annick%Demeyere%NULL%1,                 Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,               Kai%Xie%NULL%0,               Kai%Xie%NULL%0,               Hui%Lu%NULL%0,               Lei%Xu%bayinhexl@126.com%0,               Shusheng%Zhou%zhouss108@163.com%0,               Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,               Christopher%Gieraerts%NULL%2,               Christopher%Gieraerts%NULL%0,               Yves%De Bruecker%NULL%2,               Yves%De Bruecker%NULL%0,               Lode%Janssen%NULL%2,               Lode%Janssen%NULL%0,               Hanne%Valgaeren%NULL%2,               Hanne%Valgaeren%NULL%0,               Dagmar%Obbels%NULL%2,               Dagmar%Obbels%NULL%0,               Marc%Gillis%NULL%2,               Marc%Gillis%NULL%0,               Marc%Van Ranst%NULL%0,               Marc%Van Ranst%NULL%0,               Johan%Frans%NULL%1,               Annick%Demeyere%NULL%2,               Annick%Demeyere%NULL%0,               Rolf%Symons%rolf.symons@imelda.be%2,               Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,            Christopher%Gieraerts%NULL%2,            Christopher%Gieraerts%NULL%0,            Yves%De Bruecker%NULL%2,            Yves%De Bruecker%NULL%0,            Lode%Janssen%NULL%2,            Lode%Janssen%NULL%0,            Hanne%Valgaeren%NULL%2,            Hanne%Valgaeren%NULL%0,            Dagmar%Obbels%NULL%2,            Dagmar%Obbels%NULL%0,            Marc%Gillis%NULL%2,            Marc%Gillis%NULL%0,            Marc%Van Ranst%NULL%2,            Marc%Van Ranst%NULL%0,            Johan%Frans%NULL%1,            Annick%Demeyere%NULL%2,            Annick%Demeyere%NULL%0,            Rolf%Symons%rolf.symons@imelda.be%2,            Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -700,7 +730,7 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -758,7 +788,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -787,7 +817,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -845,7 +875,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -874,7 +904,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -903,7 +933,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -932,7 +962,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -961,7 +991,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -990,7 +1020,7 @@
         <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1019,7 +1049,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="94">
   <si>
     <t>Doi</t>
   </si>
@@ -410,6 +410,36 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,            Christopher%Gieraerts%NULL%2,            Christopher%Gieraerts%NULL%0,            Yves%De Bruecker%NULL%2,            Yves%De Bruecker%NULL%0,            Lode%Janssen%NULL%2,            Lode%Janssen%NULL%0,            Hanne%Valgaeren%NULL%2,            Hanne%Valgaeren%NULL%0,            Dagmar%Obbels%NULL%2,            Dagmar%Obbels%NULL%0,            Marc%Gillis%NULL%2,            Marc%Gillis%NULL%0,            Marc%Van Ranst%NULL%2,            Marc%Van Ranst%NULL%0,            Johan%Frans%NULL%1,            Annick%Demeyere%NULL%2,            Annick%Demeyere%NULL%0,            Rolf%Symons%rolf.symons@imelda.be%2,            Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,                   Ben%Hsieh%NULL%1,                   Zeng%Xiong%NULL%1,                   Kasey%Halsey%NULL%1,                   Ji Whae%Choi%NULL%1,                   Thi My Linh%Tran%NULL%1,                   Ian%Pan%NULL%1,                   Lin-Bo%Shi%NULL%1,                   Dong-Cui%Wang%NULL%1,                   Ji%Mei%NULL%1,                   Xiao-Long%Jiang%NULL%1,                   Qiu-Hua%Zeng%NULL%1,                   Thomas K.%Egglin%NULL%1,                   Ping-Feng%Hu%NULL%1,                   Saurabh%Agarwal%NULL%1,                   Fangfang%Xie%NULL%1,                   Sha%Li%NULL%1,                   Terrance%Healey%NULL%1,                   Michael K.%Atalay%NULL%1,                   Wei-Hua%Liao%liaoweihua2017@163.com%1,                  Harrison X.%Bai%NULL%1,                  Ben%Hsieh%NULL%1,                  Zeng%Xiong%NULL%1,                  Kasey%Halsey%NULL%1,                  Ji Whae%Choi%NULL%1,                  Thi My Linh%Tran%NULL%1,                  Ian%Pan%NULL%1,                  Lin-Bo%Shi%NULL%1,                  Dong-Cui%Wang%NULL%1,                  Ji%Mei%NULL%1,                  Xiao-Long%Jiang%NULL%1,                  Qiu-Hua%Zeng%NULL%1,                  Thomas K.%Egglin%NULL%1,                  Ping-Feng%Hu%NULL%1,                  Saurabh%Agarwal%NULL%1,                  Fangfang%Xie%NULL%1,                  Sha%Li%NULL%1,                  Terrance%Healey%NULL%1,                  Michael K.%Atalay%NULL%1,                  Wei-Hua%Liao%liaoweihua2017@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,                   Marta%Zerunian%NULL%1,                   Michela%Polici%NULL%1,                   Francesco%Pucciarelli%NULL%1,                   Tiziano%Polidori%NULL%1,                   Carlotta%Rucci%NULL%1,                   Gisella%Guido%NULL%1,                   Benedetta%Bracci%NULL%1,                   Chiara%de Dominicis%NULL%1,                   Andrea%Laghi%andrea.laghi@uniroma1.it%1,                  Damiano%Caruso%NULL%1,                  Marta%Zerunian%NULL%1,                  Michela%Polici%NULL%1,                  Francesco%Pucciarelli%NULL%1,                  Tiziano%Polidori%NULL%1,                  Carlotta%Rucci%NULL%1,                  Gisella%Guido%NULL%1,                  Benedetta%Bracci%NULL%1,                  Chiara%de Dominicis%NULL%1,                  Andrea%Laghi%andrea.laghi@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,                   Yanyan%Tang%NULL%1,                   Yongkang%Mo%NULL%1,                   Shengkai%Li%NULL%1,                   Daiying%Lin%NULL%1,                   Zhijian%Yang%NULL%1,                   Zhiqi%Yang%NULL%1,                   Hongfu%Sun%NULL%1,                   Jinming%Qiu%NULL%1,                   Yuting%Liao%NULL%1,                   Jianning%Xiao%NULL%1,                   Xiangguang%Chen%NULL%1,                   Xianheng%Wu%NULL%1,                   Renhua%Wu%NULL%1,                   Zhuozhi%Dai%zhuozhi@ualberta.ca%1,                  Xiaofeng%Chen%NULL%1,                  Yanyan%Tang%NULL%1,                  Yongkang%Mo%NULL%1,                  Shengkai%Li%NULL%1,                  Daiying%Lin%NULL%1,                  Zhijian%Yang%NULL%1,                  Zhiqi%Yang%NULL%1,                  Hongfu%Sun%NULL%1,                  Jinming%Qiu%NULL%1,                  Yuting%Liao%NULL%1,                  Jianning%Xiao%NULL%1,                  Xiangguang%Chen%NULL%1,                  Xianheng%Wu%NULL%1,                  Renhua%Wu%NULL%1,                  Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,                   Xiaolong%Qi%NULL%1,                   Soon Ho%Yoon%yshoka@gmail.com%1,                   Sang Joon%Park%NULL%1,                   Kyung Hee%Lee%NULL%1,                   Jin Yong%Kim%NULL%1,                   Young Kyung%Lee%NULL%1,                   Hongseok%Ko%NULL%1,                   Ki Hwan%Kim%NULL%1,                   Chang Min%Park%NULL%1,                   Yun-Hyeon%Kim%NULL%1,                   Junqiang%Lei%NULL%1,                   Jung Hee%Hong%NULL%1,                   Hyungjin%Kim%NULL%1,                   Eui Jin%Hwang%NULL%1,                   Seung Jin%Yoo%NULL%1,                   Ju Gang%Nam%NULL%1,                   Chang Hyun%Lee%NULL%1,                   Jin Mo%Goo%NULL%1,                  Hyewon%Choi%NULL%1,                  Xiaolong%Qi%NULL%1,                  Soon Ho%Yoon%yshoka@gmail.com%1,                  Sang Joon%Park%NULL%1,                  Kyung Hee%Lee%NULL%1,                  Jin Yong%Kim%NULL%1,                  Young Kyung%Lee%NULL%1,                  Hongseok%Ko%NULL%1,                  Ki Hwan%Kim%NULL%1,                  Chang Min%Park%NULL%1,                  Yun-Hyeon%Kim%NULL%1,                  Junqiang%Lei%NULL%1,                  Jung Hee%Hong%NULL%1,                  Hyungjin%Kim%NULL%1,                  Eui Jin%Hwang%NULL%1,                  Seung Jin%Yoo%NULL%1,                  Ju Gang%Nam%NULL%1,                  Chang Hyun%Lee%NULL%1,                  Jin Mo%Goo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,                   Akihiko%Sakata%NULL%1,                   Mitsuhiro%Kirita%NULL%1,                   Takashi%Hiroi%NULL%1,                   Ken-ichiro%Kobayashi%NULL%1,                   Kenji%Kubo%NULL%1,                   Hyunjin%Kim%NULL%1,                   Azusa%Nishimoto%NULL%1,                   Chikara%Maeda%NULL%1,                   Akira%Kawamura%NULL%1,                   Nobuhiro%Komiya%NULL%1,                   Shigeaki%Umeoka%NULL%1,                  Yuki%Himoto%yukihimoto@gmail.com%1,                  Akihiko%Sakata%NULL%1,                  Mitsuhiro%Kirita%NULL%1,                  Takashi%Hiroi%NULL%1,                  Ken-ichiro%Kobayashi%NULL%1,                  Kenji%Kubo%NULL%1,                  Hyunjin%Kim%NULL%1,                  Azusa%Nishimoto%NULL%1,                  Chikara%Maeda%NULL%1,                  Akira%Kawamura%NULL%1,                  Nobuhiro%Komiya%NULL%1,                  Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,                   Huaxiang%Xu%NULL%1,                   Qinglin%Shen%NULL%1,                   Xianghai%Zhang%NULL%1,                   Bing%Fan%26171381@qq.com%1,                   Chuanhong%Wang%NULL%1,                   Bingliang%Zeng%NULL%1,                   Zicong%Li%NULL%1,                   Xiaofen%Li%NULL%1,                   Honglu%Li%NULL%1,                  Chunqin%Long%NULL%1,                  Huaxiang%Xu%NULL%1,                  Qinglin%Shen%NULL%1,                  Xianghai%Zhang%NULL%1,                  Bing%Fan%26171381@qq.com%1,                  Chuanhong%Wang%NULL%1,                  Bingliang%Zeng%NULL%1,                  Zicong%Li%NULL%1,                  Xiaofen%Li%NULL%1,                  Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%4,                  Christopher%Gieraerts%NULL%1,                  Yves%De Bruecker%NULL%1,                  Lode%Janssen%NULL%1,                  Hanne%Valgaeren%NULL%1,                  Dagmar%Obbels%NULL%1,                  Marc%Gillis%NULL%1,                  Marc%Van Ranst%NULL%0,                  Johan%Frans%NULL%1,                  Annick%Demeyere%NULL%1,                  Rolf%Symons%rolf.symons@imelda.be%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                Kai%Xie%NULL%0,                Kai%Xie%NULL%0,                Hui%Lu%NULL%0,                Lei%Xu%bayinhexl@126.com%0,                Shusheng%Zhou%zhouss108@163.com%0,                Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                Christopher%Gieraerts%NULL%2,                Christopher%Gieraerts%NULL%0,                Yves%De Bruecker%NULL%2,                Yves%De Bruecker%NULL%0,                Lode%Janssen%NULL%2,                Lode%Janssen%NULL%0,                Hanne%Valgaeren%NULL%2,                Hanne%Valgaeren%NULL%0,                Dagmar%Obbels%NULL%2,                Dagmar%Obbels%NULL%0,                Marc%Gillis%NULL%2,                Marc%Gillis%NULL%0,                Marc%Van Ranst%NULL%0,                Marc%Van Ranst%NULL%0,                Johan%Frans%NULL%1,                Annick%Demeyere%NULL%2,                Annick%Demeyere%NULL%0,                Rolf%Symons%rolf.symons@imelda.be%2,                Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,             Christopher%Gieraerts%NULL%2,             Christopher%Gieraerts%NULL%0,             Yves%De Bruecker%NULL%2,             Yves%De Bruecker%NULL%0,             Lode%Janssen%NULL%2,             Lode%Janssen%NULL%0,             Hanne%Valgaeren%NULL%2,             Hanne%Valgaeren%NULL%0,             Dagmar%Obbels%NULL%2,             Dagmar%Obbels%NULL%0,             Marc%Gillis%NULL%2,             Marc%Gillis%NULL%0,             Marc%Van Ranst%NULL%2,             Marc%Van Ranst%NULL%0,             Johan%Frans%NULL%1,             Annick%Demeyere%NULL%2,             Annick%Demeyere%NULL%0,             Rolf%Symons%rolf.symons@imelda.be%2,             Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -730,7 +760,7 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -788,7 +818,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -817,7 +847,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -875,7 +905,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -904,7 +934,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -933,7 +963,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -962,7 +992,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -991,7 +1021,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1020,7 +1050,7 @@
         <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1049,7 +1079,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="138">
   <si>
     <t>Doi</t>
   </si>
@@ -440,6 +440,243 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,             Christopher%Gieraerts%NULL%2,             Christopher%Gieraerts%NULL%0,             Yves%De Bruecker%NULL%2,             Yves%De Bruecker%NULL%0,             Lode%Janssen%NULL%2,             Lode%Janssen%NULL%0,             Hanne%Valgaeren%NULL%2,             Hanne%Valgaeren%NULL%0,             Dagmar%Obbels%NULL%2,             Dagmar%Obbels%NULL%0,             Marc%Gillis%NULL%2,             Marc%Gillis%NULL%0,             Marc%Van Ranst%NULL%2,             Marc%Van Ranst%NULL%0,             Johan%Frans%NULL%1,             Annick%Demeyere%NULL%2,             Annick%Demeyere%NULL%0,             Rolf%Symons%rolf.symons@imelda.be%2,             Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0, Ben%Hsieh%NULL%1, Zeng%Xiong%NULL%2, Zeng%Xiong%NULL%0, Kasey%Halsey%NULL%2, Kasey%Halsey%NULL%0, Ji Whae%Choi%NULL%2, Ji Whae%Choi%NULL%0, Thi My Linh%Tran%NULL%2, Thi My Linh%Tran%NULL%0, Ian%Pan%NULL%2, Ian%Pan%NULL%0, Lin-Bo%Shi%NULL%2, Lin-Bo%Shi%NULL%0, Dong-Cui%Wang%NULL%1, Ji%Mei%NULL%2, Ji%Mei%NULL%0, Xiao-Long%Jiang%NULL%1, Qiu-Hua%Zeng%NULL%1, Thomas K.%Egglin%NULL%1, Ping-Feng%Hu%NULL%2, Ping-Feng%Hu%NULL%0, Saurabh%Agarwal%NULL%1, Fangfang%Xie%NULL%2, Fangfang%Xie%NULL%0, Sha%Li%NULL%1, Terrance%Healey%NULL%2, Terrance%Healey%NULL%0, Michael K.%Atalay%NULL%1, Wei-Hua%Liao%liaoweihua2017@163.com%2, Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>Correlation of Chest CT and RT-PCR Testing in Coronavirus Disease 2019 (COVID-19) in China: A Report of 1014 Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Chest CT is used for diagnosis of 2019 novel coronavirus disease (COVID-19), as an important complement to the reverse-transcription polymerase chain reaction (RT-PCR) tests.
+Purpose
+To investigate the diagnostic value and consistency of chest CT as compared with comparison to RT-PCR assay in COVID-19.
+Methods
+From January 6 to February 6, 2020, 1014 patients in Wuhan, China who underwent both chest CT and RT-PCR tests were included.
+ With RT-PCR as reference standard, the performance of chest CT in diagnosing COVID-19 was assessed.
+ Besides, for patients with multiple RT-PCR assays, the dynamic conversion of RT-PCR results (negative to positive, positive to negative, respectively) was analyzed as compared with serial chest CT scans for those with time-interval of 4 days or more.
+Results
+Of 1014 patients, 59% (601/1014) had positive RT-PCR results, and 88% (888/1014) had positive chest CT scans.
+ The sensitivity of chest CT in suggesting COVID-19 was 97% (95%CI, 95-98%, 580/601 patients) based on positive RT-PCR results.
+ In patients with negative RT-PCR results, 75% (308/413) had positive chest CT findings; of 308, 48% were considered as highly likely cases, with 33% as probable cases.
+ By analysis of serial RT-PCR assays and CT scans, the mean interval time between the initial negative to positive RT-PCR results was 5.1 ± 1.5 days; the initial positive to subsequent negative RT-PCR result was 6.9 ± 2.3 days).
+ 60% to 93% of cases had initial positive CT consistent with COVID-19 prior (or parallel) to the initial positive RT-PCR results.
+ 42% (24/57) cases showed improvement in follow-up chest CT scans before the RT-PCR results turning negative.
+Conclusion
+Chest CT has a high sensitivity for diagnosis of COVID-19. Chest CT may be considered as a primary tool for the current COVID-19 detection in epidemic areas.
+</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0, Zhenlu%Yang%NULL%2, Zhenlu%Yang%NULL%0, Hongyan%Hou%NULL%2, Hongyan%Hou%NULL%0, Chenao%Zhan%NULL%1, Chong%Chen%NULL%1, Wenzhi%Lv%NULL%2, Wenzhi%Lv%NULL%0, Qian%Tao%NULL%2, Qian%Tao%NULL%0, Ziyong%Sun%NULL%2, Ziyong%Sun%NULL%0, Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7233399</t>
+  </si>
+  <si>
+    <t>_Core_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0, Marta%Zerunian%NULL%2, Marta%Zerunian%NULL%0, Michela%Polici%NULL%2, Michela%Polici%NULL%0, Francesco%Pucciarelli%NULL%2, Francesco%Pucciarelli%NULL%0, Tiziano%Polidori%NULL%2, Tiziano%Polidori%NULL%0, Carlotta%Rucci%NULL%2, Carlotta%Rucci%NULL%0, Gisella%Guido%NULL%2, Gisella%Guido%NULL%0, Benedetta%Bracci%NULL%2, Benedetta%Bracci%NULL%0, Chiara%de Dominicis%NULL%2, Chiara%de Dominicis%NULL%0, Andrea%Laghi%andrea.laghi@uniroma1.it%2, Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+id="Par1"&gt;Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+id="Par2"&gt;A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+id="Par3"&gt;Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+id="Par5"&gt;
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0, Yanyan%Tang%NULL%1, Yongkang%Mo%NULL%1, Shengkai%Li%NULL%1, Daiying%Lin%NULL%1, Zhijian%Yang%NULL%1, Zhiqi%Yang%NULL%1, Hongfu%Sun%NULL%1, Jinming%Qiu%NULL%1, Yuting%Liao%NULL%1, Jianning%Xiao%NULL%1, Xiangguang%Chen%NULL%1, Xianheng%Wu%NULL%1, Renhua%Wu%NULL%1, Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>_Springer_Core_CROSSREF</t>
+  </si>
+  <si>
+    <t>"Clinical Features and Chest CT Manifestations of Coronavirus Disease 2019 (COVID-19) in a Single-Center Study in Shanghai, China"</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0, Yong%Lu%xref no email%1, Qiqi%Cao%xref no email%1, Le%Qin%xref no email%1, Zilai%Pan%xref no email%1, Fuhua%Yan%xref no email%1, Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0, Xiaolong%Qi%NULL%2, Xiaolong%Qi%NULL%0, Soon Ho%Yoon%yshoka@gmail.com%2, Soon Ho%Yoon%yshoka@gmail.com%0, Sang Joon%Park%NULL%2, Sang Joon%Park%NULL%0, Kyung Hee%Lee%NULL%2, Kyung Hee%Lee%NULL%0, Jin Yong%Kim%NULL%0, Jin Yong%Kim%NULL%0, Young Kyung%Lee%NULL%2, Young Kyung%Lee%NULL%0, Hongseok%Ko%NULL%2, Hongseok%Ko%NULL%0, Ki Hwan%Kim%NULL%2, Ki Hwan%Kim%NULL%0, Chang Min%Park%NULL%2, Chang Min%Park%NULL%0, Yun-Hyeon%Kim%NULL%2, Yun-Hyeon%Kim%NULL%0, Junqiang%Lei%NULL%0, Junqiang%Lei%NULL%0, Jung Hee%Hong%NULL%2, Jung Hee%Hong%NULL%0, Hyungjin%Kim%NULL%2, Hyungjin%Kim%NULL%0, Eui Jin%Hwang%NULL%2, Eui Jin%Hwang%NULL%0, Seung Jin%Yoo%NULL%2, Seung Jin%Yoo%NULL%0, Ju Gang%Nam%NULL%2, Ju Gang%Nam%NULL%0, Chang Hyun%Lee%NULL%2, Chang Hyun%Lee%NULL%0, Jin Mo%Goo%NULL%2, Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+id="Par1"&gt;To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
+Materials and methods
+id="Par2"&gt;This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
+ Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
+Results
+id="Par3"&gt;All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
+ The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
+Conclusion
+id="Par4"&gt;Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
+Electronic supplementary material
+The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0, Akihiko%Sakata%NULL%1, Mitsuhiro%Kirita%NULL%1, Takashi%Hiroi%NULL%1, Ken-ichiro%Kobayashi%NULL%1, Kenji%Kubo%NULL%1, Hyunjin%Kim%NULL%1, Azusa%Nishimoto%NULL%1, Chikara%Maeda%NULL%1, Akira%Kawamura%NULL%1, Nobuhiro%Komiya%NULL%1, Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0, Huaxiang%Xu%NULL%1, Qinglin%Shen%NULL%1, Xianghai%Zhang%NULL%1, Bing%Fan%26171381@qq.com%1, Chuanhong%Wang%NULL%1, Bingliang%Zeng%NULL%1, Zicong%Li%NULL%1, Xiaofen%Li%NULL%1, Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>Early chest computed tomography to diagnose COVID-19 from suspected patients: A multicenter retrospective study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The purpose of this study was to distinguish the imaging features of COVID-19 from those of other infectious pulmonary diseases and evaluate the diagnostic value of chest CT for suspected COVID-19 patients.
+Methods
+Adult patients suspected of COVID-19 aged &amp;gt;18 years who underwent chest CT scans and reverse-transcription polymerase chain reaction (RT-PCR) tests within 14 days of symptom onset were enrolled.
+ The enrolled patients were confirmed and grouped according to the results of the RT-PCR tests.
+ The basic demographics, single chest CT features, and combined chest CT features were analyzed for the confirmed and nonconfirmed groups.
+Results
+A total of 130 patients were enrolled, with 54 testing positive and 76 testing negative.
+ The typical CT imaging features of the positive group were ground glass opacities (GGOs), the crazy-paving pattern and air bronchogram.
+ The lesions were mostly distributed bilaterally and close to the lower lungs or the pleura.
+ When features were combined, GGOs with bilateral pulmonary distribution and GGOs with pleural distribution were more common among the positive patients, found in 31 (57.4%) and 30 patients (55.6%), respectively.
+ The combinations were almost all statistically significant (P &amp;lt; .
+05), except for the combination of GGOs with consolidation.
+ Most combinations presented relatively low sensitivity but extremely high specificity.
+ The average specificity of these combinations was approximately 90%.
+Conclusions
+The combinations with GGOs could be useful in the identification and differential diagnosis of COVID-19, alerting clinicians to isolate patients for prompt treatment and repeat RT-PCR tests until the end of incubation.
+</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0, Mengdi%Jin%NULL%1, Li%Miao%NULL%1, Xinying%Yang%NULL%1, Peng%Huang%NULL%1, Huanwen%Xiong%NULL%1, Peijie%Huang%NULL%1, Qi%Zhao%NULL%1, Jiang%Du%NULL%0, Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>2020-04-14</t>
+  </si>
+  <si>
+    <t>Coronavirus Disease 2019: Initial Detection on Chest CT in a Retrospective Multicenter Study of 103 Chinese Patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To evaluate the performance of chest CT regarding the initial presentation of patients suspected of having coronavirus disease 2019 (COVID-19).
+Materials and Methods
+Data from 103 patients who were under investigation for COVID-19 based on inclusion criteria according to the World Health Organization Interim Guidance were retrospectively collected from January 21, 2020, to February 14, 2020. All patients underwent chest CT scanning and reverse-transcription polymerase chain reaction (RT-PCR) testing for COVID-19 at hospital presentation.
+ The sensitivity, specificity, positive predictive value (PPV), and negative predictive value (NPV) (with 95% confidence intervals) were calculated to evaluate the performance of CT.
+ Subgroup analyses were also performed based on the geographical distribution of these cases in the province of Henan, China.
+Results
+There were 88/103 (85%) patients with COVID-19 confirmed by RT-PCR testing.
+ The overall sensitivity, specificity, PPV, and NPV were 93% (85%, 97%), 53% (27%, 77%), 92% (83%, 96%), and 42% (18%, 70%), respectively.
+ Similar results were shown in both geographic regions.
+ The respective sensitivity, specificity, PPV, and NPV for chest CT in the districts of Xinyang and Zhumadian (n = 56) were 92% (80%, 97%), 63% (26%, 90%), 93% (81%, 98%), and 56% (23%, 85%), while these indicators in the district of Anyang (n = 47) were 95% (81%, 99%), 43% (12%, 80%), 90% (76%, 97%), and 60% (17%–93%).
+ There were no significant differences in the prevalence of positive examinations in the two geographic subgroups for CT (P = .
+423) or RT-PCR (P = .
+931).
+Conclusion
+Although initial chest CT obtained at hospital presentation showed high sensitivity in patients under investigation for COVID-19 in the two geographic regions in Henan Province, the NPV was only modest, suggesting a low value of CT as a screening tool.
+</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0, Yonge%Chi%NULL%2, Yonge%Chi%NULL%0, Liang%Zhang%NULL%2, Liang%Zhang%NULL%0, Huan%Liu%NULL%2, Huan%Liu%NULL%0, Kun%Du%NULL%1, Zhengxing%Li%NULL%2, Zhengxing%Li%NULL%0, Jie%Chen%NULL%0, Jie%Chen%NULL%0, Liuhui%Cheng%NULL%2, Liuhui%Cheng%NULL%0, Daoqing%Wang%wangdaoqing1215@126.com%2, Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With an increasing number of Coronavirus Disease 2019 (COVID‐19) cases outside of Hubei, emergency departments (EDs) and fever clinics are facing challenges posed by the large number of admissions of patients suspected to have COVID‐19. Therefore, it is of crucial importance to study the initial clinical features of patients, to better differentiate between infected and uninfected patients outside Hubei.
+ A total of 116 patients suspected of having COVID‐19 who presented to two emergency departments in Anhui for the first time between 24 January 2020 and 20 February 2020 were enrolled in the study.
+ The initial clinical data of these patients, such as epidemiological features, symptoms, laboratory results, and chest computed tomography (CT) findings were collected using a standard case report form on admission.
+ Thirty‐two patients were diagnosed with COVID‐19; the remaining 84 patients were referred to as negative cases.
+ The median age of the diagnosed patients was 46 years, but only 35 years for negative cases.
+ History of exposure to Wuhan or COVID‐19 patients in the previous 2 weeks was observed in 63% of the diagnosed and 44% of negative cases.
+ Median time from illness onset to ED admission was 5 days for all patients, diagnosed patients, and negative cases, respectively.
+ Fever was observed in 27 (84%) and 57 (68%) diagnosed and negative cases, respectively.
+ Nineteen (59%) diagnosed and 24 (29%) negative cases had lymphopenia on admission in ED.
+ A chest CT scan on admission revealed the presence of pneumonia in the majority of the diagnosed patients (30 out of 32, 94%) and in 56 (67%) negative cases.
+ Bilateral involvement and ground‐glass opacity (GGO) were present in 91% and 47% of the diagnosed patients.
+ Thirty‐two patients were diagnosed with COVID‐19; the remaining 84 patients were referred to as negative cases.
+ The median age of the diagnosed patients was 46 years, but only 35 years for negative cases.
+ History of exposure to Wuhan or COVID‐19 patients in the previous 2 weeks was observed in 63% of the diagnosed and 44% of negative cases.
+ Median time from illness onset to ED admission was 5 days for all patients, diagnosed patients, and negative cases, respectively.
+ Fever was observed in 27 (84%) and 57 (68%) diagnosed and negative cases, respectively.
+ Nineteen (59%) diagnosed and 24 (29%) negative cases had lymphopenia on admission in ED.
+ A chest CT scan on admission revealed the presence of pneumonia in the majority of the diagnosed patients (30 out of 32, 94%) and in 56 (67%) negative cases.
+ Bilateral involvement and GGO were present in 91% and 47% of the diagnosed patients.
+</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0, Kai%Xie%NULL%2, Kai%Xie%NULL%0, Hui%Lu%NULL%1, Lei%Xu%bayinhexl@126.com%1, Shusheng%Zhou%zhouss108@163.com%1, Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0, Christopher%Gieraerts%NULL%2, Christopher%Gieraerts%NULL%0, Yves%De Bruecker%NULL%2, Yves%De Bruecker%NULL%0, Lode%Janssen%NULL%2, Lode%Janssen%NULL%0, Hanne%Valgaeren%NULL%2, Hanne%Valgaeren%NULL%0, Dagmar%Obbels%NULL%2, Dagmar%Obbels%NULL%0, Marc%Gillis%NULL%2, Marc%Gillis%NULL%0, Marc%Van Ranst%NULL%2, Marc%Van Ranst%NULL%0, Johan%Frans%NULL%1, Annick%Demeyere%NULL%2, Annick%Demeyere%NULL%0, Rolf%Symons%rolf.symons@imelda.be%2, Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,  Ben%Hsieh%NULL%1,  Zeng%Xiong%NULL%2,  Zeng%Xiong%NULL%0,  Kasey%Halsey%NULL%2,  Kasey%Halsey%NULL%0,  Ji Whae%Choi%NULL%2,  Ji Whae%Choi%NULL%0,  Thi My Linh%Tran%NULL%2,  Thi My Linh%Tran%NULL%0,  Ian%Pan%NULL%2,  Ian%Pan%NULL%0,  Lin-Bo%Shi%NULL%2,  Lin-Bo%Shi%NULL%0,  Dong-Cui%Wang%NULL%1,  Ji%Mei%NULL%2,  Ji%Mei%NULL%0,  Xiao-Long%Jiang%NULL%1,  Qiu-Hua%Zeng%NULL%1,  Thomas K.%Egglin%NULL%1,  Ping-Feng%Hu%NULL%2,  Ping-Feng%Hu%NULL%0,  Saurabh%Agarwal%NULL%1,  Fangfang%Xie%NULL%2,  Fangfang%Xie%NULL%0,  Sha%Li%NULL%1,  Terrance%Healey%NULL%2,  Terrance%Healey%NULL%0,  Michael K.%Atalay%NULL%1,  Wei-Hua%Liao%liaoweihua2017@163.com%2,  Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,  Zhenlu%Yang%NULL%2,  Zhenlu%Yang%NULL%0,  Hongyan%Hou%NULL%2,  Hongyan%Hou%NULL%0,  Chenao%Zhan%NULL%1,  Chong%Chen%NULL%1,  Wenzhi%Lv%NULL%2,  Wenzhi%Lv%NULL%0,  Qian%Tao%NULL%2,  Qian%Tao%NULL%0,  Ziyong%Sun%NULL%2,  Ziyong%Sun%NULL%0,  Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,  Marta%Zerunian%NULL%2,  Marta%Zerunian%NULL%0,  Michela%Polici%NULL%2,  Michela%Polici%NULL%0,  Francesco%Pucciarelli%NULL%2,  Francesco%Pucciarelli%NULL%0,  Tiziano%Polidori%NULL%2,  Tiziano%Polidori%NULL%0,  Carlotta%Rucci%NULL%2,  Carlotta%Rucci%NULL%0,  Gisella%Guido%NULL%2,  Gisella%Guido%NULL%0,  Benedetta%Bracci%NULL%2,  Benedetta%Bracci%NULL%0,  Chiara%de Dominicis%NULL%2,  Chiara%de Dominicis%NULL%0,  Andrea%Laghi%andrea.laghi@uniroma1.it%2,  Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,  Yanyan%Tang%NULL%1,  Yongkang%Mo%NULL%1,  Shengkai%Li%NULL%1,  Daiying%Lin%NULL%1,  Zhijian%Yang%NULL%1,  Zhiqi%Yang%NULL%1,  Hongfu%Sun%NULL%1,  Jinming%Qiu%NULL%1,  Yuting%Liao%NULL%1,  Jianning%Xiao%NULL%1,  Xiangguang%Chen%NULL%1,  Xianheng%Wu%NULL%1,  Renhua%Wu%NULL%1,  Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,  Yong%Lu%xref no email%1,  Qiqi%Cao%xref no email%1,  Le%Qin%xref no email%1,  Zilai%Pan%xref no email%1,  Fuhua%Yan%xref no email%1,  Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,  Xiaolong%Qi%NULL%2,  Xiaolong%Qi%NULL%0,  Soon Ho%Yoon%yshoka@gmail.com%2,  Soon Ho%Yoon%yshoka@gmail.com%0,  Sang Joon%Park%NULL%2,  Sang Joon%Park%NULL%0,  Kyung Hee%Lee%NULL%2,  Kyung Hee%Lee%NULL%0,  Jin Yong%Kim%NULL%2,  Jin Yong%Kim%NULL%0,  Young Kyung%Lee%NULL%2,  Young Kyung%Lee%NULL%0,  Hongseok%Ko%NULL%2,  Hongseok%Ko%NULL%0,  Ki Hwan%Kim%NULL%2,  Ki Hwan%Kim%NULL%0,  Chang Min%Park%NULL%2,  Chang Min%Park%NULL%0,  Yun-Hyeon%Kim%NULL%2,  Yun-Hyeon%Kim%NULL%0,  Junqiang%Lei%NULL%2,  Junqiang%Lei%NULL%0,  Jung Hee%Hong%NULL%2,  Jung Hee%Hong%NULL%0,  Hyungjin%Kim%NULL%2,  Hyungjin%Kim%NULL%0,  Eui Jin%Hwang%NULL%2,  Eui Jin%Hwang%NULL%0,  Seung Jin%Yoo%NULL%2,  Seung Jin%Yoo%NULL%0,  Ju Gang%Nam%NULL%2,  Ju Gang%Nam%NULL%0,  Chang Hyun%Lee%NULL%2,  Chang Hyun%Lee%NULL%0,  Jin Mo%Goo%NULL%2,  Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,  Akihiko%Sakata%NULL%1,  Mitsuhiro%Kirita%NULL%1,  Takashi%Hiroi%NULL%1,  Ken-ichiro%Kobayashi%NULL%1,  Kenji%Kubo%NULL%1,  Hyunjin%Kim%NULL%1,  Azusa%Nishimoto%NULL%1,  Chikara%Maeda%NULL%1,  Akira%Kawamura%NULL%1,  Nobuhiro%Komiya%NULL%1,  Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,  Huaxiang%Xu%NULL%1,  Qinglin%Shen%NULL%1,  Xianghai%Zhang%NULL%1,  Bing%Fan%26171381@qq.com%1,  Chuanhong%Wang%NULL%1,  Bingliang%Zeng%NULL%1,  Zicong%Li%NULL%1,  Xiaofen%Li%NULL%1,  Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,  Mengdi%Jin%NULL%1,  Li%Miao%NULL%1,  Xinying%Yang%NULL%1,  Peng%Huang%NULL%1,  Huanwen%Xiong%NULL%1,  Peijie%Huang%NULL%1,  Qi%Zhao%NULL%1,  Jiang%Du%NULL%1,  Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,  Yonge%Chi%NULL%2,  Yonge%Chi%NULL%0,  Liang%Zhang%NULL%2,  Liang%Zhang%NULL%0,  Huan%Liu%NULL%2,  Huan%Liu%NULL%0,  Kun%Du%NULL%1,  Zhengxing%Li%NULL%2,  Zhengxing%Li%NULL%0,  Jie%Chen%NULL%2,  Jie%Chen%NULL%0,  Liuhui%Cheng%NULL%2,  Liuhui%Cheng%NULL%0,  Daoqing%Wang%wangdaoqing1215@126.com%2,  Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,  Kai%Xie%NULL%2,  Kai%Xie%NULL%0,  Hui%Lu%NULL%1,  Lei%Xu%bayinhexl@126.com%1,  Shusheng%Zhou%zhouss108@163.com%1,  Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,  Christopher%Gieraerts%NULL%2,  Christopher%Gieraerts%NULL%0,  Yves%De Bruecker%NULL%2,  Yves%De Bruecker%NULL%0,  Lode%Janssen%NULL%2,  Lode%Janssen%NULL%0,  Hanne%Valgaeren%NULL%2,  Hanne%Valgaeren%NULL%0,  Dagmar%Obbels%NULL%2,  Dagmar%Obbels%NULL%0,  Marc%Gillis%NULL%2,  Marc%Gillis%NULL%0,  Marc%Van Ranst%NULL%2,  Marc%Van Ranst%NULL%0,  Johan%Frans%NULL%1,  Annick%Demeyere%NULL%2,  Annick%Demeyere%NULL%0,  Rolf%Symons%rolf.symons@imelda.be%2,  Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -760,7 +997,7 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -772,7 +1009,7 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -783,25 +1020,25 @@
         <v>44044</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -818,7 +1055,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -830,7 +1067,7 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -844,10 +1081,10 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -859,7 +1096,7 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -870,22 +1107,22 @@
         <v>44013</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
         <v>55</v>
@@ -905,7 +1142,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -917,7 +1154,7 @@
         <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -931,10 +1168,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -946,7 +1183,7 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -963,7 +1200,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -975,7 +1212,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -986,13 +1223,13 @@
         <v>44348</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -1001,10 +1238,10 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1015,13 +1252,13 @@
         <v>43922</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1030,10 +1267,10 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1044,13 +1281,13 @@
         <v>44075</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1059,10 +1296,10 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1079,7 +1316,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -1091,7 +1328,7 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="150">
   <si>
     <t>Doi</t>
   </si>
@@ -677,6 +677,42 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%2,  Christopher%Gieraerts%NULL%2,  Christopher%Gieraerts%NULL%0,  Yves%De Bruecker%NULL%2,  Yves%De Bruecker%NULL%0,  Lode%Janssen%NULL%2,  Lode%Janssen%NULL%0,  Hanne%Valgaeren%NULL%2,  Hanne%Valgaeren%NULL%0,  Dagmar%Obbels%NULL%2,  Dagmar%Obbels%NULL%0,  Marc%Gillis%NULL%2,  Marc%Gillis%NULL%0,  Marc%Van Ranst%NULL%2,  Marc%Van Ranst%NULL%0,  Johan%Frans%NULL%1,  Annick%Demeyere%NULL%2,  Annick%Demeyere%NULL%0,  Rolf%Symons%rolf.symons@imelda.be%2,  Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,   Ben%Hsieh%NULL%1,   Zeng%Xiong%NULL%2,   Zeng%Xiong%NULL%0,   Kasey%Halsey%NULL%2,   Kasey%Halsey%NULL%0,   Ji Whae%Choi%NULL%2,   Ji Whae%Choi%NULL%0,   Thi My Linh%Tran%NULL%2,   Thi My Linh%Tran%NULL%0,   Ian%Pan%NULL%2,   Ian%Pan%NULL%0,   Lin-Bo%Shi%NULL%2,   Lin-Bo%Shi%NULL%0,   Dong-Cui%Wang%NULL%1,   Ji%Mei%NULL%2,   Ji%Mei%NULL%0,   Xiao-Long%Jiang%NULL%1,   Qiu-Hua%Zeng%NULL%1,   Thomas K.%Egglin%NULL%1,   Ping-Feng%Hu%NULL%2,   Ping-Feng%Hu%NULL%0,   Saurabh%Agarwal%NULL%1,   Fangfang%Xie%NULL%2,   Fangfang%Xie%NULL%0,   Sha%Li%NULL%1,   Terrance%Healey%NULL%2,   Terrance%Healey%NULL%0,   Michael K.%Atalay%NULL%1,   Wei-Hua%Liao%liaoweihua2017@163.com%2,   Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,   Zhenlu%Yang%NULL%2,   Zhenlu%Yang%NULL%0,   Hongyan%Hou%NULL%2,   Hongyan%Hou%NULL%0,   Chenao%Zhan%NULL%1,   Chong%Chen%NULL%1,   Wenzhi%Lv%NULL%2,   Wenzhi%Lv%NULL%0,   Qian%Tao%NULL%2,   Qian%Tao%NULL%0,   Ziyong%Sun%NULL%2,   Ziyong%Sun%NULL%0,   Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,   Marta%Zerunian%NULL%2,   Marta%Zerunian%NULL%0,   Michela%Polici%NULL%2,   Michela%Polici%NULL%0,   Francesco%Pucciarelli%NULL%2,   Francesco%Pucciarelli%NULL%0,   Tiziano%Polidori%NULL%2,   Tiziano%Polidori%NULL%0,   Carlotta%Rucci%NULL%2,   Carlotta%Rucci%NULL%0,   Gisella%Guido%NULL%2,   Gisella%Guido%NULL%0,   Benedetta%Bracci%NULL%2,   Benedetta%Bracci%NULL%0,   Chiara%de Dominicis%NULL%2,   Chiara%de Dominicis%NULL%0,   Andrea%Laghi%andrea.laghi@uniroma1.it%2,   Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,   Yanyan%Tang%NULL%1,   Yongkang%Mo%NULL%1,   Shengkai%Li%NULL%1,   Daiying%Lin%NULL%1,   Zhijian%Yang%NULL%1,   Zhiqi%Yang%NULL%1,   Hongfu%Sun%NULL%1,   Jinming%Qiu%NULL%1,   Yuting%Liao%NULL%1,   Jianning%Xiao%NULL%1,   Xiangguang%Chen%NULL%1,   Xianheng%Wu%NULL%1,   Renhua%Wu%NULL%1,   Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,   Yong%Lu%xref no email%1,   Qiqi%Cao%xref no email%1,   Le%Qin%xref no email%1,   Zilai%Pan%xref no email%1,   Fuhua%Yan%xref no email%1,   Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,   Xiaolong%Qi%NULL%2,   Xiaolong%Qi%NULL%0,   Soon Ho%Yoon%yshoka@gmail.com%2,   Soon Ho%Yoon%yshoka@gmail.com%0,   Sang Joon%Park%NULL%2,   Sang Joon%Park%NULL%0,   Kyung Hee%Lee%NULL%2,   Kyung Hee%Lee%NULL%0,   Jin Yong%Kim%NULL%2,   Jin Yong%Kim%NULL%0,   Young Kyung%Lee%NULL%2,   Young Kyung%Lee%NULL%0,   Hongseok%Ko%NULL%2,   Hongseok%Ko%NULL%0,   Ki Hwan%Kim%NULL%2,   Ki Hwan%Kim%NULL%0,   Chang Min%Park%NULL%2,   Chang Min%Park%NULL%0,   Yun-Hyeon%Kim%NULL%2,   Yun-Hyeon%Kim%NULL%0,   Junqiang%Lei%NULL%2,   Junqiang%Lei%NULL%0,   Jung Hee%Hong%NULL%2,   Jung Hee%Hong%NULL%0,   Hyungjin%Kim%NULL%2,   Hyungjin%Kim%NULL%0,   Eui Jin%Hwang%NULL%2,   Eui Jin%Hwang%NULL%0,   Seung Jin%Yoo%NULL%2,   Seung Jin%Yoo%NULL%0,   Ju Gang%Nam%NULL%2,   Ju Gang%Nam%NULL%0,   Chang Hyun%Lee%NULL%2,   Chang Hyun%Lee%NULL%0,   Jin Mo%Goo%NULL%2,   Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,   Akihiko%Sakata%NULL%1,   Mitsuhiro%Kirita%NULL%1,   Takashi%Hiroi%NULL%1,   Ken-ichiro%Kobayashi%NULL%1,   Kenji%Kubo%NULL%1,   Hyunjin%Kim%NULL%1,   Azusa%Nishimoto%NULL%1,   Chikara%Maeda%NULL%1,   Akira%Kawamura%NULL%1,   Nobuhiro%Komiya%NULL%1,   Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,   Huaxiang%Xu%NULL%1,   Qinglin%Shen%NULL%1,   Xianghai%Zhang%NULL%1,   Bing%Fan%26171381@qq.com%1,   Chuanhong%Wang%NULL%1,   Bingliang%Zeng%NULL%1,   Zicong%Li%NULL%1,   Xiaofen%Li%NULL%1,   Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,   Mengdi%Jin%NULL%1,   Li%Miao%NULL%1,   Xinying%Yang%NULL%1,   Peng%Huang%NULL%1,   Huanwen%Xiong%NULL%1,   Peijie%Huang%NULL%1,   Qi%Zhao%NULL%1,   Jiang%Du%NULL%1,   Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,   Yonge%Chi%NULL%2,   Yonge%Chi%NULL%0,   Liang%Zhang%NULL%2,   Liang%Zhang%NULL%0,   Huan%Liu%NULL%2,   Huan%Liu%NULL%0,   Kun%Du%NULL%1,   Zhengxing%Li%NULL%2,   Zhengxing%Li%NULL%0,   Jie%Chen%NULL%2,   Jie%Chen%NULL%0,   Liuhui%Cheng%NULL%2,   Liuhui%Cheng%NULL%0,   Daoqing%Wang%wangdaoqing1215@126.com%2,   Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,   Kai%Xie%NULL%2,   Kai%Xie%NULL%0,   Hui%Lu%NULL%1,   Lei%Xu%bayinhexl@126.com%1,   Shusheng%Zhou%zhouss108@163.com%1,   Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,   Christopher%Gieraerts%NULL%2,   Christopher%Gieraerts%NULL%0,   Yves%De Bruecker%NULL%2,   Yves%De Bruecker%NULL%0,   Lode%Janssen%NULL%2,   Lode%Janssen%NULL%0,   Hanne%Valgaeren%NULL%2,   Hanne%Valgaeren%NULL%0,   Dagmar%Obbels%NULL%2,   Dagmar%Obbels%NULL%0,   Marc%Gillis%NULL%2,   Marc%Gillis%NULL%0,   Marc%Van Ranst%NULL%2,   Marc%Van Ranst%NULL%0,   Johan%Frans%NULL%1,   Annick%Demeyere%NULL%2,   Annick%Demeyere%NULL%0,   Rolf%Symons%rolf.symons@imelda.be%2,   Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1026,7 +1062,7 @@
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
         <v>99</v>
@@ -1055,7 +1091,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1084,7 +1120,7 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1113,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -1142,7 +1178,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -1171,7 +1207,7 @@
         <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1200,7 +1236,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -1229,7 +1265,7 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -1258,7 +1294,7 @@
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1287,7 +1323,7 @@
         <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1316,7 +1352,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="162">
   <si>
     <t>Doi</t>
   </si>
@@ -713,6 +713,42 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%2,   Christopher%Gieraerts%NULL%2,   Christopher%Gieraerts%NULL%0,   Yves%De Bruecker%NULL%2,   Yves%De Bruecker%NULL%0,   Lode%Janssen%NULL%2,   Lode%Janssen%NULL%0,   Hanne%Valgaeren%NULL%2,   Hanne%Valgaeren%NULL%0,   Dagmar%Obbels%NULL%2,   Dagmar%Obbels%NULL%0,   Marc%Gillis%NULL%2,   Marc%Gillis%NULL%0,   Marc%Van Ranst%NULL%2,   Marc%Van Ranst%NULL%0,   Johan%Frans%NULL%1,   Annick%Demeyere%NULL%2,   Annick%Demeyere%NULL%0,   Rolf%Symons%rolf.symons@imelda.be%2,   Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,    Ben%Hsieh%NULL%1,    Zeng%Xiong%NULL%2,    Zeng%Xiong%NULL%0,    Kasey%Halsey%NULL%2,    Kasey%Halsey%NULL%0,    Ji Whae%Choi%NULL%2,    Ji Whae%Choi%NULL%0,    Thi My Linh%Tran%NULL%2,    Thi My Linh%Tran%NULL%0,    Ian%Pan%NULL%2,    Ian%Pan%NULL%0,    Lin-Bo%Shi%NULL%2,    Lin-Bo%Shi%NULL%0,    Dong-Cui%Wang%NULL%1,    Ji%Mei%NULL%2,    Ji%Mei%NULL%0,    Xiao-Long%Jiang%NULL%1,    Qiu-Hua%Zeng%NULL%1,    Thomas K.%Egglin%NULL%1,    Ping-Feng%Hu%NULL%2,    Ping-Feng%Hu%NULL%0,    Saurabh%Agarwal%NULL%1,    Fangfang%Xie%NULL%2,    Fangfang%Xie%NULL%0,    Sha%Li%NULL%1,    Terrance%Healey%NULL%2,    Terrance%Healey%NULL%0,    Michael K.%Atalay%NULL%1,    Wei-Hua%Liao%liaoweihua2017@163.com%2,    Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,    Zhenlu%Yang%NULL%2,    Zhenlu%Yang%NULL%0,    Hongyan%Hou%NULL%2,    Hongyan%Hou%NULL%0,    Chenao%Zhan%NULL%1,    Chong%Chen%NULL%1,    Wenzhi%Lv%NULL%2,    Wenzhi%Lv%NULL%0,    Qian%Tao%NULL%2,    Qian%Tao%NULL%0,    Ziyong%Sun%NULL%2,    Ziyong%Sun%NULL%0,    Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,    Marta%Zerunian%NULL%2,    Marta%Zerunian%NULL%0,    Michela%Polici%NULL%2,    Michela%Polici%NULL%0,    Francesco%Pucciarelli%NULL%2,    Francesco%Pucciarelli%NULL%0,    Tiziano%Polidori%NULL%2,    Tiziano%Polidori%NULL%0,    Carlotta%Rucci%NULL%2,    Carlotta%Rucci%NULL%0,    Gisella%Guido%NULL%2,    Gisella%Guido%NULL%0,    Benedetta%Bracci%NULL%2,    Benedetta%Bracci%NULL%0,    Chiara%de Dominicis%NULL%2,    Chiara%de Dominicis%NULL%0,    Andrea%Laghi%andrea.laghi@uniroma1.it%2,    Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,    Yanyan%Tang%NULL%1,    Yongkang%Mo%NULL%1,    Shengkai%Li%NULL%1,    Daiying%Lin%NULL%1,    Zhijian%Yang%NULL%1,    Zhiqi%Yang%NULL%1,    Hongfu%Sun%NULL%1,    Jinming%Qiu%NULL%1,    Yuting%Liao%NULL%1,    Jianning%Xiao%NULL%1,    Xiangguang%Chen%NULL%1,    Xianheng%Wu%NULL%1,    Renhua%Wu%NULL%1,    Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,    Yong%Lu%xref no email%1,    Qiqi%Cao%xref no email%1,    Le%Qin%xref no email%1,    Zilai%Pan%xref no email%1,    Fuhua%Yan%xref no email%1,    Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,    Xiaolong%Qi%NULL%2,    Xiaolong%Qi%NULL%0,    Soon Ho%Yoon%yshoka@gmail.com%2,    Soon Ho%Yoon%yshoka@gmail.com%0,    Sang Joon%Park%NULL%2,    Sang Joon%Park%NULL%0,    Kyung Hee%Lee%NULL%2,    Kyung Hee%Lee%NULL%0,    Jin Yong%Kim%NULL%2,    Jin Yong%Kim%NULL%0,    Young Kyung%Lee%NULL%2,    Young Kyung%Lee%NULL%0,    Hongseok%Ko%NULL%2,    Hongseok%Ko%NULL%0,    Ki Hwan%Kim%NULL%2,    Ki Hwan%Kim%NULL%0,    Chang Min%Park%NULL%2,    Chang Min%Park%NULL%0,    Yun-Hyeon%Kim%NULL%2,    Yun-Hyeon%Kim%NULL%0,    Junqiang%Lei%NULL%2,    Junqiang%Lei%NULL%0,    Jung Hee%Hong%NULL%2,    Jung Hee%Hong%NULL%0,    Hyungjin%Kim%NULL%2,    Hyungjin%Kim%NULL%0,    Eui Jin%Hwang%NULL%2,    Eui Jin%Hwang%NULL%0,    Seung Jin%Yoo%NULL%2,    Seung Jin%Yoo%NULL%0,    Ju Gang%Nam%NULL%2,    Ju Gang%Nam%NULL%0,    Chang Hyun%Lee%NULL%2,    Chang Hyun%Lee%NULL%0,    Jin Mo%Goo%NULL%2,    Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,    Akihiko%Sakata%NULL%1,    Mitsuhiro%Kirita%NULL%1,    Takashi%Hiroi%NULL%1,    Ken-ichiro%Kobayashi%NULL%1,    Kenji%Kubo%NULL%1,    Hyunjin%Kim%NULL%1,    Azusa%Nishimoto%NULL%1,    Chikara%Maeda%NULL%1,    Akira%Kawamura%NULL%1,    Nobuhiro%Komiya%NULL%1,    Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,    Huaxiang%Xu%NULL%1,    Qinglin%Shen%NULL%1,    Xianghai%Zhang%NULL%1,    Bing%Fan%26171381@qq.com%1,    Chuanhong%Wang%NULL%1,    Bingliang%Zeng%NULL%1,    Zicong%Li%NULL%1,    Xiaofen%Li%NULL%1,    Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,    Mengdi%Jin%NULL%1,    Li%Miao%NULL%1,    Xinying%Yang%NULL%1,    Peng%Huang%NULL%2,    Huanwen%Xiong%NULL%1,    Peijie%Huang%NULL%1,    Qi%Zhao%NULL%1,    Jiang%Du%NULL%1,    Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,    Yonge%Chi%NULL%2,    Yonge%Chi%NULL%0,    Liang%Zhang%NULL%2,    Liang%Zhang%NULL%0,    Huan%Liu%NULL%2,    Huan%Liu%NULL%0,    Kun%Du%NULL%1,    Zhengxing%Li%NULL%2,    Zhengxing%Li%NULL%0,    Jie%Chen%NULL%2,    Jie%Chen%NULL%0,    Liuhui%Cheng%NULL%2,    Liuhui%Cheng%NULL%0,    Daoqing%Wang%wangdaoqing1215@126.com%2,    Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,    Kai%Xie%NULL%2,    Kai%Xie%NULL%0,    Hui%Lu%NULL%1,    Lei%Xu%bayinhexl@126.com%1,    Shusheng%Zhou%zhouss108@163.com%1,    Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,    Christopher%Gieraerts%NULL%2,    Christopher%Gieraerts%NULL%0,    Yves%De Bruecker%NULL%2,    Yves%De Bruecker%NULL%0,    Lode%Janssen%NULL%2,    Lode%Janssen%NULL%0,    Hanne%Valgaeren%NULL%2,    Hanne%Valgaeren%NULL%0,    Dagmar%Obbels%NULL%2,    Dagmar%Obbels%NULL%0,    Marc%Gillis%NULL%2,    Marc%Gillis%NULL%0,    Marc%Van Ranst%NULL%2,    Marc%Van Ranst%NULL%0,    Johan%Frans%NULL%1,    Annick%Demeyere%NULL%2,    Annick%Demeyere%NULL%0,    Rolf%Symons%rolf.symons@imelda.be%2,    Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1069,7 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1062,7 +1098,7 @@
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
         <v>99</v>
@@ -1091,7 +1127,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1120,7 +1156,7 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1149,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -1161,7 +1197,7 @@
         <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1178,7 +1214,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -1207,7 +1243,7 @@
         <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1236,7 +1272,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -1265,7 +1301,7 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -1294,7 +1330,7 @@
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1323,7 +1359,7 @@
         <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1352,7 +1388,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="174">
   <si>
     <t>Doi</t>
   </si>
@@ -749,6 +749,42 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%2,    Christopher%Gieraerts%NULL%2,    Christopher%Gieraerts%NULL%0,    Yves%De Bruecker%NULL%2,    Yves%De Bruecker%NULL%0,    Lode%Janssen%NULL%2,    Lode%Janssen%NULL%0,    Hanne%Valgaeren%NULL%2,    Hanne%Valgaeren%NULL%0,    Dagmar%Obbels%NULL%2,    Dagmar%Obbels%NULL%0,    Marc%Gillis%NULL%2,    Marc%Gillis%NULL%0,    Marc%Van Ranst%NULL%2,    Marc%Van Ranst%NULL%0,    Johan%Frans%NULL%1,    Annick%Demeyere%NULL%2,    Annick%Demeyere%NULL%0,    Rolf%Symons%rolf.symons@imelda.be%2,    Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,     Ben%Hsieh%NULL%1,     Zeng%Xiong%NULL%2,     Zeng%Xiong%NULL%0,     Kasey%Halsey%NULL%2,     Kasey%Halsey%NULL%0,     Ji Whae%Choi%NULL%2,     Ji Whae%Choi%NULL%0,     Thi My Linh%Tran%NULL%2,     Thi My Linh%Tran%NULL%0,     Ian%Pan%NULL%2,     Ian%Pan%NULL%0,     Lin-Bo%Shi%NULL%2,     Lin-Bo%Shi%NULL%0,     Dong-Cui%Wang%NULL%1,     Ji%Mei%NULL%2,     Ji%Mei%NULL%0,     Xiao-Long%Jiang%NULL%1,     Qiu-Hua%Zeng%NULL%1,     Thomas K.%Egglin%NULL%1,     Ping-Feng%Hu%NULL%2,     Ping-Feng%Hu%NULL%0,     Saurabh%Agarwal%NULL%1,     Fangfang%Xie%NULL%2,     Fangfang%Xie%NULL%0,     Sha%Li%NULL%1,     Terrance%Healey%NULL%2,     Terrance%Healey%NULL%0,     Michael K.%Atalay%NULL%1,     Wei-Hua%Liao%liaoweihua2017@163.com%2,     Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,     Zhenlu%Yang%NULL%2,     Zhenlu%Yang%NULL%0,     Hongyan%Hou%NULL%2,     Hongyan%Hou%NULL%0,     Chenao%Zhan%NULL%1,     Chong%Chen%NULL%1,     Wenzhi%Lv%NULL%2,     Wenzhi%Lv%NULL%0,     Qian%Tao%NULL%2,     Qian%Tao%NULL%0,     Ziyong%Sun%NULL%2,     Ziyong%Sun%NULL%0,     Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,     Marta%Zerunian%NULL%2,     Marta%Zerunian%NULL%0,     Michela%Polici%NULL%2,     Michela%Polici%NULL%0,     Francesco%Pucciarelli%NULL%2,     Francesco%Pucciarelli%NULL%0,     Tiziano%Polidori%NULL%2,     Tiziano%Polidori%NULL%0,     Carlotta%Rucci%NULL%2,     Carlotta%Rucci%NULL%0,     Gisella%Guido%NULL%2,     Gisella%Guido%NULL%0,     Benedetta%Bracci%NULL%2,     Benedetta%Bracci%NULL%0,     Chiara%de Dominicis%NULL%2,     Chiara%de Dominicis%NULL%0,     Andrea%Laghi%andrea.laghi@uniroma1.it%2,     Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,     Yanyan%Tang%NULL%1,     Yongkang%Mo%NULL%1,     Shengkai%Li%NULL%1,     Daiying%Lin%NULL%1,     Zhijian%Yang%NULL%1,     Zhiqi%Yang%NULL%1,     Hongfu%Sun%NULL%1,     Jinming%Qiu%NULL%1,     Yuting%Liao%NULL%1,     Jianning%Xiao%NULL%1,     Xiangguang%Chen%NULL%1,     Xianheng%Wu%NULL%1,     Renhua%Wu%NULL%1,     Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,     Yong%Lu%xref no email%1,     Qiqi%Cao%xref no email%1,     Le%Qin%xref no email%1,     Zilai%Pan%xref no email%1,     Fuhua%Yan%xref no email%1,     Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,     Xiaolong%Qi%NULL%2,     Xiaolong%Qi%NULL%0,     Soon Ho%Yoon%yshoka@gmail.com%2,     Soon Ho%Yoon%yshoka@gmail.com%0,     Sang Joon%Park%NULL%2,     Sang Joon%Park%NULL%0,     Kyung Hee%Lee%NULL%2,     Kyung Hee%Lee%NULL%0,     Jin Yong%Kim%NULL%2,     Jin Yong%Kim%NULL%0,     Young Kyung%Lee%NULL%2,     Young Kyung%Lee%NULL%0,     Hongseok%Ko%NULL%2,     Hongseok%Ko%NULL%0,     Ki Hwan%Kim%NULL%2,     Ki Hwan%Kim%NULL%0,     Chang Min%Park%NULL%2,     Chang Min%Park%NULL%0,     Yun-Hyeon%Kim%NULL%2,     Yun-Hyeon%Kim%NULL%0,     Junqiang%Lei%NULL%2,     Junqiang%Lei%NULL%0,     Jung Hee%Hong%NULL%2,     Jung Hee%Hong%NULL%0,     Hyungjin%Kim%NULL%2,     Hyungjin%Kim%NULL%0,     Eui Jin%Hwang%NULL%2,     Eui Jin%Hwang%NULL%0,     Seung Jin%Yoo%NULL%2,     Seung Jin%Yoo%NULL%0,     Ju Gang%Nam%NULL%2,     Ju Gang%Nam%NULL%0,     Chang Hyun%Lee%NULL%2,     Chang Hyun%Lee%NULL%0,     Jin Mo%Goo%NULL%2,     Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,     Akihiko%Sakata%NULL%1,     Mitsuhiro%Kirita%NULL%1,     Takashi%Hiroi%NULL%1,     Ken-ichiro%Kobayashi%NULL%1,     Kenji%Kubo%NULL%1,     Hyunjin%Kim%NULL%1,     Azusa%Nishimoto%NULL%1,     Chikara%Maeda%NULL%1,     Akira%Kawamura%NULL%1,     Nobuhiro%Komiya%NULL%1,     Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,     Huaxiang%Xu%NULL%1,     Qinglin%Shen%NULL%1,     Xianghai%Zhang%NULL%1,     Bing%Fan%26171381@qq.com%1,     Chuanhong%Wang%NULL%1,     Bingliang%Zeng%NULL%1,     Zicong%Li%NULL%1,     Xiaofen%Li%NULL%1,     Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,     Mengdi%Jin%NULL%1,     Li%Miao%NULL%1,     Xinying%Yang%NULL%1,     Peng%Huang%NULL%1,     Huanwen%Xiong%NULL%1,     Peijie%Huang%NULL%1,     Qi%Zhao%NULL%1,     Jiang%Du%NULL%1,     Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,     Yonge%Chi%NULL%2,     Yonge%Chi%NULL%0,     Liang%Zhang%NULL%2,     Liang%Zhang%NULL%0,     Huan%Liu%NULL%2,     Huan%Liu%NULL%0,     Kun%Du%NULL%1,     Zhengxing%Li%NULL%2,     Zhengxing%Li%NULL%0,     Jie%Chen%NULL%2,     Jie%Chen%NULL%0,     Liuhui%Cheng%NULL%2,     Liuhui%Cheng%NULL%0,     Daoqing%Wang%wangdaoqing1215@126.com%2,     Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,     Kai%Xie%NULL%2,     Kai%Xie%NULL%0,     Hui%Lu%NULL%1,     Lei%Xu%bayinhexl@126.com%1,     Shusheng%Zhou%zhouss108@163.com%1,     Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,     Christopher%Gieraerts%NULL%2,     Christopher%Gieraerts%NULL%0,     Yves%De Bruecker%NULL%2,     Yves%De Bruecker%NULL%0,     Lode%Janssen%NULL%2,     Lode%Janssen%NULL%0,     Hanne%Valgaeren%NULL%2,     Hanne%Valgaeren%NULL%0,     Dagmar%Obbels%NULL%2,     Dagmar%Obbels%NULL%0,     Marc%Gillis%NULL%2,     Marc%Gillis%NULL%0,     Marc%Van Ranst%NULL%2,     Marc%Van Ranst%NULL%0,     Johan%Frans%NULL%1,     Annick%Demeyere%NULL%2,     Annick%Demeyere%NULL%0,     Rolf%Symons%rolf.symons@imelda.be%2,     Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1105,7 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1098,7 +1134,7 @@
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
         <v>99</v>
@@ -1127,7 +1163,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1156,7 +1192,7 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1185,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -1214,7 +1250,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -1243,7 +1279,7 @@
         <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1272,7 +1308,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -1301,7 +1337,7 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -1330,7 +1366,7 @@
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1359,7 +1395,7 @@
         <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1388,7 +1424,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="237">
   <si>
     <t>Doi</t>
   </si>
@@ -785,6 +785,195 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%2,     Christopher%Gieraerts%NULL%2,     Christopher%Gieraerts%NULL%0,     Yves%De Bruecker%NULL%2,     Yves%De Bruecker%NULL%0,     Lode%Janssen%NULL%2,     Lode%Janssen%NULL%0,     Hanne%Valgaeren%NULL%2,     Hanne%Valgaeren%NULL%0,     Dagmar%Obbels%NULL%2,     Dagmar%Obbels%NULL%0,     Marc%Gillis%NULL%2,     Marc%Gillis%NULL%0,     Marc%Van Ranst%NULL%2,     Marc%Van Ranst%NULL%0,     Johan%Frans%NULL%1,     Annick%Demeyere%NULL%2,     Annick%Demeyere%NULL%0,     Rolf%Symons%rolf.symons@imelda.be%2,     Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,      Ben%Hsieh%NULL%1,      Zeng%Xiong%NULL%2,      Zeng%Xiong%NULL%0,      Kasey%Halsey%NULL%2,      Kasey%Halsey%NULL%0,      Ji Whae%Choi%NULL%2,      Ji Whae%Choi%NULL%0,      Thi My Linh%Tran%NULL%2,      Thi My Linh%Tran%NULL%0,      Ian%Pan%NULL%2,      Ian%Pan%NULL%0,      Lin-Bo%Shi%NULL%2,      Lin-Bo%Shi%NULL%0,      Dong-Cui%Wang%NULL%1,      Ji%Mei%NULL%2,      Ji%Mei%NULL%0,      Xiao-Long%Jiang%NULL%1,      Qiu-Hua%Zeng%NULL%1,      Thomas K.%Egglin%NULL%1,      Ping-Feng%Hu%NULL%2,      Ping-Feng%Hu%NULL%0,      Saurabh%Agarwal%NULL%1,      Fangfang%Xie%NULL%2,      Fangfang%Xie%NULL%0,      Sha%Li%NULL%1,      Terrance%Healey%NULL%2,      Terrance%Healey%NULL%0,      Michael K.%Atalay%NULL%1,      Wei-Hua%Liao%liaoweihua2017@163.com%2,      Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,      Zhenlu%Yang%NULL%2,      Zhenlu%Yang%NULL%0,      Hongyan%Hou%NULL%2,      Hongyan%Hou%NULL%0,      Chenao%Zhan%NULL%1,      Chong%Chen%NULL%1,      Wenzhi%Lv%NULL%2,      Wenzhi%Lv%NULL%0,      Qian%Tao%NULL%2,      Qian%Tao%NULL%0,      Ziyong%Sun%NULL%2,      Ziyong%Sun%NULL%0,      Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,      Marta%Zerunian%NULL%2,      Marta%Zerunian%NULL%0,      Michela%Polici%NULL%2,      Michela%Polici%NULL%0,      Francesco%Pucciarelli%NULL%2,      Francesco%Pucciarelli%NULL%0,      Tiziano%Polidori%NULL%2,      Tiziano%Polidori%NULL%0,      Carlotta%Rucci%NULL%2,      Carlotta%Rucci%NULL%0,      Gisella%Guido%NULL%2,      Gisella%Guido%NULL%0,      Benedetta%Bracci%NULL%2,      Benedetta%Bracci%NULL%0,      Chiara%de Dominicis%NULL%2,      Chiara%de Dominicis%NULL%0,      Andrea%Laghi%andrea.laghi@uniroma1.it%2,      Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,      Yanyan%Tang%NULL%1,      Yongkang%Mo%NULL%1,      Shengkai%Li%NULL%1,      Daiying%Lin%NULL%1,      Zhijian%Yang%NULL%1,      Zhiqi%Yang%NULL%1,      Hongfu%Sun%NULL%1,      Jinming%Qiu%NULL%1,      Yuting%Liao%NULL%1,      Jianning%Xiao%NULL%1,      Xiangguang%Chen%NULL%1,      Xianheng%Wu%NULL%1,      Renhua%Wu%NULL%1,      Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0, Yong%Lu%xref no email%0, Qiqi%Cao%xref no email%0, Le%Qin%xref no email%0, Zilai%Pan%xref no email%0, Fuhua%Yan%xref no email%0, Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Roentgen Ray Society</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,      Xiaolong%Qi%NULL%2,      Xiaolong%Qi%NULL%0,      Soon Ho%Yoon%yshoka@gmail.com%2,      Soon Ho%Yoon%yshoka@gmail.com%0,      Sang Joon%Park%NULL%2,      Sang Joon%Park%NULL%0,      Kyung Hee%Lee%NULL%2,      Kyung Hee%Lee%NULL%0,      Jin Yong%Kim%NULL%2,      Jin Yong%Kim%NULL%0,      Young Kyung%Lee%NULL%2,      Young Kyung%Lee%NULL%0,      Hongseok%Ko%NULL%2,      Hongseok%Ko%NULL%0,      Ki Hwan%Kim%NULL%2,      Ki Hwan%Kim%NULL%0,      Chang Min%Park%NULL%2,      Chang Min%Park%NULL%0,      Yun-Hyeon%Kim%NULL%2,      Yun-Hyeon%Kim%NULL%0,      Junqiang%Lei%NULL%2,      Junqiang%Lei%NULL%0,      Jung Hee%Hong%NULL%2,      Jung Hee%Hong%NULL%0,      Hyungjin%Kim%NULL%2,      Hyungjin%Kim%NULL%0,      Eui Jin%Hwang%NULL%2,      Eui Jin%Hwang%NULL%0,      Seung Jin%Yoo%NULL%2,      Seung Jin%Yoo%NULL%0,      Ju Gang%Nam%NULL%2,      Ju Gang%Nam%NULL%0,      Chang Hyun%Lee%NULL%2,      Chang Hyun%Lee%NULL%0,      Jin Mo%Goo%NULL%2,      Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,      Akihiko%Sakata%NULL%1,      Mitsuhiro%Kirita%NULL%1,      Takashi%Hiroi%NULL%1,      Ken-ichiro%Kobayashi%NULL%1,      Kenji%Kubo%NULL%1,      Hyunjin%Kim%NULL%1,      Azusa%Nishimoto%NULL%1,      Chikara%Maeda%NULL%1,      Akira%Kawamura%NULL%1,      Nobuhiro%Komiya%NULL%1,      Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,      Huaxiang%Xu%NULL%1,      Qinglin%Shen%NULL%1,      Xianghai%Zhang%NULL%1,      Bing%Fan%26171381@qq.com%1,      Chuanhong%Wang%NULL%1,      Bingliang%Zeng%NULL%1,      Zicong%Li%NULL%1,      Xiaofen%Li%NULL%1,      Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,      Mengdi%Jin%NULL%1,      Li%Miao%NULL%1,      Xinying%Yang%NULL%1,      Peng%Huang%NULL%1,      Huanwen%Xiong%NULL%1,      Peijie%Huang%NULL%1,      Qi%Zhao%NULL%1,      Jiang%Du%NULL%1,      Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,      Yonge%Chi%NULL%2,      Yonge%Chi%NULL%0,      Liang%Zhang%NULL%2,      Liang%Zhang%NULL%0,      Huan%Liu%NULL%2,      Huan%Liu%NULL%0,      Kun%Du%NULL%1,      Zhengxing%Li%NULL%2,      Zhengxing%Li%NULL%0,      Jie%Chen%NULL%2,      Jie%Chen%NULL%0,      Liuhui%Cheng%NULL%2,      Liuhui%Cheng%NULL%0,      Daoqing%Wang%wangdaoqing1215@126.com%2,      Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,      Kai%Xie%NULL%2,      Kai%Xie%NULL%0,      Hui%Lu%NULL%1,      Lei%Xu%bayinhexl@126.com%1,      Shusheng%Zhou%zhouss108@163.com%1,      Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,      Christopher%Gieraerts%NULL%2,      Christopher%Gieraerts%NULL%0,      Yves%De Bruecker%NULL%2,      Yves%De Bruecker%NULL%0,      Lode%Janssen%NULL%2,      Lode%Janssen%NULL%0,      Hanne%Valgaeren%NULL%2,      Hanne%Valgaeren%NULL%0,      Dagmar%Obbels%NULL%2,      Dagmar%Obbels%NULL%0,      Marc%Gillis%NULL%2,      Marc%Gillis%NULL%0,      Marc%Van Ranst%NULL%2,      Marc%Van Ranst%NULL%0,      Johan%Frans%NULL%1,      Annick%Demeyere%NULL%2,      Annick%Demeyere%NULL%0,      Rolf%Symons%rolf.symons@imelda.be%2,      Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,       Ben%Hsieh%NULL%1,       Zeng%Xiong%NULL%2,       Zeng%Xiong%NULL%0,       Kasey%Halsey%NULL%2,       Kasey%Halsey%NULL%0,       Ji Whae%Choi%NULL%2,       Ji Whae%Choi%NULL%0,       Thi My Linh%Tran%NULL%2,       Thi My Linh%Tran%NULL%0,       Ian%Pan%NULL%2,       Ian%Pan%NULL%0,       Lin-Bo%Shi%NULL%2,       Lin-Bo%Shi%NULL%0,       Dong-Cui%Wang%NULL%1,       Ji%Mei%NULL%2,       Ji%Mei%NULL%0,       Xiao-Long%Jiang%NULL%1,       Qiu-Hua%Zeng%NULL%1,       Thomas K.%Egglin%NULL%1,       Ping-Feng%Hu%NULL%2,       Ping-Feng%Hu%NULL%0,       Saurabh%Agarwal%NULL%1,       Fangfang%Xie%NULL%2,       Fangfang%Xie%NULL%0,       Sha%Li%NULL%1,       Terrance%Healey%NULL%2,       Terrance%Healey%NULL%0,       Michael K.%Atalay%NULL%1,       Wei-Hua%Liao%liaoweihua2017@163.com%2,       Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,       Zhenlu%Yang%NULL%2,       Zhenlu%Yang%NULL%0,       Hongyan%Hou%NULL%2,       Hongyan%Hou%NULL%0,       Chenao%Zhan%NULL%1,       Chong%Chen%NULL%1,       Wenzhi%Lv%NULL%2,       Wenzhi%Lv%NULL%0,       Qian%Tao%NULL%2,       Qian%Tao%NULL%0,       Ziyong%Sun%NULL%2,       Ziyong%Sun%NULL%0,       Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,       Marta%Zerunian%NULL%2,       Marta%Zerunian%NULL%0,       Michela%Polici%NULL%2,       Michela%Polici%NULL%0,       Francesco%Pucciarelli%NULL%2,       Francesco%Pucciarelli%NULL%0,       Tiziano%Polidori%NULL%2,       Tiziano%Polidori%NULL%0,       Carlotta%Rucci%NULL%2,       Carlotta%Rucci%NULL%0,       Gisella%Guido%NULL%2,       Gisella%Guido%NULL%0,       Benedetta%Bracci%NULL%2,       Benedetta%Bracci%NULL%0,       Chiara%de Dominicis%NULL%2,       Chiara%de Dominicis%NULL%0,       Andrea%Laghi%andrea.laghi@uniroma1.it%2,       Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,       Yanyan%Tang%NULL%1,       Yongkang%Mo%NULL%1,       Shengkai%Li%NULL%1,       Daiying%Lin%NULL%1,       Zhijian%Yang%NULL%1,       Zhiqi%Yang%NULL%1,       Hongfu%Sun%NULL%1,       Jinming%Qiu%NULL%1,       Yuting%Liao%NULL%1,       Jianning%Xiao%NULL%1,       Xiangguang%Chen%NULL%1,       Xianheng%Wu%NULL%1,       Renhua%Wu%NULL%1,       Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,  Yong%Lu%xref no email%0,  Qiqi%Cao%xref no email%0,  Le%Qin%xref no email%0,  Zilai%Pan%xref no email%0,  Fuhua%Yan%xref no email%0,  Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,       Xiaolong%Qi%NULL%2,       Xiaolong%Qi%NULL%0,       Soon Ho%Yoon%yshoka@gmail.com%2,       Soon Ho%Yoon%yshoka@gmail.com%0,       Sang Joon%Park%NULL%2,       Sang Joon%Park%NULL%0,       Kyung Hee%Lee%NULL%2,       Kyung Hee%Lee%NULL%0,       Jin Yong%Kim%NULL%2,       Jin Yong%Kim%NULL%0,       Young Kyung%Lee%NULL%2,       Young Kyung%Lee%NULL%0,       Hongseok%Ko%NULL%2,       Hongseok%Ko%NULL%0,       Ki Hwan%Kim%NULL%2,       Ki Hwan%Kim%NULL%0,       Chang Min%Park%NULL%2,       Chang Min%Park%NULL%0,       Yun-Hyeon%Kim%NULL%2,       Yun-Hyeon%Kim%NULL%0,       Junqiang%Lei%NULL%2,       Junqiang%Lei%NULL%0,       Jung Hee%Hong%NULL%2,       Jung Hee%Hong%NULL%0,       Hyungjin%Kim%NULL%2,       Hyungjin%Kim%NULL%0,       Eui Jin%Hwang%NULL%2,       Eui Jin%Hwang%NULL%0,       Seung Jin%Yoo%NULL%2,       Seung Jin%Yoo%NULL%0,       Ju Gang%Nam%NULL%2,       Ju Gang%Nam%NULL%0,       Chang Hyun%Lee%NULL%2,       Chang Hyun%Lee%NULL%0,       Jin Mo%Goo%NULL%2,       Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,       Akihiko%Sakata%NULL%1,       Mitsuhiro%Kirita%NULL%1,       Takashi%Hiroi%NULL%1,       Ken-ichiro%Kobayashi%NULL%1,       Kenji%Kubo%NULL%1,       Hyunjin%Kim%NULL%1,       Azusa%Nishimoto%NULL%1,       Chikara%Maeda%NULL%1,       Akira%Kawamura%NULL%1,       Nobuhiro%Komiya%NULL%1,       Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,       Huaxiang%Xu%NULL%1,       Qinglin%Shen%NULL%1,       Xianghai%Zhang%NULL%1,       Bing%Fan%26171381@qq.com%1,       Chuanhong%Wang%NULL%1,       Bingliang%Zeng%NULL%1,       Zicong%Li%NULL%1,       Xiaofen%Li%NULL%1,       Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,       Mengdi%Jin%NULL%1,       Li%Miao%NULL%1,       Xinying%Yang%NULL%1,       Peng%Huang%NULL%1,       Huanwen%Xiong%NULL%1,       Peijie%Huang%NULL%1,       Qi%Zhao%NULL%1,       Jiang%Du%NULL%1,       Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,       Yonge%Chi%NULL%2,       Yonge%Chi%NULL%0,       Liang%Zhang%NULL%2,       Liang%Zhang%NULL%0,       Huan%Liu%NULL%2,       Huan%Liu%NULL%0,       Kun%Du%NULL%1,       Zhengxing%Li%NULL%2,       Zhengxing%Li%NULL%0,       Jie%Chen%NULL%2,       Jie%Chen%NULL%0,       Liuhui%Cheng%NULL%2,       Liuhui%Cheng%NULL%0,       Daoqing%Wang%wangdaoqing1215@126.com%2,       Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,       Kai%Xie%NULL%2,       Kai%Xie%NULL%0,       Hui%Lu%NULL%1,       Lei%Xu%bayinhexl@126.com%1,       Shusheng%Zhou%zhouss108@163.com%1,       Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,       Christopher%Gieraerts%NULL%2,       Christopher%Gieraerts%NULL%0,       Yves%De Bruecker%NULL%2,       Yves%De Bruecker%NULL%0,       Lode%Janssen%NULL%2,       Lode%Janssen%NULL%0,       Hanne%Valgaeren%NULL%2,       Hanne%Valgaeren%NULL%0,       Dagmar%Obbels%NULL%2,       Dagmar%Obbels%NULL%0,       Marc%Gillis%NULL%2,       Marc%Gillis%NULL%0,       Marc%Van Ranst%NULL%2,       Marc%Van Ranst%NULL%0,       Johan%Frans%NULL%1,       Annick%Demeyere%NULL%2,       Annick%Demeyere%NULL%0,       Rolf%Symons%rolf.symons@imelda.be%2,       Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,        Ben%Hsieh%NULL%1,        Zeng%Xiong%NULL%2,        Zeng%Xiong%NULL%0,        Kasey%Halsey%NULL%2,        Kasey%Halsey%NULL%0,        Ji Whae%Choi%NULL%2,        Ji Whae%Choi%NULL%0,        Thi My Linh%Tran%NULL%2,        Thi My Linh%Tran%NULL%0,        Ian%Pan%NULL%2,        Ian%Pan%NULL%0,        Lin-Bo%Shi%NULL%2,        Lin-Bo%Shi%NULL%0,        Dong-Cui%Wang%NULL%1,        Ji%Mei%NULL%2,        Ji%Mei%NULL%0,        Xiao-Long%Jiang%NULL%1,        Qiu-Hua%Zeng%NULL%1,        Thomas K.%Egglin%NULL%1,        Ping-Feng%Hu%NULL%2,        Ping-Feng%Hu%NULL%0,        Saurabh%Agarwal%NULL%1,        Fangfang%Xie%NULL%2,        Fangfang%Xie%NULL%0,        Sha%Li%NULL%1,        Terrance%Healey%NULL%2,        Terrance%Healey%NULL%0,        Michael K.%Atalay%NULL%1,        Wei-Hua%Liao%liaoweihua2017@163.com%2,        Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,        Zhenlu%Yang%NULL%2,        Zhenlu%Yang%NULL%0,        Hongyan%Hou%NULL%2,        Hongyan%Hou%NULL%0,        Chenao%Zhan%NULL%1,        Chong%Chen%NULL%1,        Wenzhi%Lv%NULL%2,        Wenzhi%Lv%NULL%0,        Qian%Tao%NULL%2,        Qian%Tao%NULL%0,        Ziyong%Sun%NULL%2,        Ziyong%Sun%NULL%0,        Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,        Marta%Zerunian%NULL%2,        Marta%Zerunian%NULL%0,        Michela%Polici%NULL%2,        Michela%Polici%NULL%0,        Francesco%Pucciarelli%NULL%2,        Francesco%Pucciarelli%NULL%0,        Tiziano%Polidori%NULL%2,        Tiziano%Polidori%NULL%0,        Carlotta%Rucci%NULL%2,        Carlotta%Rucci%NULL%0,        Gisella%Guido%NULL%2,        Gisella%Guido%NULL%0,        Benedetta%Bracci%NULL%2,        Benedetta%Bracci%NULL%0,        Chiara%de Dominicis%NULL%2,        Chiara%de Dominicis%NULL%0,        Andrea%Laghi%andrea.laghi@uniroma1.it%2,        Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,        Yanyan%Tang%NULL%1,        Yongkang%Mo%NULL%1,        Shengkai%Li%NULL%1,        Daiying%Lin%NULL%1,        Zhijian%Yang%NULL%1,        Zhiqi%Yang%NULL%1,        Hongfu%Sun%NULL%1,        Jinming%Qiu%NULL%1,        Yuting%Liao%NULL%1,        Jianning%Xiao%NULL%1,        Xiangguang%Chen%NULL%1,        Xianheng%Wu%NULL%1,        Renhua%Wu%NULL%1,        Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,   Yong%Lu%xref no email%0,   Qiqi%Cao%xref no email%0,   Le%Qin%xref no email%0,   Zilai%Pan%xref no email%0,   Fuhua%Yan%xref no email%0,   Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,        Xiaolong%Qi%NULL%2,        Xiaolong%Qi%NULL%0,        Soon Ho%Yoon%yshoka@gmail.com%2,        Soon Ho%Yoon%yshoka@gmail.com%0,        Sang Joon%Park%NULL%2,        Sang Joon%Park%NULL%0,        Kyung Hee%Lee%NULL%2,        Kyung Hee%Lee%NULL%0,        Jin Yong%Kim%NULL%2,        Jin Yong%Kim%NULL%0,        Young Kyung%Lee%NULL%2,        Young Kyung%Lee%NULL%0,        Hongseok%Ko%NULL%2,        Hongseok%Ko%NULL%0,        Ki Hwan%Kim%NULL%2,        Ki Hwan%Kim%NULL%0,        Chang Min%Park%NULL%2,        Chang Min%Park%NULL%0,        Yun-Hyeon%Kim%NULL%2,        Yun-Hyeon%Kim%NULL%0,        Junqiang%Lei%NULL%2,        Junqiang%Lei%NULL%0,        Jung Hee%Hong%NULL%2,        Jung Hee%Hong%NULL%0,        Hyungjin%Kim%NULL%2,        Hyungjin%Kim%NULL%0,        Eui Jin%Hwang%NULL%2,        Eui Jin%Hwang%NULL%0,        Seung Jin%Yoo%NULL%2,        Seung Jin%Yoo%NULL%0,        Ju Gang%Nam%NULL%2,        Ju Gang%Nam%NULL%0,        Chang Hyun%Lee%NULL%2,        Chang Hyun%Lee%NULL%0,        Jin Mo%Goo%NULL%2,        Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,        Akihiko%Sakata%NULL%1,        Mitsuhiro%Kirita%NULL%1,        Takashi%Hiroi%NULL%1,        Ken-ichiro%Kobayashi%NULL%1,        Kenji%Kubo%NULL%1,        Hyunjin%Kim%NULL%1,        Azusa%Nishimoto%NULL%1,        Chikara%Maeda%NULL%1,        Akira%Kawamura%NULL%1,        Nobuhiro%Komiya%NULL%1,        Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,        Huaxiang%Xu%NULL%1,        Qinglin%Shen%NULL%1,        Xianghai%Zhang%NULL%1,        Bing%Fan%26171381@qq.com%1,        Chuanhong%Wang%NULL%1,        Bingliang%Zeng%NULL%1,        Zicong%Li%NULL%1,        Xiaofen%Li%NULL%1,        Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,        Mengdi%Jin%NULL%1,        Li%Miao%NULL%1,        Xinying%Yang%NULL%1,        Peng%Huang%NULL%1,        Huanwen%Xiong%NULL%1,        Peijie%Huang%NULL%1,        Qi%Zhao%NULL%1,        Jiang%Du%NULL%1,        Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,        Yonge%Chi%NULL%2,        Yonge%Chi%NULL%0,        Liang%Zhang%NULL%2,        Liang%Zhang%NULL%0,        Huan%Liu%NULL%2,        Huan%Liu%NULL%0,        Kun%Du%NULL%1,        Zhengxing%Li%NULL%2,        Zhengxing%Li%NULL%0,        Jie%Chen%NULL%2,        Jie%Chen%NULL%0,        Liuhui%Cheng%NULL%2,        Liuhui%Cheng%NULL%0,        Daoqing%Wang%wangdaoqing1215@126.com%2,        Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,        Kai%Xie%NULL%2,        Kai%Xie%NULL%0,        Hui%Lu%NULL%1,        Lei%Xu%bayinhexl@126.com%1,        Shusheng%Zhou%zhouss108@163.com%1,        Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,        Christopher%Gieraerts%NULL%2,        Christopher%Gieraerts%NULL%0,        Yves%De Bruecker%NULL%2,        Yves%De Bruecker%NULL%0,        Lode%Janssen%NULL%2,        Lode%Janssen%NULL%0,        Hanne%Valgaeren%NULL%2,        Hanne%Valgaeren%NULL%0,        Dagmar%Obbels%NULL%2,        Dagmar%Obbels%NULL%0,        Marc%Gillis%NULL%2,        Marc%Gillis%NULL%0,        Marc%Van Ranst%NULL%2,        Marc%Van Ranst%NULL%0,        Johan%Frans%NULL%1,        Annick%Demeyere%NULL%2,        Annick%Demeyere%NULL%0,        Rolf%Symons%rolf.symons@imelda.be%2,        Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,         Ben%Hsieh%NULL%1,         Zeng%Xiong%NULL%2,         Zeng%Xiong%NULL%0,         Kasey%Halsey%NULL%2,         Kasey%Halsey%NULL%0,         Ji Whae%Choi%NULL%2,         Ji Whae%Choi%NULL%0,         Thi My Linh%Tran%NULL%2,         Thi My Linh%Tran%NULL%0,         Ian%Pan%NULL%2,         Ian%Pan%NULL%0,         Lin-Bo%Shi%NULL%2,         Lin-Bo%Shi%NULL%0,         Dong-Cui%Wang%NULL%1,         Ji%Mei%NULL%2,         Ji%Mei%NULL%0,         Xiao-Long%Jiang%NULL%1,         Qiu-Hua%Zeng%NULL%1,         Thomas K.%Egglin%NULL%1,         Ping-Feng%Hu%NULL%2,         Ping-Feng%Hu%NULL%0,         Saurabh%Agarwal%NULL%1,         Fangfang%Xie%NULL%2,         Fangfang%Xie%NULL%0,         Sha%Li%NULL%1,         Terrance%Healey%NULL%2,         Terrance%Healey%NULL%0,         Michael K.%Atalay%NULL%1,         Wei-Hua%Liao%liaoweihua2017@163.com%2,         Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,         Zhenlu%Yang%NULL%2,         Zhenlu%Yang%NULL%0,         Hongyan%Hou%NULL%2,         Hongyan%Hou%NULL%0,         Chenao%Zhan%NULL%1,         Chong%Chen%NULL%1,         Wenzhi%Lv%NULL%2,         Wenzhi%Lv%NULL%0,         Qian%Tao%NULL%2,         Qian%Tao%NULL%0,         Ziyong%Sun%NULL%2,         Ziyong%Sun%NULL%0,         Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,         Marta%Zerunian%NULL%2,         Marta%Zerunian%NULL%0,         Michela%Polici%NULL%2,         Michela%Polici%NULL%0,         Francesco%Pucciarelli%NULL%2,         Francesco%Pucciarelli%NULL%0,         Tiziano%Polidori%NULL%2,         Tiziano%Polidori%NULL%0,         Carlotta%Rucci%NULL%2,         Carlotta%Rucci%NULL%0,         Gisella%Guido%NULL%2,         Gisella%Guido%NULL%0,         Benedetta%Bracci%NULL%2,         Benedetta%Bracci%NULL%0,         Chiara%de Dominicis%NULL%2,         Chiara%de Dominicis%NULL%0,         Andrea%Laghi%andrea.laghi@uniroma1.it%2,         Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,         Yanyan%Tang%NULL%1,         Yongkang%Mo%NULL%1,         Shengkai%Li%NULL%1,         Daiying%Lin%NULL%1,         Zhijian%Yang%NULL%1,         Zhiqi%Yang%NULL%1,         Hongfu%Sun%NULL%1,         Jinming%Qiu%NULL%1,         Yuting%Liao%NULL%1,         Jianning%Xiao%NULL%1,         Xiangguang%Chen%NULL%1,         Xianheng%Wu%NULL%1,         Renhua%Wu%NULL%1,         Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,    Yong%Lu%xref no email%0,    Qiqi%Cao%xref no email%0,    Le%Qin%xref no email%0,    Zilai%Pan%xref no email%0,    Fuhua%Yan%xref no email%0,    Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,         Xiaolong%Qi%NULL%2,         Xiaolong%Qi%NULL%0,         Soon Ho%Yoon%yshoka@gmail.com%2,         Soon Ho%Yoon%yshoka@gmail.com%0,         Sang Joon%Park%NULL%2,         Sang Joon%Park%NULL%0,         Kyung Hee%Lee%NULL%2,         Kyung Hee%Lee%NULL%0,         Jin Yong%Kim%NULL%2,         Jin Yong%Kim%NULL%0,         Young Kyung%Lee%NULL%2,         Young Kyung%Lee%NULL%0,         Hongseok%Ko%NULL%2,         Hongseok%Ko%NULL%0,         Ki Hwan%Kim%NULL%2,         Ki Hwan%Kim%NULL%0,         Chang Min%Park%NULL%2,         Chang Min%Park%NULL%0,         Yun-Hyeon%Kim%NULL%2,         Yun-Hyeon%Kim%NULL%0,         Junqiang%Lei%NULL%2,         Junqiang%Lei%NULL%0,         Jung Hee%Hong%NULL%2,         Jung Hee%Hong%NULL%0,         Hyungjin%Kim%NULL%2,         Hyungjin%Kim%NULL%0,         Eui Jin%Hwang%NULL%2,         Eui Jin%Hwang%NULL%0,         Seung Jin%Yoo%NULL%2,         Seung Jin%Yoo%NULL%0,         Ju Gang%Nam%NULL%2,         Ju Gang%Nam%NULL%0,         Chang Hyun%Lee%NULL%2,         Chang Hyun%Lee%NULL%0,         Jin Mo%Goo%NULL%2,         Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,         Akihiko%Sakata%NULL%1,         Mitsuhiro%Kirita%NULL%1,         Takashi%Hiroi%NULL%1,         Ken-ichiro%Kobayashi%NULL%1,         Kenji%Kubo%NULL%1,         Hyunjin%Kim%NULL%1,         Azusa%Nishimoto%NULL%1,         Chikara%Maeda%NULL%1,         Akira%Kawamura%NULL%1,         Nobuhiro%Komiya%NULL%1,         Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,         Huaxiang%Xu%NULL%1,         Qinglin%Shen%NULL%1,         Xianghai%Zhang%NULL%1,         Bing%Fan%26171381@qq.com%1,         Chuanhong%Wang%NULL%1,         Bingliang%Zeng%NULL%1,         Zicong%Li%NULL%1,         Xiaofen%Li%NULL%1,         Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,         Mengdi%Jin%NULL%1,         Li%Miao%NULL%1,         Xinying%Yang%NULL%1,         Peng%Huang%NULL%1,         Huanwen%Xiong%NULL%1,         Peijie%Huang%NULL%1,         Qi%Zhao%NULL%1,         Jiang%Du%NULL%1,         Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,         Yonge%Chi%NULL%2,         Yonge%Chi%NULL%0,         Liang%Zhang%NULL%2,         Liang%Zhang%NULL%0,         Huan%Liu%NULL%2,         Huan%Liu%NULL%0,         Kun%Du%NULL%1,         Zhengxing%Li%NULL%2,         Zhengxing%Li%NULL%0,         Jie%Chen%NULL%2,         Jie%Chen%NULL%0,         Liuhui%Cheng%NULL%2,         Liuhui%Cheng%NULL%0,         Daoqing%Wang%wangdaoqing1215@126.com%2,         Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,         Kai%Xie%NULL%2,         Kai%Xie%NULL%0,         Hui%Lu%NULL%1,         Lei%Xu%bayinhexl@126.com%1,         Shusheng%Zhou%zhouss108@163.com%1,         Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,         Christopher%Gieraerts%NULL%2,         Christopher%Gieraerts%NULL%0,         Yves%De Bruecker%NULL%2,         Yves%De Bruecker%NULL%0,         Lode%Janssen%NULL%2,         Lode%Janssen%NULL%0,         Hanne%Valgaeren%NULL%2,         Hanne%Valgaeren%NULL%0,         Dagmar%Obbels%NULL%2,         Dagmar%Obbels%NULL%0,         Marc%Gillis%NULL%2,         Marc%Gillis%NULL%0,         Marc%Van Ranst%NULL%2,         Marc%Van Ranst%NULL%0,         Johan%Frans%NULL%1,         Annick%Demeyere%NULL%2,         Annick%Demeyere%NULL%0,         Rolf%Symons%rolf.symons@imelda.be%2,         Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,          Ben%Hsieh%NULL%1,          Zeng%Xiong%NULL%2,          Zeng%Xiong%NULL%0,          Kasey%Halsey%NULL%2,          Kasey%Halsey%NULL%0,          Ji Whae%Choi%NULL%2,          Ji Whae%Choi%NULL%0,          Thi My Linh%Tran%NULL%2,          Thi My Linh%Tran%NULL%0,          Ian%Pan%NULL%2,          Ian%Pan%NULL%0,          Lin-Bo%Shi%NULL%2,          Lin-Bo%Shi%NULL%0,          Dong-Cui%Wang%NULL%1,          Ji%Mei%NULL%2,          Ji%Mei%NULL%0,          Xiao-Long%Jiang%NULL%1,          Qiu-Hua%Zeng%NULL%1,          Thomas K.%Egglin%NULL%1,          Ping-Feng%Hu%NULL%2,          Ping-Feng%Hu%NULL%0,          Saurabh%Agarwal%NULL%1,          Fangfang%Xie%NULL%2,          Fangfang%Xie%NULL%0,          Sha%Li%NULL%1,          Terrance%Healey%NULL%2,          Terrance%Healey%NULL%0,          Michael K.%Atalay%NULL%1,          Wei-Hua%Liao%liaoweihua2017@163.com%2,          Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,          Zhenlu%Yang%NULL%2,          Zhenlu%Yang%NULL%0,          Hongyan%Hou%NULL%2,          Hongyan%Hou%NULL%0,          Chenao%Zhan%NULL%1,          Chong%Chen%NULL%1,          Wenzhi%Lv%NULL%2,          Wenzhi%Lv%NULL%0,          Qian%Tao%NULL%2,          Qian%Tao%NULL%0,          Ziyong%Sun%NULL%2,          Ziyong%Sun%NULL%0,          Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,          Marta%Zerunian%NULL%2,          Marta%Zerunian%NULL%0,          Michela%Polici%NULL%2,          Michela%Polici%NULL%0,          Francesco%Pucciarelli%NULL%2,          Francesco%Pucciarelli%NULL%0,          Tiziano%Polidori%NULL%2,          Tiziano%Polidori%NULL%0,          Carlotta%Rucci%NULL%2,          Carlotta%Rucci%NULL%0,          Gisella%Guido%NULL%2,          Gisella%Guido%NULL%0,          Benedetta%Bracci%NULL%2,          Benedetta%Bracci%NULL%0,          Chiara%de Dominicis%NULL%2,          Chiara%de Dominicis%NULL%0,          Andrea%Laghi%andrea.laghi@uniroma1.it%2,          Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,          Yanyan%Tang%NULL%1,          Yongkang%Mo%NULL%1,          Shengkai%Li%NULL%1,          Daiying%Lin%NULL%1,          Zhijian%Yang%NULL%1,          Zhiqi%Yang%NULL%1,          Hongfu%Sun%NULL%1,          Jinming%Qiu%NULL%1,          Yuting%Liao%NULL%1,          Jianning%Xiao%NULL%1,          Xiangguang%Chen%NULL%1,          Xianheng%Wu%NULL%1,          Renhua%Wu%NULL%1,          Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,     Yong%Lu%xref no email%0,     Qiqi%Cao%xref no email%0,     Le%Qin%xref no email%0,     Zilai%Pan%xref no email%0,     Fuhua%Yan%xref no email%0,     Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,          Xiaolong%Qi%NULL%2,          Xiaolong%Qi%NULL%0,          Soon Ho%Yoon%yshoka@gmail.com%2,          Soon Ho%Yoon%yshoka@gmail.com%0,          Sang Joon%Park%NULL%2,          Sang Joon%Park%NULL%0,          Kyung Hee%Lee%NULL%2,          Kyung Hee%Lee%NULL%0,          Jin Yong%Kim%NULL%2,          Jin Yong%Kim%NULL%0,          Young Kyung%Lee%NULL%2,          Young Kyung%Lee%NULL%0,          Hongseok%Ko%NULL%2,          Hongseok%Ko%NULL%0,          Ki Hwan%Kim%NULL%2,          Ki Hwan%Kim%NULL%0,          Chang Min%Park%NULL%2,          Chang Min%Park%NULL%0,          Yun-Hyeon%Kim%NULL%2,          Yun-Hyeon%Kim%NULL%0,          Junqiang%Lei%NULL%2,          Junqiang%Lei%NULL%0,          Jung Hee%Hong%NULL%2,          Jung Hee%Hong%NULL%0,          Hyungjin%Kim%NULL%2,          Hyungjin%Kim%NULL%0,          Eui Jin%Hwang%NULL%2,          Eui Jin%Hwang%NULL%0,          Seung Jin%Yoo%NULL%2,          Seung Jin%Yoo%NULL%0,          Ju Gang%Nam%NULL%2,          Ju Gang%Nam%NULL%0,          Chang Hyun%Lee%NULL%2,          Chang Hyun%Lee%NULL%0,          Jin Mo%Goo%NULL%2,          Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,          Akihiko%Sakata%NULL%1,          Mitsuhiro%Kirita%NULL%1,          Takashi%Hiroi%NULL%1,          Ken-ichiro%Kobayashi%NULL%1,          Kenji%Kubo%NULL%1,          Hyunjin%Kim%NULL%1,          Azusa%Nishimoto%NULL%1,          Chikara%Maeda%NULL%1,          Akira%Kawamura%NULL%1,          Nobuhiro%Komiya%NULL%1,          Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,          Huaxiang%Xu%NULL%1,          Qinglin%Shen%NULL%1,          Xianghai%Zhang%NULL%1,          Bing%Fan%26171381@qq.com%1,          Chuanhong%Wang%NULL%1,          Bingliang%Zeng%NULL%1,          Zicong%Li%NULL%1,          Xiaofen%Li%NULL%1,          Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,          Mengdi%Jin%NULL%1,          Li%Miao%NULL%1,          Xinying%Yang%NULL%1,          Peng%Huang%NULL%1,          Huanwen%Xiong%NULL%1,          Peijie%Huang%NULL%1,          Qi%Zhao%NULL%1,          Jiang%Du%NULL%1,          Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,          Yonge%Chi%NULL%2,          Yonge%Chi%NULL%0,          Liang%Zhang%NULL%2,          Liang%Zhang%NULL%0,          Huan%Liu%NULL%2,          Huan%Liu%NULL%0,          Kun%Du%NULL%1,          Zhengxing%Li%NULL%2,          Zhengxing%Li%NULL%0,          Jie%Chen%NULL%2,          Jie%Chen%NULL%0,          Liuhui%Cheng%NULL%2,          Liuhui%Cheng%NULL%0,          Daoqing%Wang%wangdaoqing1215@126.com%2,          Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,          Kai%Xie%NULL%2,          Kai%Xie%NULL%0,          Hui%Lu%NULL%1,          Lei%Xu%bayinhexl@126.com%1,          Shusheng%Zhou%zhouss108@163.com%1,          Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,          Christopher%Gieraerts%NULL%2,          Christopher%Gieraerts%NULL%0,          Yves%De Bruecker%NULL%2,          Yves%De Bruecker%NULL%0,          Lode%Janssen%NULL%2,          Lode%Janssen%NULL%0,          Hanne%Valgaeren%NULL%2,          Hanne%Valgaeren%NULL%0,          Dagmar%Obbels%NULL%2,          Dagmar%Obbels%NULL%0,          Marc%Gillis%NULL%2,          Marc%Gillis%NULL%0,          Marc%Van Ranst%NULL%2,          Marc%Van Ranst%NULL%0,          Johan%Frans%NULL%1,          Annick%Demeyere%NULL%2,          Annick%Demeyere%NULL%0,          Rolf%Symons%rolf.symons@imelda.be%2,          Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1090,6 +1279,9 @@
       <c r="I1" t="s">
         <v>53</v>
       </c>
+      <c r="J1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1105,7 +1297,7 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1118,6 +1310,9 @@
       </c>
       <c r="I2" t="s">
         <v>95</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1134,7 +1329,7 @@
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
         <v>99</v>
@@ -1147,6 +1342,9 @@
       </c>
       <c r="I3" t="s">
         <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1163,7 +1361,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1176,6 +1374,9 @@
       </c>
       <c r="I4" t="s">
         <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1192,7 +1393,7 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1205,6 +1406,9 @@
       </c>
       <c r="I5" t="s">
         <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1221,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -1230,10 +1434,13 @@
         <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1250,7 +1457,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -1263,6 +1470,9 @@
       </c>
       <c r="I7" t="s">
         <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1279,7 +1489,7 @@
         <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1292,6 +1502,9 @@
       </c>
       <c r="I8" t="s">
         <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1308,7 +1521,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -1321,6 +1534,9 @@
       </c>
       <c r="I9" t="s">
         <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1337,7 +1553,7 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -1350,6 +1566,9 @@
       </c>
       <c r="I10" t="s">
         <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1366,7 +1585,7 @@
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1379,6 +1598,9 @@
       </c>
       <c r="I11" t="s">
         <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1395,7 +1617,7 @@
         <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1408,6 +1630,9 @@
       </c>
       <c r="I12" t="s">
         <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1424,7 +1649,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -1437,6 +1662,9 @@
       </c>
       <c r="I13" t="s">
         <v>95</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/4.xlsx
+++ b/Covid_19_Dataset_and_References/References/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="261">
   <si>
     <t>Doi</t>
   </si>
@@ -974,6 +974,78 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%2,          Christopher%Gieraerts%NULL%2,          Christopher%Gieraerts%NULL%0,          Yves%De Bruecker%NULL%2,          Yves%De Bruecker%NULL%0,          Lode%Janssen%NULL%2,          Lode%Janssen%NULL%0,          Hanne%Valgaeren%NULL%2,          Hanne%Valgaeren%NULL%0,          Dagmar%Obbels%NULL%2,          Dagmar%Obbels%NULL%0,          Marc%Gillis%NULL%2,          Marc%Gillis%NULL%0,          Marc%Van Ranst%NULL%2,          Marc%Van Ranst%NULL%0,          Johan%Frans%NULL%1,          Annick%Demeyere%NULL%2,          Annick%Demeyere%NULL%0,          Rolf%Symons%rolf.symons@imelda.be%2,          Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,           Ben%Hsieh%NULL%1,           Zeng%Xiong%NULL%2,           Zeng%Xiong%NULL%0,           Kasey%Halsey%NULL%2,           Kasey%Halsey%NULL%0,           Ji Whae%Choi%NULL%2,           Ji Whae%Choi%NULL%0,           Thi My Linh%Tran%NULL%2,           Thi My Linh%Tran%NULL%0,           Ian%Pan%NULL%2,           Ian%Pan%NULL%0,           Lin-Bo%Shi%NULL%2,           Lin-Bo%Shi%NULL%0,           Dong-Cui%Wang%NULL%1,           Ji%Mei%NULL%2,           Ji%Mei%NULL%0,           Xiao-Long%Jiang%NULL%1,           Qiu-Hua%Zeng%NULL%1,           Thomas K.%Egglin%NULL%1,           Ping-Feng%Hu%NULL%2,           Ping-Feng%Hu%NULL%0,           Saurabh%Agarwal%NULL%1,           Fangfang%Xie%NULL%2,           Fangfang%Xie%NULL%0,           Sha%Li%NULL%1,           Terrance%Healey%NULL%2,           Terrance%Healey%NULL%0,           Michael K.%Atalay%NULL%1,           Wei-Hua%Liao%liaoweihua2017@163.com%2,           Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,           Zhenlu%Yang%NULL%2,           Zhenlu%Yang%NULL%0,           Hongyan%Hou%NULL%2,           Hongyan%Hou%NULL%0,           Chenao%Zhan%NULL%1,           Chong%Chen%NULL%1,           Wenzhi%Lv%NULL%2,           Wenzhi%Lv%NULL%0,           Qian%Tao%NULL%2,           Qian%Tao%NULL%0,           Ziyong%Sun%NULL%2,           Ziyong%Sun%NULL%0,           Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,           Marta%Zerunian%NULL%2,           Marta%Zerunian%NULL%0,           Michela%Polici%NULL%2,           Michela%Polici%NULL%0,           Francesco%Pucciarelli%NULL%2,           Francesco%Pucciarelli%NULL%0,           Tiziano%Polidori%NULL%2,           Tiziano%Polidori%NULL%0,           Carlotta%Rucci%NULL%2,           Carlotta%Rucci%NULL%0,           Gisella%Guido%NULL%2,           Gisella%Guido%NULL%0,           Benedetta%Bracci%NULL%2,           Benedetta%Bracci%NULL%0,           Chiara%de Dominicis%NULL%2,           Chiara%de Dominicis%NULL%0,           Andrea%Laghi%andrea.laghi@uniroma1.it%2,           Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,           Yanyan%Tang%NULL%1,           Yongkang%Mo%NULL%1,           Shengkai%Li%NULL%1,           Daiying%Lin%NULL%1,           Zhijian%Yang%NULL%1,           Zhiqi%Yang%NULL%1,           Hongfu%Sun%NULL%1,           Jinming%Qiu%NULL%1,           Yuting%Liao%NULL%1,           Jianning%Xiao%NULL%1,           Xiangguang%Chen%NULL%1,           Xianheng%Wu%NULL%1,           Renhua%Wu%NULL%1,           Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,      Yong%Lu%xref no email%0,      Qiqi%Cao%xref no email%0,      Le%Qin%xref no email%0,      Zilai%Pan%xref no email%0,      Fuhua%Yan%xref no email%0,      Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,           Xiaolong%Qi%NULL%2,           Xiaolong%Qi%NULL%0,           Soon Ho%Yoon%yshoka@gmail.com%2,           Soon Ho%Yoon%yshoka@gmail.com%0,           Sang Joon%Park%NULL%2,           Sang Joon%Park%NULL%0,           Kyung Hee%Lee%NULL%2,           Kyung Hee%Lee%NULL%0,           Jin Yong%Kim%NULL%2,           Jin Yong%Kim%NULL%0,           Young Kyung%Lee%NULL%2,           Young Kyung%Lee%NULL%0,           Hongseok%Ko%NULL%2,           Hongseok%Ko%NULL%0,           Ki Hwan%Kim%NULL%2,           Ki Hwan%Kim%NULL%0,           Chang Min%Park%NULL%2,           Chang Min%Park%NULL%0,           Yun-Hyeon%Kim%NULL%2,           Yun-Hyeon%Kim%NULL%0,           Junqiang%Lei%NULL%2,           Junqiang%Lei%NULL%0,           Jung Hee%Hong%NULL%2,           Jung Hee%Hong%NULL%0,           Hyungjin%Kim%NULL%2,           Hyungjin%Kim%NULL%0,           Eui Jin%Hwang%NULL%2,           Eui Jin%Hwang%NULL%0,           Seung Jin%Yoo%NULL%2,           Seung Jin%Yoo%NULL%0,           Ju Gang%Nam%NULL%2,           Ju Gang%Nam%NULL%0,           Chang Hyun%Lee%NULL%2,           Chang Hyun%Lee%NULL%0,           Jin Mo%Goo%NULL%2,           Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,           Akihiko%Sakata%NULL%1,           Mitsuhiro%Kirita%NULL%1,           Takashi%Hiroi%NULL%1,           Ken-ichiro%Kobayashi%NULL%1,           Kenji%Kubo%NULL%1,           Hyunjin%Kim%NULL%1,           Azusa%Nishimoto%NULL%1,           Chikara%Maeda%NULL%1,           Akira%Kawamura%NULL%1,           Nobuhiro%Komiya%NULL%1,           Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,           Huaxiang%Xu%NULL%1,           Qinglin%Shen%NULL%1,           Xianghai%Zhang%NULL%1,           Bing%Fan%26171381@qq.com%1,           Chuanhong%Wang%NULL%1,           Bingliang%Zeng%NULL%1,           Zicong%Li%NULL%1,           Xiaofen%Li%NULL%1,           Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,           Mengdi%Jin%NULL%1,           Li%Miao%NULL%1,           Xinying%Yang%NULL%1,           Peng%Huang%NULL%1,           Huanwen%Xiong%NULL%1,           Peijie%Huang%NULL%1,           Qi%Zhao%NULL%1,           Jiang%Du%NULL%1,           Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,           Yonge%Chi%NULL%2,           Yonge%Chi%NULL%0,           Liang%Zhang%NULL%2,           Liang%Zhang%NULL%0,           Huan%Liu%NULL%2,           Huan%Liu%NULL%0,           Kun%Du%NULL%1,           Zhengxing%Li%NULL%2,           Zhengxing%Li%NULL%0,           Jie%Chen%NULL%2,           Jie%Chen%NULL%0,           Liuhui%Cheng%NULL%2,           Liuhui%Cheng%NULL%0,           Daoqing%Wang%wangdaoqing1215@126.com%2,           Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,           Kai%Xie%NULL%2,           Kai%Xie%NULL%0,           Hui%Lu%NULL%1,           Lei%Xu%bayinhexl@126.com%1,           Shusheng%Zhou%zhouss108@163.com%1,           Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,           Christopher%Gieraerts%NULL%2,           Christopher%Gieraerts%NULL%0,           Yves%De Bruecker%NULL%2,           Yves%De Bruecker%NULL%0,           Lode%Janssen%NULL%2,           Lode%Janssen%NULL%0,           Hanne%Valgaeren%NULL%2,           Hanne%Valgaeren%NULL%0,           Dagmar%Obbels%NULL%2,           Dagmar%Obbels%NULL%0,           Marc%Gillis%NULL%2,           Marc%Gillis%NULL%0,           Marc%Van Ranst%NULL%2,           Marc%Van Ranst%NULL%0,           Johan%Frans%NULL%1,           Annick%Demeyere%NULL%2,           Annick%Demeyere%NULL%0,           Rolf%Symons%rolf.symons@imelda.be%2,           Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,            Ben%Hsieh%NULL%1,            Zeng%Xiong%NULL%2,            Zeng%Xiong%NULL%0,            Kasey%Halsey%NULL%2,            Kasey%Halsey%NULL%0,            Ji Whae%Choi%NULL%2,            Ji Whae%Choi%NULL%0,            Thi My Linh%Tran%NULL%2,            Thi My Linh%Tran%NULL%0,            Ian%Pan%NULL%2,            Ian%Pan%NULL%0,            Lin-Bo%Shi%NULL%2,            Lin-Bo%Shi%NULL%0,            Dong-Cui%Wang%NULL%1,            Ji%Mei%NULL%2,            Ji%Mei%NULL%0,            Xiao-Long%Jiang%NULL%1,            Qiu-Hua%Zeng%NULL%1,            Thomas K.%Egglin%NULL%1,            Ping-Feng%Hu%NULL%2,            Ping-Feng%Hu%NULL%0,            Saurabh%Agarwal%NULL%1,            Fangfang%Xie%NULL%2,            Fangfang%Xie%NULL%0,            Sha%Li%NULL%1,            Terrance%Healey%NULL%2,            Terrance%Healey%NULL%0,            Michael K.%Atalay%NULL%1,            Wei-Hua%Liao%liaoweihua2017@163.com%2,            Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,            Zhenlu%Yang%NULL%2,            Zhenlu%Yang%NULL%0,            Hongyan%Hou%NULL%2,            Hongyan%Hou%NULL%0,            Chenao%Zhan%NULL%1,            Chong%Chen%NULL%1,            Wenzhi%Lv%NULL%2,            Wenzhi%Lv%NULL%0,            Qian%Tao%NULL%2,            Qian%Tao%NULL%0,            Ziyong%Sun%NULL%2,            Ziyong%Sun%NULL%0,            Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,            Marta%Zerunian%NULL%2,            Marta%Zerunian%NULL%0,            Michela%Polici%NULL%2,            Michela%Polici%NULL%0,            Francesco%Pucciarelli%NULL%2,            Francesco%Pucciarelli%NULL%0,            Tiziano%Polidori%NULL%2,            Tiziano%Polidori%NULL%0,            Carlotta%Rucci%NULL%2,            Carlotta%Rucci%NULL%0,            Gisella%Guido%NULL%2,            Gisella%Guido%NULL%0,            Benedetta%Bracci%NULL%2,            Benedetta%Bracci%NULL%0,            Chiara%de Dominicis%NULL%2,            Chiara%de Dominicis%NULL%0,            Andrea%Laghi%andrea.laghi@uniroma1.it%2,            Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,            Yanyan%Tang%NULL%1,            Yongkang%Mo%NULL%1,            Shengkai%Li%NULL%1,            Daiying%Lin%NULL%1,            Zhijian%Yang%NULL%1,            Zhiqi%Yang%NULL%1,            Hongfu%Sun%NULL%1,            Jinming%Qiu%NULL%1,            Yuting%Liao%NULL%1,            Jianning%Xiao%NULL%1,            Xiangguang%Chen%NULL%1,            Xianheng%Wu%NULL%1,            Renhua%Wu%NULL%1,            Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,       Yong%Lu%xref no email%0,       Qiqi%Cao%xref no email%0,       Le%Qin%xref no email%0,       Zilai%Pan%xref no email%0,       Fuhua%Yan%xref no email%0,       Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,            Xiaolong%Qi%NULL%2,            Xiaolong%Qi%NULL%0,            Soon Ho%Yoon%yshoka@gmail.com%2,            Soon Ho%Yoon%yshoka@gmail.com%0,            Sang Joon%Park%NULL%2,            Sang Joon%Park%NULL%0,            Kyung Hee%Lee%NULL%2,            Kyung Hee%Lee%NULL%0,            Jin Yong%Kim%NULL%2,            Jin Yong%Kim%NULL%0,            Young Kyung%Lee%NULL%2,            Young Kyung%Lee%NULL%0,            Hongseok%Ko%NULL%2,            Hongseok%Ko%NULL%0,            Ki Hwan%Kim%NULL%2,            Ki Hwan%Kim%NULL%0,            Chang Min%Park%NULL%2,            Chang Min%Park%NULL%0,            Yun-Hyeon%Kim%NULL%2,            Yun-Hyeon%Kim%NULL%0,            Junqiang%Lei%NULL%2,            Junqiang%Lei%NULL%0,            Jung Hee%Hong%NULL%2,            Jung Hee%Hong%NULL%0,            Hyungjin%Kim%NULL%2,            Hyungjin%Kim%NULL%0,            Eui Jin%Hwang%NULL%2,            Eui Jin%Hwang%NULL%0,            Seung Jin%Yoo%NULL%2,            Seung Jin%Yoo%NULL%0,            Ju Gang%Nam%NULL%2,            Ju Gang%Nam%NULL%0,            Chang Hyun%Lee%NULL%2,            Chang Hyun%Lee%NULL%0,            Jin Mo%Goo%NULL%2,            Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,            Akihiko%Sakata%NULL%1,            Mitsuhiro%Kirita%NULL%1,            Takashi%Hiroi%NULL%1,            Ken-ichiro%Kobayashi%NULL%1,            Kenji%Kubo%NULL%1,            Hyunjin%Kim%NULL%1,            Azusa%Nishimoto%NULL%1,            Chikara%Maeda%NULL%1,            Akira%Kawamura%NULL%1,            Nobuhiro%Komiya%NULL%1,            Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,            Huaxiang%Xu%NULL%1,            Qinglin%Shen%NULL%1,            Xianghai%Zhang%NULL%1,            Bing%Fan%26171381@qq.com%1,            Chuanhong%Wang%NULL%1,            Bingliang%Zeng%NULL%1,            Zicong%Li%NULL%1,            Xiaofen%Li%NULL%1,            Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,            Mengdi%Jin%NULL%1,            Li%Miao%NULL%1,            Xinying%Yang%NULL%1,            Peng%Huang%NULL%1,            Huanwen%Xiong%NULL%1,            Peijie%Huang%NULL%1,            Qi%Zhao%NULL%1,            Jiang%Du%NULL%1,            Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,            Yonge%Chi%NULL%2,            Yonge%Chi%NULL%0,            Liang%Zhang%NULL%2,            Liang%Zhang%NULL%0,            Huan%Liu%NULL%2,            Huan%Liu%NULL%0,            Kun%Du%NULL%1,            Zhengxing%Li%NULL%2,            Zhengxing%Li%NULL%0,            Jie%Chen%NULL%2,            Jie%Chen%NULL%0,            Liuhui%Cheng%NULL%2,            Liuhui%Cheng%NULL%0,            Daoqing%Wang%wangdaoqing1215@126.com%2,            Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,            Kai%Xie%NULL%2,            Kai%Xie%NULL%0,            Hui%Lu%NULL%1,            Lei%Xu%bayinhexl@126.com%1,            Shusheng%Zhou%zhouss108@163.com%1,            Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,            Christopher%Gieraerts%NULL%2,            Christopher%Gieraerts%NULL%0,            Yves%De Bruecker%NULL%2,            Yves%De Bruecker%NULL%0,            Lode%Janssen%NULL%2,            Lode%Janssen%NULL%0,            Hanne%Valgaeren%NULL%2,            Hanne%Valgaeren%NULL%0,            Dagmar%Obbels%NULL%2,            Dagmar%Obbels%NULL%0,            Marc%Gillis%NULL%2,            Marc%Gillis%NULL%0,            Marc%Van Ranst%NULL%2,            Marc%Van Ranst%NULL%0,            Johan%Frans%NULL%1,            Annick%Demeyere%NULL%2,            Annick%Demeyere%NULL%0,            Rolf%Symons%rolf.symons@imelda.be%2,            Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1369,7 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1329,7 +1401,7 @@
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
         <v>99</v>
@@ -1361,7 +1433,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1393,7 +1465,7 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1425,7 +1497,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -1457,7 +1529,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -1489,7 +1561,7 @@
         <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1521,7 +1593,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -1553,7 +1625,7 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -1585,7 +1657,7 @@
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1617,7 +1689,7 @@
         <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1649,7 +1721,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
